--- a/historical.databases/Gazetteer_Chapman_Colombia_Expeditions.xlsx
+++ b/historical.databases/Gazetteer_Chapman_Colombia_Expeditions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/glennseeholzer/Dropbox/Chapman/expediciornis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/glennseeholzer/Dropbox/Chapman/expediciornis/historical.databases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E083A4F-698F-B449-B567-EAAFFFD8B368}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0692D6-3E83-2D4B-A29B-D6C3C017EA51}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6900" yWindow="460" windowWidth="21480" windowHeight="17260" xr2:uid="{3D1F2814-41A2-A340-856E-49F90DDEFF78}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="789">
   <si>
     <t>Lat</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Dates</t>
   </si>
   <si>
-    <t>SpecimenCount</t>
-  </si>
-  <si>
     <t>San Antonio</t>
   </si>
   <si>
@@ -696,9 +693,6 @@
     <t>Barranquilla</t>
   </si>
   <si>
-    <t>Lat. 110, Long. 74 40'; 0.</t>
-  </si>
-  <si>
     <t xml:space="preserve">A city of some 40,000 inhabitants, about 20 miles from the mouth of the Magdalena. Point of departure for steamers up that river. The surrounding country is typical of the semi-arid tropics and there are also lagoons and marshes connected with the river. No large collection of birds appears to have been made here but most of the collec- tors who enter the Magdalena region secure a few specimens near Barranquilla. </t>
   </si>
   <si>
@@ -939,9 +933,6 @@
     <t>La Holanda</t>
   </si>
   <si>
-    <t>﻿La Mar</t>
-  </si>
-  <si>
     <t>8203 ft.</t>
   </si>
   <si>
@@ -1026,9 +1017,6 @@
     <t>Lat. 7 8', Long. 73 8'; 8500 ft.</t>
   </si>
   <si>
-    <t>Medelln</t>
-  </si>
-  <si>
     <t>Lat. 6 8', Long. 75 54'; 4839 ft.</t>
   </si>
   <si>
@@ -1473,9 +1461,6 @@
     <t>Verbatim from Paynter-Colombia-Gazetteer. Possibly the same as Florida where Chapman and Richardson collected two months prior. See Plate XV for map indicating likely relative geographic positions of these 'Munchique' localities.</t>
   </si>
   <si>
-    <t>﻿Guengue</t>
-  </si>
-  <si>
     <t>Verbatim from Paynter-Colombia-Gazetteer, but not precise. Locality should be at around 2600 m, this coodinate falls at 3800m. Somewhere downslope, possibly in Combeima River valley. Need to find old Camino Real and place it at the appropriate elevation. Regardless, not a locality we're likely to re-visit.</t>
   </si>
   <si>
@@ -2043,9 +2028,6 @@
     <t xml:space="preserve">A place on the Lower Magdalena, near Calamar. </t>
   </si>
   <si>
-    <t>﻿San Joaquim, Bahia del Choco</t>
-  </si>
-  <si>
     <t>Paynter-Colombia-Gazetteer. Coordinate at town center (GoogleEarth). Quite confusing because in the Chapman 1917 description, La Morelia is said to be located southeast of Florencia, whereas the town of La Morelia lies to the southwest. Mispecified cardinal directions notwithstanding, the rest of the details presented in Chapman 1917 line up well with the town of La Morelia. There are low hills to the east about 250 m (500 ft) higher than the town. It is situated between the Rios Bodoquera and Pescado, albeit much closer to the Bodoquera. Considering that the mule trail at the time was reported to be quite bad, I could see how it could take two days to reach this locality from Florencia.</t>
   </si>
   <si>
@@ -2160,9 +2142,6 @@
     <t>Not located in Paynter-Colombia-Gazetteer</t>
   </si>
   <si>
-    <t>﻿Magangue</t>
-  </si>
-  <si>
     <t>Rio Monguido</t>
   </si>
   <si>
@@ -2346,9 +2325,6 @@
     <t>Not described in Chapman locality glossery but listed on a few specimens from CUMV. Looks like Fuertes collected a few specimens while transiting to Salento.</t>
   </si>
   <si>
-    <t>﻿Icononzo</t>
-  </si>
-  <si>
     <t xml:space="preserve">A station on the railway line between Puerto Colombia and Barranquilla. On one side lie the open savannas of the arid coastal zone, on the other, mangrove-bordered streams and lagoons. </t>
   </si>
   <si>
@@ -2368,6 +2344,57 @@
   </si>
   <si>
     <t>Laguneta-RioToche</t>
+  </si>
+  <si>
+    <t>Guengue</t>
+  </si>
+  <si>
+    <t>La Mar</t>
+  </si>
+  <si>
+    <t>Icononzo</t>
+  </si>
+  <si>
+    <t>Magangue</t>
+  </si>
+  <si>
+    <t>San Joaquim, Bahia del Choco</t>
+  </si>
+  <si>
+    <t>Medellin</t>
+  </si>
+  <si>
+    <t>Rio Magdalena</t>
+  </si>
+  <si>
+    <t>A general locality given to specimens collected along the Rio Magdalena during Cherrie and Chapman's transit from Calamar to Honda 22-31 Jan 1913</t>
+  </si>
+  <si>
+    <t>Jan 22-31, 1913</t>
+  </si>
+  <si>
+    <t>Volcancito</t>
+  </si>
+  <si>
+    <t>A minor locality of one specimen in Rio Toche drainage at approximately same elvation as Laguneta</t>
+  </si>
+  <si>
+    <t>Point placed at 5,500 ft between La Candela and San Agustin</t>
+  </si>
+  <si>
+    <t>Lat. 11 00, Long. 74 40'; 0 ft.</t>
+  </si>
+  <si>
+    <t>Coordinate a city center.</t>
+  </si>
+  <si>
+    <t>A minor locality with maybe a half dozen specimens</t>
+  </si>
+  <si>
+    <t>ReportedSpecimenCount</t>
+  </si>
+  <si>
+    <t>All specimens from Santa Isabel (the lesser of the two localities) assigned to Paramo Santa Isabel</t>
   </si>
 </sst>
 </file>
@@ -2737,13 +2764,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45018DB7-FD06-AA47-AF78-742E5380DC40}">
-  <dimension ref="A1:O239"/>
+  <dimension ref="A1:O241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B79" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B126" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B84" sqref="B84"/>
+      <selection pane="bottomRight" activeCell="I159" sqref="I159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2765,13 +2792,13 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -2789,10 +2816,10 @@
         <v>3</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>5</v>
@@ -2804,22 +2831,22 @@
         <v>7</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>8</v>
+        <v>787</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="K2" s="1">
         <v>73</v>
@@ -2830,14 +2857,14 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="3"/>
@@ -2845,13 +2872,13 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D4" s="1">
         <v>4.388401</v>
@@ -2860,16 +2887,16 @@
         <v>-74.324594000000005</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="K4" s="1">
         <v>75</v>
@@ -2878,10 +2905,10 @@
         <v>7</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="O4" s="1">
         <v>188</v>
@@ -2889,11 +2916,11 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D5" s="1">
         <v>4.7830719999999998</v>
@@ -2902,16 +2929,16 @@
         <v>-76.173270000000002</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="K5" s="1">
         <v>45</v>
@@ -2920,10 +2947,10 @@
         <v>3</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="O5" s="1">
         <v>28</v>
@@ -2931,11 +2958,11 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="D6" s="1">
         <v>9.3833330000000004</v>
@@ -2944,13 +2971,13 @@
         <v>-74.75</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="K6" s="1">
         <v>127</v>
@@ -2959,20 +2986,20 @@
         <v>7</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="O6" s="1"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D7" s="1">
         <v>1.916191</v>
@@ -2981,13 +3008,13 @@
         <v>-76.851235000000003</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="K7" s="1">
         <v>61</v>
@@ -2996,10 +3023,10 @@
         <v>4</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="O7" s="1">
         <v>175</v>
@@ -3007,14 +3034,14 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="K8" s="1">
         <v>118</v>
@@ -3025,11 +3052,11 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D9" s="1">
         <v>7.061534</v>
@@ -3041,13 +3068,13 @@
         <v>450</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="K9" s="1">
         <v>5</v>
@@ -3056,10 +3083,10 @@
         <v>8</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="O9" s="1">
         <v>255</v>
@@ -3067,11 +3094,11 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="D10" s="1">
         <v>1.9106240000000001</v>
@@ -3080,16 +3107,16 @@
         <v>-75.680143000000001</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="K10" s="1">
         <v>67</v>
@@ -3098,10 +3125,10 @@
         <v>5</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="O10" s="1">
         <v>248</v>
@@ -3109,14 +3136,14 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="K11" s="1">
         <v>36</v>
@@ -3127,11 +3154,11 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D12" s="1">
         <v>4.7617380000000002</v>
@@ -3140,13 +3167,13 @@
         <v>-74.464726999999996</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="K12" s="1">
         <v>85</v>
@@ -3157,14 +3184,14 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="3"/>
@@ -3172,14 +3199,14 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="K14" s="1">
         <v>136</v>
@@ -3190,14 +3217,14 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="K15" s="1">
         <v>135</v>
@@ -3208,14 +3235,14 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="K16" s="1">
         <v>155</v>
@@ -3226,11 +3253,11 @@
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D17" s="1">
         <v>5.4123939999999999</v>
@@ -3239,13 +3266,13 @@
         <v>-76.414856</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="K17" s="1">
         <v>9</v>
@@ -3256,11 +3283,11 @@
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="1" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="D18" s="1">
         <v>9</v>
@@ -3269,10 +3296,10 @@
         <v>-73.966667000000001</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="M18" s="1"/>
       <c r="N18" s="3"/>
@@ -3280,11 +3307,11 @@
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D19" s="1">
         <v>1.6733150000000001</v>
@@ -3296,13 +3323,13 @@
         <v>20</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="K19" s="1">
         <v>29</v>
@@ -3311,10 +3338,10 @@
         <v>6</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="O19" s="1">
         <v>491</v>
@@ -3322,14 +3349,26 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="D20" s="1">
+        <v>10.983252999999999</v>
+      </c>
+      <c r="E20" s="1">
+        <v>-74.782616000000004</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="G20" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>223</v>
       </c>
       <c r="K20" s="1">
         <v>130</v>
@@ -3340,11 +3379,11 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="D21" s="1">
         <v>4.1666670000000003</v>
@@ -3353,13 +3392,13 @@
         <v>-73.016666999999998</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="K21" s="1">
         <v>169</v>
@@ -3370,11 +3409,11 @@
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D22" s="1">
         <v>6.25</v>
@@ -3383,13 +3422,13 @@
         <v>-75.383332999999993</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="K22" s="1">
         <v>39</v>
@@ -3398,10 +3437,10 @@
         <v>8</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="O22" s="1">
         <v>88</v>
@@ -3409,11 +3448,11 @@
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="1" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D23" s="1">
         <v>6</v>
@@ -3422,13 +3461,13 @@
         <v>-77.083332999999996</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="M23" s="1"/>
       <c r="N23" s="3"/>
@@ -3436,11 +3475,11 @@
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="1" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="D24" s="1">
         <v>8.9499999999999993</v>
@@ -3449,13 +3488,13 @@
         <v>-74.016666999999998</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="K24" s="1">
         <v>124</v>
@@ -3464,10 +3503,10 @@
         <v>8</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="O24" s="1">
         <v>10</v>
@@ -3475,11 +3514,11 @@
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D25" s="1">
         <v>4.5999999999999996</v>
@@ -3488,13 +3527,13 @@
         <v>-74.083332999999996</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="K25" s="1">
         <v>179</v>
@@ -3503,10 +3542,10 @@
         <v>7</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="O25" s="1">
         <v>80</v>
@@ -3514,14 +3553,14 @@
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B26" s="1"/>
       <c r="G26" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K26" s="1">
         <v>141</v>
@@ -3532,14 +3571,14 @@
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B27" s="1"/>
       <c r="G27" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K27" s="1">
         <v>108</v>
@@ -3550,11 +3589,11 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="D28" s="1">
         <v>4.1663410000000001</v>
@@ -3566,13 +3605,13 @@
         <v>1370</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="K28" s="1">
         <v>165</v>
@@ -3581,10 +3620,10 @@
         <v>7</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="O28" s="1">
         <v>408</v>
@@ -3592,11 +3631,11 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D29" s="1">
         <v>3.8833329999999999</v>
@@ -3605,13 +3644,13 @@
         <v>-77.066666999999995</v>
       </c>
       <c r="G29" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J29" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="K29" s="1">
         <v>19</v>
@@ -3620,10 +3659,10 @@
         <v>1</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="O29" s="1">
         <v>35</v>
@@ -3631,11 +3670,11 @@
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D30" s="1">
         <v>1.4917260000000001</v>
@@ -3644,13 +3683,13 @@
         <v>-78.077940999999996</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="K30" s="1">
         <v>30</v>
@@ -3659,10 +3698,10 @@
         <v>6</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="O30" s="1">
         <v>108</v>
@@ -3670,14 +3709,14 @@
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B31" s="1"/>
       <c r="G31" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="M31" s="1"/>
       <c r="N31" s="3"/>
@@ -3685,11 +3724,11 @@
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="D32" s="1">
         <v>10.250348000000001</v>
@@ -3698,22 +3737,22 @@
         <v>-74.916503000000006</v>
       </c>
       <c r="G32" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J32" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="K32" s="1">
         <v>128</v>
       </c>
       <c r="L32" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M32" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="N32" s="3"/>
       <c r="O32" s="1">
@@ -3722,11 +3761,11 @@
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D33" s="1">
         <v>3.6581419999999998</v>
@@ -3735,13 +3774,13 @@
         <v>-76.690770999999998</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="K33" s="1">
         <v>22</v>
@@ -3750,10 +3789,10 @@
         <v>1</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="O33" s="1">
         <v>128</v>
@@ -3761,11 +3800,11 @@
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D34" s="1">
         <v>3.451565</v>
@@ -3774,22 +3813,22 @@
         <v>-76.532071999999999</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="K34" s="1">
         <v>53</v>
       </c>
       <c r="L34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M34" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="N34" s="3"/>
       <c r="O34" s="1">
@@ -3798,14 +3837,14 @@
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B35" s="1"/>
       <c r="G35" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="K35" s="1">
         <v>113</v>
@@ -3816,11 +3855,11 @@
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="1" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="D36" s="1">
         <v>1.7584500000000001</v>
@@ -3829,10 +3868,10 @@
         <v>-75.634394999999998</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="M36" s="1"/>
       <c r="N36" s="3"/>
@@ -3840,11 +3879,11 @@
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="1" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D37" s="1">
         <v>4.4166670000000003</v>
@@ -3853,7 +3892,7 @@
         <v>-73.95</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M37" s="1"/>
       <c r="N37" s="3"/>
@@ -3861,11 +3900,11 @@
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="1" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="D38" s="1">
         <v>8.0833329999999997</v>
@@ -3874,7 +3913,7 @@
         <v>-73.849999999999994</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M38" s="1"/>
       <c r="N38" s="3"/>
@@ -3882,17 +3921,17 @@
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="1" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="B39" s="1"/>
       <c r="G39" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="J39" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="J39" s="1" t="s">
+      <c r="K39" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>201</v>
       </c>
       <c r="M39" s="1"/>
       <c r="N39" s="3"/>
@@ -3900,14 +3939,14 @@
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B40" s="1"/>
       <c r="G40" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="K40" s="1">
         <v>125</v>
@@ -3918,14 +3957,14 @@
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B41" s="1"/>
       <c r="G41" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="M41" s="1"/>
       <c r="N41" s="3"/>
@@ -3933,11 +3972,11 @@
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D42" s="1">
         <v>2.5322629999999999</v>
@@ -3949,13 +3988,13 @@
         <v>2540</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="K42" s="1">
         <v>57</v>
@@ -3964,7 +4003,7 @@
         <v>2</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N42" s="3"/>
       <c r="O42" s="1">
@@ -3973,11 +4012,11 @@
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D43" s="1">
         <v>4.2149169999999998</v>
@@ -3986,13 +4025,13 @@
         <v>-74.981131000000005</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="K43" s="1">
         <v>69</v>
@@ -4001,7 +4040,7 @@
         <v>3</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N43" s="3"/>
       <c r="O43" s="1">
@@ -4010,14 +4049,14 @@
     </row>
     <row r="44" spans="1:15">
       <c r="A44" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B44" s="1"/>
       <c r="G44" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="K44" s="1">
         <v>154</v>
@@ -4028,11 +4067,11 @@
     </row>
     <row r="45" spans="1:15">
       <c r="A45" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D45" s="1">
         <v>4.4430550000000002</v>
@@ -4041,13 +4080,13 @@
         <v>-74.044987000000006</v>
       </c>
       <c r="G45" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="J45" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="K45" s="1">
         <v>82</v>
@@ -4056,7 +4095,7 @@
         <v>7</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N45" s="3"/>
       <c r="O45" s="1">
@@ -4065,14 +4104,14 @@
     </row>
     <row r="46" spans="1:15">
       <c r="A46" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B46" s="1"/>
       <c r="G46" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K46" s="1">
         <v>149</v>
@@ -4083,11 +4122,11 @@
     </row>
     <row r="47" spans="1:15">
       <c r="A47" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D47" s="1">
         <v>4.55</v>
@@ -4096,10 +4135,10 @@
         <v>-73.966667000000001</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="K47" s="1">
         <v>83</v>
@@ -4110,11 +4149,11 @@
     </row>
     <row r="48" spans="1:15" ht="16" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="D48" s="1">
         <v>11.016667</v>
@@ -4123,13 +4162,13 @@
         <v>-74.25</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M48" s="1"/>
       <c r="N48" s="3"/>
@@ -4137,14 +4176,14 @@
     </row>
     <row r="49" spans="1:15" ht="16" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B49" s="1"/>
       <c r="G49" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="K49" s="1">
         <v>144</v>
@@ -4155,11 +4194,11 @@
     </row>
     <row r="50" spans="1:15" ht="16" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D50" s="1">
         <v>3.78274</v>
@@ -4168,16 +4207,16 @@
         <v>-76.760142000000002</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="K50" s="1">
         <v>21</v>
@@ -4186,10 +4225,10 @@
         <v>1</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="O50" s="1">
         <v>82</v>
@@ -4197,14 +4236,14 @@
     </row>
     <row r="51" spans="1:15" ht="16" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B51" s="1"/>
       <c r="G51" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="K51" s="1">
         <v>153</v>
@@ -4215,11 +4254,11 @@
     </row>
     <row r="52" spans="1:15" ht="16" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D52" s="1">
         <v>2.5155249999999998</v>
@@ -4228,13 +4267,13 @@
         <v>-76.963571000000002</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="K52" s="1">
         <v>58</v>
@@ -4243,7 +4282,7 @@
         <v>2</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N52" s="3"/>
       <c r="O52" s="1">
@@ -4252,11 +4291,11 @@
     </row>
     <row r="53" spans="1:15" ht="16" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D53" s="1">
         <v>2.5166750000000002</v>
@@ -4268,13 +4307,13 @@
         <v>1225</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="K53" s="1">
         <v>26</v>
@@ -4283,7 +4322,7 @@
         <v>2</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N53" s="3"/>
       <c r="O53" s="1">
@@ -4292,14 +4331,14 @@
     </row>
     <row r="54" spans="1:15" ht="16" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B54" s="1"/>
       <c r="G54" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="K54" s="1">
         <v>110</v>
@@ -4310,14 +4349,14 @@
     </row>
     <row r="55" spans="1:15" ht="16" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B55" s="1"/>
       <c r="G55" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="M55" s="1"/>
       <c r="N55" s="3"/>
@@ -4325,11 +4364,11 @@
     </row>
     <row r="56" spans="1:15" ht="16" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B56" s="1"/>
       <c r="J56" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M56" s="1"/>
       <c r="N56" s="3"/>
@@ -4337,14 +4376,14 @@
     </row>
     <row r="57" spans="1:15" ht="16" customHeight="1">
       <c r="A57" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B57" s="1"/>
       <c r="G57" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K57" s="1">
         <v>43</v>
@@ -4355,14 +4394,14 @@
     </row>
     <row r="58" spans="1:15" ht="16" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B58" s="1"/>
       <c r="G58" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="K58" s="1">
         <v>16</v>
@@ -4373,14 +4412,14 @@
     </row>
     <row r="59" spans="1:15" ht="16" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B59" s="1"/>
       <c r="G59" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="K59" s="1">
         <v>159</v>
@@ -4391,11 +4430,11 @@
     </row>
     <row r="60" spans="1:15" ht="16" customHeight="1">
       <c r="A60" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D60" s="1">
         <v>7.0009620000000004</v>
@@ -4404,13 +4443,13 @@
         <v>-76.265512999999999</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="K60" s="1">
         <v>6</v>
@@ -4421,14 +4460,14 @@
     </row>
     <row r="61" spans="1:15" ht="16" customHeight="1">
       <c r="A61" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B61" s="1"/>
       <c r="G61" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="M61" s="1"/>
       <c r="N61" s="3"/>
@@ -4436,14 +4475,14 @@
     </row>
     <row r="62" spans="1:15" ht="16" customHeight="1">
       <c r="A62" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B62" s="1"/>
       <c r="G62" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="K62" s="1">
         <v>93</v>
@@ -4454,14 +4493,14 @@
     </row>
     <row r="63" spans="1:15" ht="16" customHeight="1">
       <c r="A63" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B63" s="1"/>
       <c r="G63" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="M63" s="1"/>
       <c r="N63" s="3"/>
@@ -4469,14 +4508,14 @@
     </row>
     <row r="64" spans="1:15" ht="16" customHeight="1">
       <c r="A64" s="1" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="B64" s="1"/>
       <c r="G64" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="K64" s="1">
         <v>95</v>
@@ -4487,11 +4526,11 @@
     </row>
     <row r="65" spans="1:15" ht="16" customHeight="1">
       <c r="A65" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D65" s="7">
         <v>5.1101729999999996</v>
@@ -4500,13 +4539,13 @@
         <v>-74.639945999999995</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="K65" s="1">
         <v>97</v>
@@ -4515,7 +4554,7 @@
         <v>7</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N65" s="3"/>
       <c r="O65" s="1">
@@ -4524,11 +4563,11 @@
     </row>
     <row r="66" spans="1:15" ht="16" customHeight="1">
       <c r="A66" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D66" s="1">
         <v>4.5</v>
@@ -4537,13 +4576,13 @@
         <v>-75.333332999999996</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="K66" s="1">
         <v>71</v>
@@ -4552,7 +4591,7 @@
         <v>3</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N66" s="3"/>
       <c r="O66" s="1">
@@ -4561,20 +4600,20 @@
     </row>
     <row r="67" spans="1:15" ht="16" customHeight="1">
       <c r="A67" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B67" s="1"/>
       <c r="G67" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="K67" s="1">
         <v>160</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="M67" s="1"/>
       <c r="N67" s="3"/>
@@ -4582,14 +4621,14 @@
     </row>
     <row r="68" spans="1:15" ht="16" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B68" s="1"/>
       <c r="G68" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="M68" s="1"/>
       <c r="N68" s="3"/>
@@ -4597,14 +4636,14 @@
     </row>
     <row r="69" spans="1:15" ht="16" customHeight="1">
       <c r="A69" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B69" s="1"/>
       <c r="G69" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="K69" s="1">
         <v>156</v>
@@ -4615,14 +4654,14 @@
     </row>
     <row r="70" spans="1:15" ht="16" customHeight="1">
       <c r="A70" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B70" s="1"/>
       <c r="G70" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="M70" s="1"/>
       <c r="N70" s="3"/>
@@ -4630,13 +4669,13 @@
     </row>
     <row r="71" spans="1:15" ht="16" customHeight="1">
       <c r="A71" s="1" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D71" s="1">
         <v>4.4257520000000001</v>
@@ -4645,13 +4684,13 @@
         <v>-74.293205</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="K71" s="1">
         <v>77</v>
@@ -4660,7 +4699,7 @@
         <v>7</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N71" s="3"/>
       <c r="O71" s="1">
@@ -4669,13 +4708,13 @@
     </row>
     <row r="72" spans="1:15" ht="16" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D72" s="1">
         <v>4.4149640000000003</v>
@@ -4687,13 +4726,13 @@
         <v>2468</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="K72" s="1">
         <v>76</v>
@@ -4702,7 +4741,7 @@
         <v>7</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N72" s="3"/>
       <c r="O72" s="1">
@@ -4711,14 +4750,14 @@
     </row>
     <row r="73" spans="1:15" ht="16" customHeight="1">
       <c r="A73" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B73" s="1"/>
       <c r="G73" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M73" s="1"/>
       <c r="N73" s="3"/>
@@ -4726,14 +4765,14 @@
     </row>
     <row r="74" spans="1:15" ht="16" customHeight="1">
       <c r="A74" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B74" s="1"/>
       <c r="G74" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="M74" s="1"/>
       <c r="N74" s="3"/>
@@ -4741,14 +4780,14 @@
     </row>
     <row r="75" spans="1:15" ht="16" customHeight="1">
       <c r="A75" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B75" s="1"/>
       <c r="G75" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K75" s="1">
         <v>41</v>
@@ -4759,11 +4798,11 @@
     </row>
     <row r="76" spans="1:15" ht="16" customHeight="1">
       <c r="A76" s="1" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D76" s="1">
         <v>4.8166669999999998</v>
@@ -4772,7 +4811,7 @@
         <v>-74.366667000000007</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M76" s="1"/>
       <c r="N76" s="3"/>
@@ -4780,11 +4819,11 @@
     </row>
     <row r="77" spans="1:15" ht="16" customHeight="1">
       <c r="A77" s="1" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D77" s="7">
         <v>4.6666040000000004</v>
@@ -4793,10 +4832,10 @@
         <v>-75.633341999999999</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="M77" s="1"/>
       <c r="N77" s="3"/>
@@ -4804,13 +4843,13 @@
     </row>
     <row r="78" spans="1:15" ht="16" customHeight="1">
       <c r="A78" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="D78" s="1">
         <v>1.6157049999999999</v>
@@ -4822,13 +4861,13 @@
         <v>200</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="K78" s="1">
         <v>171</v>
@@ -4837,7 +4876,7 @@
         <v>5</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N78" s="3"/>
       <c r="O78" s="1">
@@ -4846,13 +4885,13 @@
     </row>
     <row r="79" spans="1:15" ht="16" customHeight="1">
       <c r="A79" s="1" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D79" s="6">
         <v>3.3238259999999999</v>
@@ -4861,7 +4900,7 @@
         <v>-76.234682000000006</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="M79" s="1"/>
       <c r="N79" s="3"/>
@@ -4869,14 +4908,14 @@
     </row>
     <row r="80" spans="1:15" ht="16" customHeight="1">
       <c r="A80" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B80" s="1"/>
       <c r="G80" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="K80" s="1">
         <v>84</v>
@@ -4887,14 +4926,14 @@
     </row>
     <row r="81" spans="1:15" ht="16" customHeight="1">
       <c r="A81" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B81" s="1"/>
       <c r="G81" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="K81" s="1">
         <v>7</v>
@@ -4905,11 +4944,11 @@
     </row>
     <row r="82" spans="1:15" ht="16" customHeight="1">
       <c r="A82" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="D82" s="6">
         <v>10.516667</v>
@@ -4918,13 +4957,13 @@
         <v>-74.183333000000005</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="M82" s="1"/>
       <c r="N82" s="3"/>
@@ -4932,13 +4971,13 @@
     </row>
     <row r="83" spans="1:15" ht="16" customHeight="1">
       <c r="A83" s="1" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D83" s="1">
         <v>4.3499999999999996</v>
@@ -4947,13 +4986,13 @@
         <v>-74.366667000000007</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="K83" s="1">
         <v>74</v>
@@ -4962,7 +5001,7 @@
         <v>7</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N83" s="3"/>
       <c r="O83" s="1">
@@ -4971,11 +5010,11 @@
     </row>
     <row r="84" spans="1:15" ht="16" customHeight="1">
       <c r="A84" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="1" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D84" s="1">
         <v>2.5379450000000001</v>
@@ -4984,13 +5023,13 @@
         <v>-76.997828999999996</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="K84" s="1">
         <v>25</v>
@@ -4999,7 +5038,7 @@
         <v>2</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N84" s="3"/>
       <c r="O84" s="1">
@@ -5008,11 +5047,11 @@
     </row>
     <row r="85" spans="1:15" ht="16" customHeight="1">
       <c r="A85" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D85" s="1">
         <v>2.9691360000000002</v>
@@ -5021,13 +5060,13 @@
         <v>-78.182655999999994</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K85" s="1">
         <v>27</v>
@@ -5038,14 +5077,14 @@
     </row>
     <row r="86" spans="1:15" ht="16" customHeight="1">
       <c r="A86" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B86" s="1"/>
       <c r="G86" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="K86" s="1">
         <v>96</v>
@@ -5056,13 +5095,13 @@
     </row>
     <row r="87" spans="1:15" ht="16" customHeight="1">
       <c r="A87" s="1" t="s">
-        <v>481</v>
+        <v>772</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D87" s="1">
         <v>3.233333</v>
@@ -5071,13 +5110,13 @@
         <v>-76.349999999999994</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="K87" s="1">
         <v>55</v>
@@ -5086,7 +5125,7 @@
         <v>1</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N87" s="3"/>
       <c r="O87" s="1">
@@ -5095,14 +5134,14 @@
     </row>
     <row r="88" spans="1:15" ht="16" customHeight="1">
       <c r="A88" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B88" s="1"/>
       <c r="G88" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="K88" s="1">
         <v>116</v>
@@ -5113,11 +5152,11 @@
     </row>
     <row r="89" spans="1:15" ht="16" customHeight="1">
       <c r="A89" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="1" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D89" s="1">
         <v>5.2047059999999998</v>
@@ -5129,13 +5168,13 @@
         <v>200</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="K89" s="1">
         <v>98</v>
@@ -5144,7 +5183,7 @@
         <v>7</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="N89" s="3"/>
       <c r="O89" s="1">
@@ -5153,11 +5192,11 @@
     </row>
     <row r="90" spans="1:15" ht="16" customHeight="1">
       <c r="A90" s="1" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="1" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D90" s="1">
         <v>5.1534769999999996</v>
@@ -5166,10 +5205,10 @@
         <v>-75.037125000000003</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="M90" s="1"/>
       <c r="N90" s="3"/>
@@ -5177,17 +5216,17 @@
     </row>
     <row r="91" spans="1:15" ht="16" customHeight="1">
       <c r="A91" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="1" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="K91" s="1">
         <v>70</v>
@@ -5198,11 +5237,11 @@
     </row>
     <row r="92" spans="1:15" ht="16" customHeight="1">
       <c r="A92" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="B92"/>
       <c r="C92" s="1" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D92" s="1">
         <v>4.1833330000000002</v>
@@ -5211,7 +5250,7 @@
         <v>-74.533332999999999</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M92" s="1"/>
       <c r="N92" s="3"/>
@@ -5219,14 +5258,14 @@
     </row>
     <row r="93" spans="1:15" ht="16" customHeight="1">
       <c r="A93" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B93" s="1"/>
       <c r="G93" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="M93" s="1"/>
       <c r="N93" s="3"/>
@@ -5234,14 +5273,14 @@
     </row>
     <row r="94" spans="1:15" ht="16" customHeight="1">
       <c r="A94" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B94" s="1"/>
       <c r="G94" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K94" s="1">
         <v>54</v>
@@ -5252,14 +5291,14 @@
     </row>
     <row r="95" spans="1:15" ht="16" customHeight="1">
       <c r="A95" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B95" s="1"/>
       <c r="G95" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="M95" s="1"/>
       <c r="N95" s="3"/>
@@ -5267,11 +5306,11 @@
     </row>
     <row r="96" spans="1:15" ht="16" customHeight="1">
       <c r="A96" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D96" s="1">
         <v>4.983333</v>
@@ -5280,13 +5319,13 @@
         <v>-76.400000000000006</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="K96" s="1">
         <v>14</v>
@@ -5295,7 +5334,7 @@
         <v>3</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N96" s="3"/>
       <c r="O96" s="1">
@@ -5304,13 +5343,13 @@
     </row>
     <row r="97" spans="1:15" ht="16" customHeight="1">
       <c r="A97" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="D97" s="1">
         <v>1.8332999999999999</v>
@@ -5322,13 +5361,13 @@
         <v>1980</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="K97" s="1">
         <v>65</v>
@@ -5337,7 +5376,7 @@
         <v>5</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N97" s="3"/>
       <c r="O97" s="1">
@@ -5346,14 +5385,14 @@
     </row>
     <row r="98" spans="1:15" ht="16" customHeight="1">
       <c r="A98" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B98" s="1"/>
       <c r="G98" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="M98" s="1"/>
       <c r="N98" s="3"/>
@@ -5361,14 +5400,14 @@
     </row>
     <row r="99" spans="1:15" ht="16" customHeight="1">
       <c r="A99" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B99" s="1"/>
       <c r="G99" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="K99" s="1">
         <v>115</v>
@@ -5379,14 +5418,14 @@
     </row>
     <row r="100" spans="1:15" ht="16" customHeight="1">
       <c r="A100" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B100" s="1"/>
       <c r="G100" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="K100" s="1">
         <v>99</v>
@@ -5397,11 +5436,11 @@
     </row>
     <row r="101" spans="1:15" ht="16" customHeight="1">
       <c r="A101" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B101" s="1"/>
       <c r="C101" s="1" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D101" s="1">
         <v>2.5833330000000001</v>
@@ -5410,19 +5449,19 @@
         <v>-76.916667000000004</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="L101" s="1">
         <v>2</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N101" s="3"/>
       <c r="O101" s="1">
@@ -5431,11 +5470,11 @@
     </row>
     <row r="102" spans="1:15" ht="16" customHeight="1">
       <c r="A102" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D102" s="1">
         <v>7.166722</v>
@@ -5444,13 +5483,13 @@
         <v>-75.416600000000003</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="K102" s="1">
         <v>34</v>
@@ -5459,7 +5498,7 @@
         <v>8</v>
       </c>
       <c r="M102" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N102" s="3"/>
       <c r="O102" s="1">
@@ -5468,14 +5507,14 @@
     </row>
     <row r="103" spans="1:15" ht="16" customHeight="1">
       <c r="A103" s="1" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="B103" s="1"/>
       <c r="G103" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="K103" s="1">
         <v>78</v>
@@ -5486,11 +5525,11 @@
     </row>
     <row r="104" spans="1:15" ht="16" customHeight="1">
       <c r="A104" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B104" s="1"/>
       <c r="C104" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D104" s="6">
         <v>4.7</v>
@@ -5499,13 +5538,13 @@
         <v>-74.25</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="K104" s="1">
         <v>88</v>
@@ -5516,13 +5555,13 @@
     </row>
     <row r="105" spans="1:15" ht="16" customHeight="1">
       <c r="A105" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D105" s="1">
         <v>3.5832769999999998</v>
@@ -5531,13 +5570,13 @@
         <v>-76.283311999999995</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="K105" s="1">
         <v>51</v>
@@ -5546,10 +5585,10 @@
         <v>1</v>
       </c>
       <c r="M105" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N105" s="3" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="O105" s="1">
         <v>124</v>
@@ -5557,14 +5596,14 @@
     </row>
     <row r="106" spans="1:15" ht="16" customHeight="1">
       <c r="A106" s="1" t="s">
-        <v>303</v>
+        <v>773</v>
       </c>
       <c r="B106" s="1"/>
       <c r="G106" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="M106" s="1"/>
       <c r="N106" s="3"/>
@@ -5572,14 +5611,14 @@
     </row>
     <row r="107" spans="1:15" ht="16" customHeight="1">
       <c r="A107" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B107" s="1"/>
       <c r="G107" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="M107" s="1"/>
       <c r="N107" s="3"/>
@@ -5587,13 +5626,13 @@
     </row>
     <row r="108" spans="1:15" ht="16" customHeight="1">
       <c r="A108" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="D108" s="1">
         <v>1.4877689999999999</v>
@@ -5605,16 +5644,16 @@
         <v>180</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="K108" s="1">
         <v>172</v>
@@ -5623,7 +5662,7 @@
         <v>5</v>
       </c>
       <c r="M108" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N108" s="3"/>
       <c r="O108" s="1">
@@ -5632,22 +5671,31 @@
     </row>
     <row r="109" spans="1:15" ht="16" customHeight="1">
       <c r="A109" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>468</v>
+        <v>464</v>
+      </c>
+      <c r="D109" s="1">
+        <v>1.8646450000000001</v>
+      </c>
+      <c r="E109" s="1">
+        <v>-76.299693000000005</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>485</v>
+        <v>783</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>480</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="K109" s="1">
         <v>64</v>
@@ -5656,7 +5704,7 @@
         <v>5</v>
       </c>
       <c r="M109" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N109" s="3"/>
       <c r="O109" s="1">
@@ -5665,14 +5713,14 @@
     </row>
     <row r="110" spans="1:15" ht="16" customHeight="1">
       <c r="A110" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B110" s="1"/>
       <c r="G110" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="K110" s="1">
         <v>89</v>
@@ -5683,11 +5731,11 @@
     </row>
     <row r="111" spans="1:15" ht="16" customHeight="1">
       <c r="A111" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B111" s="1"/>
       <c r="C111" s="1" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="D111" s="1">
         <v>11.033333000000001</v>
@@ -5696,13 +5744,13 @@
         <v>-74.866667000000007</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="K111" s="1">
         <v>131</v>
@@ -5711,7 +5759,7 @@
         <v>8</v>
       </c>
       <c r="M111" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N111" s="3"/>
       <c r="O111" s="1">
@@ -5720,20 +5768,20 @@
     </row>
     <row r="112" spans="1:15" ht="16" customHeight="1">
       <c r="A112" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B112" s="1"/>
       <c r="C112" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="K112" s="1">
         <v>94</v>
@@ -5744,11 +5792,11 @@
     </row>
     <row r="113" spans="1:15" ht="16" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B113" s="1"/>
       <c r="C113" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D113" s="6">
         <v>5</v>
@@ -5757,13 +5805,13 @@
         <v>-74.133332999999993</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="K113" s="1">
         <v>92</v>
@@ -5774,14 +5822,14 @@
     </row>
     <row r="114" spans="1:15" ht="16" customHeight="1">
       <c r="A114" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B114" s="1"/>
       <c r="G114" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="M114" s="1"/>
       <c r="N114" s="3"/>
@@ -5789,11 +5837,11 @@
     </row>
     <row r="115" spans="1:15" ht="16" customHeight="1">
       <c r="A115" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B115" s="1"/>
       <c r="C115" s="1" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D115" s="1">
         <v>2.1785369999999999</v>
@@ -5802,13 +5850,13 @@
         <v>-76.763375999999994</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="K115" s="1">
         <v>59</v>
@@ -5817,7 +5865,7 @@
         <v>4</v>
       </c>
       <c r="M115" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N115" s="3"/>
       <c r="O115" s="1">
@@ -5826,14 +5874,14 @@
     </row>
     <row r="116" spans="1:15" ht="16" customHeight="1">
       <c r="A116" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B116" s="1"/>
       <c r="G116" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="M116" s="1"/>
       <c r="N116" s="3"/>
@@ -5841,11 +5889,11 @@
     </row>
     <row r="117" spans="1:15" ht="16" customHeight="1">
       <c r="A117" s="1" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="B117" s="1"/>
       <c r="C117" s="1" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="D117" s="6">
         <v>11.166667</v>
@@ -5854,7 +5902,7 @@
         <v>-74.150000000000006</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M117" s="1"/>
       <c r="N117" s="3"/>
@@ -5862,11 +5910,11 @@
     </row>
     <row r="118" spans="1:15" ht="16" customHeight="1">
       <c r="A118" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B118" s="1"/>
       <c r="C118" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D118" s="1">
         <v>5.4</v>
@@ -5875,13 +5923,13 @@
         <v>-76.383332999999993</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="M118" s="1"/>
       <c r="N118" s="3"/>
@@ -5889,13 +5937,13 @@
     </row>
     <row r="119" spans="1:15" ht="16" customHeight="1">
       <c r="A119" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D119" s="1">
         <v>4.5885699999999998</v>
@@ -5907,13 +5955,13 @@
         <v>3000</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="K119" s="1">
         <v>47</v>
@@ -5922,7 +5970,7 @@
         <v>2</v>
       </c>
       <c r="M119" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N119" s="3"/>
       <c r="O119" s="1">
@@ -5931,14 +5979,14 @@
     </row>
     <row r="120" spans="1:15" ht="16" customHeight="1">
       <c r="A120" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B120" s="1"/>
       <c r="G120" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="M120" s="1"/>
       <c r="N120" s="3"/>
@@ -5946,14 +5994,14 @@
     </row>
     <row r="121" spans="1:15" ht="16" customHeight="1">
       <c r="A121" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B121" s="1"/>
       <c r="G121" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="M121" s="1"/>
       <c r="N121" s="3"/>
@@ -5961,11 +6009,11 @@
     </row>
     <row r="122" spans="1:15" ht="16" customHeight="1">
       <c r="A122" s="1" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B122" s="1"/>
       <c r="C122" s="1" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D122" s="1">
         <v>3.6363289999999999</v>
@@ -5974,16 +6022,16 @@
         <v>-76.640497999999994</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="K122" s="1">
         <v>24</v>
@@ -5992,10 +6040,10 @@
         <v>1</v>
       </c>
       <c r="M122" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="N122" s="3" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="O122" s="1">
         <v>165</v>
@@ -6003,14 +6051,14 @@
     </row>
     <row r="123" spans="1:15" ht="16" customHeight="1">
       <c r="A123" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B123" s="1"/>
       <c r="G123" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="M123" s="1"/>
       <c r="N123" s="3"/>
@@ -6018,11 +6066,11 @@
     </row>
     <row r="124" spans="1:15" ht="16" customHeight="1">
       <c r="A124" s="1" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="B124" s="1"/>
       <c r="H124" s="1" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="M124" s="1"/>
       <c r="N124" s="3"/>
@@ -6030,14 +6078,14 @@
     </row>
     <row r="125" spans="1:15" ht="16" customHeight="1">
       <c r="A125" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B125" s="1"/>
       <c r="G125" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="M125" s="1"/>
       <c r="N125" s="3"/>
@@ -6045,11 +6093,11 @@
     </row>
     <row r="126" spans="1:15" ht="16" customHeight="1">
       <c r="A126" s="1" t="s">
-        <v>710</v>
+        <v>775</v>
       </c>
       <c r="B126" s="1"/>
       <c r="C126" s="1" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="D126" s="6">
         <v>9.233333</v>
@@ -6058,7 +6106,7 @@
         <v>-74.75</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M126" s="1"/>
       <c r="N126" s="3"/>
@@ -6066,13 +6114,13 @@
     </row>
     <row r="127" spans="1:15" ht="16" customHeight="1">
       <c r="A127" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D127" s="1">
         <v>6.450367</v>
@@ -6081,22 +6129,22 @@
         <v>-74.499759999999995</v>
       </c>
       <c r="G127" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J127" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="K127" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="H127" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J127" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="K127" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="L127" s="1">
         <v>8</v>
       </c>
       <c r="M127" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N127" s="3"/>
       <c r="O127" s="1">
@@ -6105,14 +6153,14 @@
     </row>
     <row r="128" spans="1:15" ht="16" customHeight="1">
       <c r="A128" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B128" s="1"/>
       <c r="G128" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="M128" s="1"/>
       <c r="N128" s="3"/>
@@ -6120,14 +6168,14 @@
     </row>
     <row r="129" spans="1:15" ht="16" customHeight="1">
       <c r="A129" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B129" s="1"/>
       <c r="G129" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="K129" s="1">
         <v>158</v>
@@ -6138,14 +6186,14 @@
     </row>
     <row r="130" spans="1:15" ht="16" customHeight="1">
       <c r="A130" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B130" s="1"/>
       <c r="G130" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="K130" s="1">
         <v>142</v>
@@ -6156,14 +6204,14 @@
     </row>
     <row r="131" spans="1:15" ht="16" customHeight="1">
       <c r="A131" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B131" s="1"/>
       <c r="G131" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="K131" s="1">
         <v>163</v>
@@ -6174,11 +6222,11 @@
     </row>
     <row r="132" spans="1:15" ht="16" customHeight="1">
       <c r="A132" s="1" t="s">
-        <v>332</v>
+        <v>777</v>
       </c>
       <c r="B132" s="1"/>
       <c r="C132" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D132" s="6">
         <v>6.25</v>
@@ -6187,13 +6235,13 @@
         <v>-75.583332999999996</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="K132" s="1">
         <v>37</v>
@@ -6204,14 +6252,14 @@
     </row>
     <row r="133" spans="1:15" ht="16" customHeight="1">
       <c r="A133" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B133" s="1"/>
       <c r="G133" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="K133" s="1">
         <v>140</v>
@@ -6222,11 +6270,11 @@
     </row>
     <row r="134" spans="1:15" ht="16" customHeight="1">
       <c r="A134" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B134" s="1"/>
       <c r="C134" s="1" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D134" s="1">
         <v>3.5832999999999999</v>
@@ -6238,16 +6286,16 @@
         <v>2100</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="K134" s="1">
         <v>52</v>
@@ -6256,7 +6304,7 @@
         <v>1</v>
       </c>
       <c r="M134" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N134" s="3"/>
       <c r="O134" s="1">
@@ -6265,14 +6313,14 @@
     </row>
     <row r="135" spans="1:15" ht="16" customHeight="1">
       <c r="A135" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B135" s="1"/>
       <c r="G135" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="M135" s="1"/>
       <c r="N135" s="3"/>
@@ -6280,11 +6328,11 @@
     </row>
     <row r="136" spans="1:15" ht="16" customHeight="1">
       <c r="A136" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B136" s="1"/>
       <c r="C136" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D136" s="1">
         <v>4.2545039999999998</v>
@@ -6293,13 +6341,13 @@
         <v>-73.826910999999996</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="K136" s="1">
         <v>167</v>
@@ -6308,7 +6356,7 @@
         <v>7</v>
       </c>
       <c r="M136" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N136" s="3"/>
       <c r="O136" s="1">
@@ -6317,11 +6365,11 @@
     </row>
     <row r="137" spans="1:15" ht="16" customHeight="1">
       <c r="A137" s="1" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="B137" s="1"/>
       <c r="C137" s="1" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="D137" s="6">
         <v>5.5333329999999998</v>
@@ -6330,7 +6378,7 @@
         <v>-74.099999999999994</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M137" s="1"/>
       <c r="N137" s="3"/>
@@ -6338,14 +6386,14 @@
     </row>
     <row r="138" spans="1:15" ht="16" customHeight="1">
       <c r="A138" s="1" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B138" s="1"/>
       <c r="G138" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M138" s="1"/>
       <c r="N138" s="3"/>
@@ -6353,14 +6401,14 @@
     </row>
     <row r="139" spans="1:15" ht="16" customHeight="1">
       <c r="A139" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B139" s="1"/>
       <c r="G139" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="K139" s="1">
         <v>106</v>
@@ -6371,14 +6419,14 @@
     </row>
     <row r="140" spans="1:15" ht="16" customHeight="1">
       <c r="A140" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B140" s="1"/>
       <c r="G140" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="M140" s="1"/>
       <c r="N140" s="3"/>
@@ -6386,11 +6434,11 @@
     </row>
     <row r="141" spans="1:15" ht="16" customHeight="1">
       <c r="A141" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B141" s="1"/>
       <c r="C141" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D141" s="1">
         <v>6.1859679999999999</v>
@@ -6399,13 +6447,13 @@
         <v>-74.583400999999995</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="K141" s="1">
         <v>100</v>
@@ -6414,7 +6462,7 @@
         <v>7</v>
       </c>
       <c r="M141" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="N141" s="3"/>
       <c r="O141" s="1">
@@ -6423,14 +6471,14 @@
     </row>
     <row r="142" spans="1:15" ht="16" customHeight="1">
       <c r="A142" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B142" s="1"/>
       <c r="G142" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="M142" s="1"/>
       <c r="N142" s="3"/>
@@ -6438,11 +6486,11 @@
     </row>
     <row r="143" spans="1:15" ht="16" customHeight="1">
       <c r="A143" s="1" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B143" s="1"/>
       <c r="C143" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D143" s="1">
         <v>4.7</v>
@@ -6451,13 +6499,13 @@
         <v>-76.933333000000005</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="K143" s="1">
         <v>17</v>
@@ -6466,7 +6514,7 @@
         <v>3</v>
       </c>
       <c r="M143" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N143" s="3"/>
       <c r="O143" s="1">
@@ -6475,11 +6523,11 @@
     </row>
     <row r="144" spans="1:15" ht="16" customHeight="1">
       <c r="A144" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B144" s="1"/>
       <c r="C144" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D144" s="1">
         <v>4.955959</v>
@@ -6488,13 +6536,13 @@
         <v>-76.607293999999996</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="K144" s="1">
         <v>15</v>
@@ -6503,7 +6551,7 @@
         <v>3</v>
       </c>
       <c r="M144" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N144" s="3"/>
       <c r="O144" s="1">
@@ -6512,7 +6560,7 @@
     </row>
     <row r="145" spans="1:15" ht="16" customHeight="1">
       <c r="A145" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="B145" s="1"/>
       <c r="M145" s="1"/>
@@ -6521,14 +6569,14 @@
     </row>
     <row r="146" spans="1:15" ht="16" customHeight="1">
       <c r="A146" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B146" s="1"/>
       <c r="G146" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="K146" s="1">
         <v>117</v>
@@ -6539,14 +6587,14 @@
     </row>
     <row r="147" spans="1:15" ht="16" customHeight="1">
       <c r="A147" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B147" s="1"/>
       <c r="G147" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="M147" s="1"/>
       <c r="N147" s="3"/>
@@ -6554,11 +6602,11 @@
     </row>
     <row r="148" spans="1:15" ht="16" customHeight="1">
       <c r="A148" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B148" s="1"/>
       <c r="C148" s="1" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="D148" s="1">
         <v>6.9666670000000002</v>
@@ -6567,13 +6615,13 @@
         <v>-73.883332999999993</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J148" s="1" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="K148" s="1">
         <v>103</v>
@@ -6591,11 +6639,11 @@
     </row>
     <row r="149" spans="1:15" ht="16" customHeight="1">
       <c r="A149" s="1" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="B149" s="1"/>
       <c r="C149" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D149" s="6">
         <v>5.1310219999999997</v>
@@ -6604,7 +6652,7 @@
         <v>-74.158075999999994</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="M149" s="2"/>
       <c r="N149" s="3"/>
@@ -6612,13 +6660,13 @@
     </row>
     <row r="150" spans="1:15" ht="16" customHeight="1">
       <c r="A150" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="C150" s="1" t="s">
         <v>454</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>458</v>
       </c>
       <c r="D150" s="1">
         <v>3.5333329999999998</v>
@@ -6627,7 +6675,7 @@
         <v>-76.266666999999998</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="L150" s="1">
         <v>1</v>
@@ -6640,11 +6688,11 @@
     </row>
     <row r="151" spans="1:15" ht="16" customHeight="1">
       <c r="A151" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B151" s="1"/>
       <c r="C151" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D151" s="6">
         <v>5.0999999999999996</v>
@@ -6653,13 +6701,13 @@
         <v>-74.166667000000004</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="K151" s="1">
         <v>91</v>
@@ -6670,14 +6718,14 @@
     </row>
     <row r="152" spans="1:15" ht="16" customHeight="1">
       <c r="A152" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B152" s="1"/>
       <c r="G152" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="K152" s="1">
         <v>146</v>
@@ -6688,11 +6736,11 @@
     </row>
     <row r="153" spans="1:15" ht="16" customHeight="1">
       <c r="A153" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B153" s="1"/>
       <c r="C153" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D153" s="1">
         <v>7.1027300000000002</v>
@@ -6701,16 +6749,16 @@
         <v>-75.969299000000007</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J153" s="1" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="K153" s="1">
         <v>32</v>
@@ -6719,7 +6767,7 @@
         <v>8</v>
       </c>
       <c r="M153" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N153" s="3"/>
       <c r="O153" s="1">
@@ -6728,14 +6776,14 @@
     </row>
     <row r="154" spans="1:15" ht="16" customHeight="1">
       <c r="A154" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B154" s="1"/>
       <c r="G154" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="J154" s="1" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="K154" s="1">
         <v>152</v>
@@ -6746,14 +6794,14 @@
     </row>
     <row r="155" spans="1:15" ht="16" customHeight="1">
       <c r="A155" s="1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B155" s="1"/>
       <c r="G155" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="J155" s="1" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="K155" s="1">
         <v>151</v>
@@ -6764,14 +6812,14 @@
     </row>
     <row r="156" spans="1:15" ht="16" customHeight="1">
       <c r="A156" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B156" s="1"/>
       <c r="G156" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="J156" s="1" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="K156" s="1">
         <v>162</v>
@@ -6782,11 +6830,11 @@
     </row>
     <row r="157" spans="1:15" ht="16" customHeight="1">
       <c r="A157" s="1" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="B157" s="1"/>
       <c r="C157" s="1" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="D157" s="6">
         <v>7.4166670000000003</v>
@@ -6795,19 +6843,19 @@
         <v>-72.433333000000005</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J157" s="1" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="K157" s="1">
         <v>161</v>
       </c>
       <c r="L157" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="M157" s="1"/>
       <c r="N157" s="3"/>
@@ -6815,13 +6863,13 @@
     </row>
     <row r="158" spans="1:15" ht="16" customHeight="1">
       <c r="A158" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D158" s="1">
         <v>4.6803179999999998</v>
@@ -6833,13 +6881,16 @@
         <v>3810</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>462</v>
+        <v>458</v>
+      </c>
+      <c r="I158" s="1" t="s">
+        <v>788</v>
       </c>
       <c r="J158" s="1" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="K158" s="1">
         <v>49</v>
@@ -6848,7 +6899,7 @@
         <v>3</v>
       </c>
       <c r="M158" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N158" s="3"/>
       <c r="O158" s="1">
@@ -6857,35 +6908,56 @@
     </row>
     <row r="159" spans="1:15" ht="16" customHeight="1">
       <c r="A159" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="B159" s="1"/>
+        <v>172</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D159" s="1">
+        <v>4.6737520000000004</v>
+      </c>
+      <c r="E159" s="1">
+        <v>-75.423862999999997</v>
+      </c>
       <c r="G159" s="1" t="s">
-        <v>359</v>
+        <v>173</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>458</v>
       </c>
       <c r="J159" s="1" t="s">
-        <v>623</v>
+        <v>508</v>
       </c>
       <c r="K159" s="1">
-        <v>62</v>
-      </c>
-      <c r="M159" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="L159" s="1">
+        <v>3</v>
+      </c>
+      <c r="M159" s="1" t="s">
+        <v>174</v>
+      </c>
       <c r="N159" s="3"/>
-      <c r="O159" s="1"/>
+      <c r="O159" s="1">
+        <v>75</v>
+      </c>
     </row>
     <row r="160" spans="1:15" ht="16" customHeight="1">
       <c r="A160" s="1" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="B160" s="1"/>
       <c r="G160" s="1" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="J160" s="1" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="K160" s="1">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M160" s="1"/>
       <c r="N160" s="3"/>
@@ -6893,17 +6965,17 @@
     </row>
     <row r="161" spans="1:15" ht="16" customHeight="1">
       <c r="A161" s="1" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="B161" s="1"/>
       <c r="G161" s="1" t="s">
-        <v>192</v>
+        <v>357</v>
       </c>
       <c r="J161" s="1" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="K161" s="1">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="M161" s="1"/>
       <c r="N161" s="3"/>
@@ -6911,29 +6983,17 @@
     </row>
     <row r="162" spans="1:15" ht="16" customHeight="1">
       <c r="A162" s="1" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B162" s="1"/>
-      <c r="C162" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="D162" s="6">
-        <v>3.6766540000000001</v>
-      </c>
-      <c r="E162" s="1">
-        <v>-76.584214000000003</v>
-      </c>
       <c r="G162" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="H162" s="1" t="s">
-        <v>486</v>
+        <v>191</v>
       </c>
       <c r="J162" s="1" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="K162" s="1">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="M162" s="1"/>
       <c r="N162" s="3"/>
@@ -6941,69 +7001,84 @@
     </row>
     <row r="163" spans="1:15" ht="16" customHeight="1">
       <c r="A163" s="1" t="s">
-        <v>186</v>
+        <v>359</v>
       </c>
       <c r="B163" s="1"/>
       <c r="C163" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D163" s="1">
-        <v>7.0217219999999996</v>
+        <v>454</v>
+      </c>
+      <c r="D163" s="6">
+        <v>3.6766540000000001</v>
       </c>
       <c r="E163" s="1">
-        <v>-75.909411000000006</v>
+        <v>-76.584214000000003</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>91</v>
+        <v>360</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="J163" s="1" t="s">
-        <v>542</v>
+        <v>621</v>
       </c>
       <c r="K163" s="1">
-        <v>33</v>
-      </c>
-      <c r="L163" s="1">
-        <v>8</v>
-      </c>
-      <c r="M163" s="2">
-        <v>5514</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="M163" s="1"/>
       <c r="N163" s="3"/>
-      <c r="O163" s="1">
-        <v>28</v>
-      </c>
+      <c r="O163" s="1"/>
     </row>
     <row r="164" spans="1:15" ht="16" customHeight="1">
       <c r="A164" s="1" t="s">
-        <v>365</v>
+        <v>185</v>
       </c>
       <c r="B164" s="1"/>
+      <c r="C164" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D164" s="1">
+        <v>7.0217219999999996</v>
+      </c>
+      <c r="E164" s="1">
+        <v>-75.909411000000006</v>
+      </c>
       <c r="G164" s="1" t="s">
-        <v>366</v>
+        <v>90</v>
+      </c>
+      <c r="H164" s="1" t="s">
+        <v>481</v>
       </c>
       <c r="J164" s="1" t="s">
-        <v>627</v>
+        <v>537</v>
       </c>
       <c r="K164" s="1">
-        <v>114</v>
-      </c>
-      <c r="M164" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="L164" s="1">
+        <v>8</v>
+      </c>
+      <c r="M164" s="2">
+        <v>5514</v>
+      </c>
       <c r="N164" s="3"/>
-      <c r="O164" s="1"/>
+      <c r="O164" s="1">
+        <v>28</v>
+      </c>
     </row>
     <row r="165" spans="1:15" ht="16" customHeight="1">
       <c r="A165" s="1" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B165" s="1"/>
       <c r="G165" s="1" t="s">
-        <v>192</v>
+        <v>362</v>
       </c>
       <c r="J165" s="1" t="s">
-        <v>668</v>
+        <v>622</v>
+      </c>
+      <c r="K165" s="1">
+        <v>114</v>
       </c>
       <c r="M165" s="1"/>
       <c r="N165" s="3"/>
@@ -7011,14 +7086,14 @@
     </row>
     <row r="166" spans="1:15" ht="16" customHeight="1">
       <c r="A166" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B166" s="1"/>
       <c r="G166" s="1" t="s">
-        <v>369</v>
+        <v>191</v>
       </c>
       <c r="J166" s="1" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="M166" s="1"/>
       <c r="N166" s="3"/>
@@ -7026,17 +7101,14 @@
     </row>
     <row r="167" spans="1:15" ht="16" customHeight="1">
       <c r="A167" s="1" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B167" s="1"/>
       <c r="G167" s="1" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="J167" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="K167" s="1">
-        <v>121</v>
+        <v>664</v>
       </c>
       <c r="M167" s="1"/>
       <c r="N167" s="3"/>
@@ -7044,32 +7116,17 @@
     </row>
     <row r="168" spans="1:15" ht="16" customHeight="1">
       <c r="A168" s="1" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="B168" s="1"/>
-      <c r="C168" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="D168" s="1">
-        <v>2.4421170000000001</v>
-      </c>
-      <c r="E168" s="1">
-        <v>-76.606365999999994</v>
-      </c>
       <c r="G168" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="H168" s="1" t="s">
-        <v>486</v>
+        <v>367</v>
       </c>
       <c r="J168" s="1" t="s">
-        <v>545</v>
+        <v>623</v>
       </c>
       <c r="K168" s="1">
-        <v>56</v>
-      </c>
-      <c r="L168" s="1">
-        <v>2</v>
+        <v>121</v>
       </c>
       <c r="M168" s="1"/>
       <c r="N168" s="3"/>
@@ -7077,17 +7134,32 @@
     </row>
     <row r="169" spans="1:15" ht="16" customHeight="1">
       <c r="A169" s="1" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B169" s="1"/>
+      <c r="C169" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D169" s="1">
+        <v>2.4421170000000001</v>
+      </c>
+      <c r="E169" s="1">
+        <v>-76.606365999999994</v>
+      </c>
       <c r="G169" s="1" t="s">
-        <v>375</v>
+        <v>369</v>
+      </c>
+      <c r="H169" s="1" t="s">
+        <v>481</v>
       </c>
       <c r="J169" s="1" t="s">
-        <v>629</v>
+        <v>540</v>
       </c>
       <c r="K169" s="1">
-        <v>112</v>
+        <v>56</v>
+      </c>
+      <c r="L169" s="1">
+        <v>2</v>
       </c>
       <c r="M169" s="1"/>
       <c r="N169" s="3"/>
@@ -7095,17 +7167,17 @@
     </row>
     <row r="170" spans="1:15" ht="16" customHeight="1">
       <c r="A170" s="1" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B170" s="1"/>
       <c r="G170" s="1" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="J170" s="1" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="K170" s="1">
-        <v>13</v>
+        <v>112</v>
       </c>
       <c r="M170" s="1"/>
       <c r="N170" s="3"/>
@@ -7113,17 +7185,17 @@
     </row>
     <row r="171" spans="1:15" ht="16" customHeight="1">
       <c r="A171" s="1" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B171" s="1"/>
       <c r="G171" s="1" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="J171" s="1" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="K171" s="1">
-        <v>150</v>
+        <v>13</v>
       </c>
       <c r="M171" s="1"/>
       <c r="N171" s="3"/>
@@ -7131,29 +7203,17 @@
     </row>
     <row r="172" spans="1:15" ht="16" customHeight="1">
       <c r="A172" s="1" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="B172" s="1"/>
-      <c r="C172" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="D172" s="6">
-        <v>4.9289129999999997</v>
-      </c>
-      <c r="E172" s="1">
-        <v>-74.172393999999997</v>
-      </c>
       <c r="G172" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="H172" s="1" t="s">
-        <v>715</v>
+        <v>375</v>
       </c>
       <c r="J172" s="1" t="s">
-        <v>631</v>
+        <v>615</v>
       </c>
       <c r="K172" s="1">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="M172" s="1"/>
       <c r="N172" s="3"/>
@@ -7161,135 +7221,144 @@
     </row>
     <row r="173" spans="1:15" ht="16" customHeight="1">
       <c r="A173" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>107</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="B173" s="1"/>
       <c r="C173" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D173" s="1">
-        <v>6.4896330000000004</v>
+        <v>468</v>
+      </c>
+      <c r="D173" s="6">
+        <v>4.9289129999999997</v>
       </c>
       <c r="E173" s="1">
-        <v>-74.402275000000003</v>
+        <v>-74.172393999999997</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>108</v>
+        <v>377</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>486</v>
+        <v>708</v>
       </c>
       <c r="J173" s="1" t="s">
-        <v>526</v>
+        <v>626</v>
       </c>
       <c r="K173" s="1">
-        <v>101</v>
-      </c>
-      <c r="L173" s="1">
-        <v>7</v>
-      </c>
-      <c r="M173" s="1" t="s">
-        <v>109</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="M173" s="1"/>
       <c r="N173" s="3"/>
-      <c r="O173" s="1">
-        <v>117</v>
-      </c>
+      <c r="O173" s="1"/>
     </row>
     <row r="174" spans="1:15" ht="16" customHeight="1">
       <c r="A174" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="B174" s="1"/>
+        <v>106</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D174" s="1">
+        <v>6.4896330000000004</v>
+      </c>
+      <c r="E174" s="1">
+        <v>-74.402275000000003</v>
+      </c>
       <c r="G174" s="1" t="s">
-        <v>383</v>
+        <v>107</v>
+      </c>
+      <c r="H174" s="1" t="s">
+        <v>481</v>
       </c>
       <c r="J174" s="1" t="s">
-        <v>384</v>
+        <v>521</v>
       </c>
       <c r="K174" s="1">
-        <v>123</v>
-      </c>
-      <c r="M174" s="1"/>
+        <v>101</v>
+      </c>
+      <c r="L174" s="1">
+        <v>7</v>
+      </c>
+      <c r="M174" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="N174" s="3"/>
-      <c r="O174" s="1"/>
+      <c r="O174" s="1">
+        <v>117</v>
+      </c>
     </row>
     <row r="175" spans="1:15" ht="16" customHeight="1">
       <c r="A175" s="1" t="s">
-        <v>34</v>
+        <v>378</v>
       </c>
       <c r="B175" s="1"/>
-      <c r="C175" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D175" s="1">
-        <v>7.2893670000000004</v>
-      </c>
-      <c r="E175" s="1">
-        <v>-75.394159000000002</v>
-      </c>
-      <c r="F175" s="1">
-        <v>180</v>
-      </c>
       <c r="G175" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H175" s="1" t="s">
-        <v>486</v>
+        <v>379</v>
       </c>
       <c r="J175" s="1" t="s">
-        <v>535</v>
+        <v>380</v>
       </c>
       <c r="K175" s="1">
-        <v>35</v>
-      </c>
-      <c r="L175" s="1">
-        <v>8</v>
-      </c>
-      <c r="M175" s="1" t="s">
-        <v>36</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="M175" s="1"/>
       <c r="N175" s="3"/>
-      <c r="O175" s="1">
-        <v>334</v>
-      </c>
+      <c r="O175" s="1"/>
     </row>
     <row r="176" spans="1:15" ht="16" customHeight="1">
       <c r="A176" s="1" t="s">
-        <v>385</v>
+        <v>33</v>
       </c>
       <c r="B176" s="1"/>
+      <c r="C176" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D176" s="1">
+        <v>7.2893670000000004</v>
+      </c>
+      <c r="E176" s="1">
+        <v>-75.394159000000002</v>
+      </c>
+      <c r="F176" s="1">
+        <v>180</v>
+      </c>
       <c r="G176" s="1" t="s">
-        <v>386</v>
+        <v>34</v>
+      </c>
+      <c r="H176" s="1" t="s">
+        <v>481</v>
       </c>
       <c r="J176" s="1" t="s">
-        <v>632</v>
+        <v>530</v>
       </c>
       <c r="K176" s="1">
-        <v>105</v>
-      </c>
-      <c r="M176" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="L176" s="1">
+        <v>8</v>
+      </c>
+      <c r="M176" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="N176" s="3"/>
-      <c r="O176" s="1"/>
+      <c r="O176" s="1">
+        <v>334</v>
+      </c>
     </row>
     <row r="177" spans="1:15" ht="16" customHeight="1">
       <c r="A177" s="1" t="s">
-        <v>716</v>
+        <v>381</v>
       </c>
       <c r="B177" s="1"/>
-      <c r="C177" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="D177" s="6">
-        <v>5.95</v>
-      </c>
-      <c r="E177" s="1">
-        <v>-74.599999999999994</v>
-      </c>
-      <c r="H177" s="1" t="s">
-        <v>45</v>
+      <c r="G177" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="J177" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="K177" s="1">
+        <v>105</v>
       </c>
       <c r="M177" s="1"/>
       <c r="N177" s="3"/>
@@ -7297,29 +7366,20 @@
     </row>
     <row r="178" spans="1:15" ht="16" customHeight="1">
       <c r="A178" s="1" t="s">
-        <v>387</v>
+        <v>709</v>
       </c>
       <c r="B178" s="1"/>
       <c r="C178" s="1" t="s">
-        <v>460</v>
+        <v>706</v>
       </c>
       <c r="D178" s="6">
-        <v>3.8574250000000001</v>
+        <v>5.95</v>
       </c>
       <c r="E178" s="1">
-        <v>-74.930802999999997</v>
-      </c>
-      <c r="G178" s="1" t="s">
-        <v>388</v>
+        <v>-74.599999999999994</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="J178" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="K178" s="1">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="M178" s="1"/>
       <c r="N178" s="3"/>
@@ -7327,81 +7387,96 @@
     </row>
     <row r="179" spans="1:15" ht="16" customHeight="1">
       <c r="A179" s="1" t="s">
-        <v>152</v>
+        <v>383</v>
       </c>
       <c r="B179" s="1"/>
       <c r="C179" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="D179" s="1">
-        <v>4.3303649999999996</v>
+        <v>456</v>
+      </c>
+      <c r="D179" s="6">
+        <v>3.8574250000000001</v>
       </c>
       <c r="E179" s="1">
-        <v>-73.862810999999994</v>
+        <v>-74.930802999999997</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>153</v>
+        <v>384</v>
       </c>
       <c r="H179" s="1" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="J179" s="1" t="s">
-        <v>528</v>
+        <v>628</v>
       </c>
       <c r="K179" s="1">
-        <v>168</v>
-      </c>
-      <c r="L179" s="1">
-        <v>7</v>
-      </c>
-      <c r="M179" s="1" t="s">
-        <v>154</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="M179" s="1"/>
       <c r="N179" s="3"/>
-      <c r="O179" s="1">
-        <v>98</v>
-      </c>
+      <c r="O179" s="1"/>
     </row>
     <row r="180" spans="1:15" ht="16" customHeight="1">
       <c r="A180" s="1" t="s">
-        <v>484</v>
+        <v>151</v>
       </c>
       <c r="B180" s="1"/>
       <c r="C180" s="1" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="D180" s="1">
-        <v>5.6926730000000001</v>
+        <v>4.3303649999999996</v>
       </c>
       <c r="E180" s="1">
-        <v>-76.660818000000006</v>
+        <v>-73.862810999999994</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>389</v>
+        <v>152</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="J180" s="1" t="s">
-        <v>634</v>
+        <v>523</v>
       </c>
       <c r="K180" s="1">
-        <v>8</v>
-      </c>
-      <c r="M180" s="1"/>
+        <v>168</v>
+      </c>
+      <c r="L180" s="1">
+        <v>7</v>
+      </c>
+      <c r="M180" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="N180" s="3"/>
-      <c r="O180" s="1"/>
+      <c r="O180" s="1">
+        <v>98</v>
+      </c>
     </row>
     <row r="181" spans="1:15" ht="16" customHeight="1">
       <c r="A181" s="1" t="s">
-        <v>390</v>
+        <v>479</v>
       </c>
       <c r="B181" s="1"/>
+      <c r="C181" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D181" s="1">
+        <v>5.6926730000000001</v>
+      </c>
+      <c r="E181" s="1">
+        <v>-76.660818000000006</v>
+      </c>
       <c r="G181" s="1" t="s">
-        <v>192</v>
+        <v>385</v>
+      </c>
+      <c r="H181" s="1" t="s">
+        <v>481</v>
       </c>
       <c r="J181" s="1" t="s">
-        <v>635</v>
+        <v>629</v>
+      </c>
+      <c r="K181" s="1">
+        <v>8</v>
       </c>
       <c r="M181" s="1"/>
       <c r="N181" s="3"/>
@@ -7409,29 +7484,14 @@
     </row>
     <row r="182" spans="1:15" ht="16" customHeight="1">
       <c r="A182" s="1" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B182" s="1"/>
-      <c r="C182" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D182" s="6">
-        <v>7.0281469999999997</v>
-      </c>
-      <c r="E182" s="1">
-        <v>-74.693987000000007</v>
-      </c>
       <c r="G182" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="H182" s="1" t="s">
-        <v>486</v>
+        <v>191</v>
       </c>
       <c r="J182" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="K182" s="1">
-        <v>120</v>
+        <v>630</v>
       </c>
       <c r="M182" s="1"/>
       <c r="N182" s="3"/>
@@ -7439,133 +7499,148 @@
     </row>
     <row r="183" spans="1:15" ht="16" customHeight="1">
       <c r="A183" s="1" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="B183" s="1"/>
       <c r="C183" s="1" t="s">
-        <v>691</v>
+        <v>212</v>
       </c>
       <c r="D183" s="6">
-        <v>10.7</v>
+        <v>7.0281469999999997</v>
       </c>
       <c r="E183" s="1">
-        <v>-74.716667000000001</v>
+        <v>-74.693987000000007</v>
+      </c>
+      <c r="G183" s="1" t="s">
+        <v>388</v>
       </c>
       <c r="H183" s="1" t="s">
-        <v>45</v>
+        <v>481</v>
       </c>
       <c r="J183" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="L183" s="1">
-        <v>7</v>
-      </c>
-      <c r="M183" s="2">
-        <v>4774</v>
-      </c>
+        <v>710</v>
+      </c>
+      <c r="K183" s="1">
+        <v>120</v>
+      </c>
+      <c r="M183" s="1"/>
       <c r="N183" s="3"/>
-      <c r="O183" s="1">
-        <v>5</v>
-      </c>
+      <c r="O183" s="1"/>
     </row>
     <row r="184" spans="1:15" ht="16" customHeight="1">
       <c r="A184" s="1" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B184" s="1"/>
-      <c r="G184" s="1" t="s">
-        <v>395</v>
+      <c r="C184" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="D184" s="6">
+        <v>10.7</v>
+      </c>
+      <c r="E184" s="1">
+        <v>-74.716667000000001</v>
+      </c>
+      <c r="H184" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="J184" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="K184" s="1">
-        <v>42</v>
-      </c>
-      <c r="M184" s="1"/>
+        <v>665</v>
+      </c>
+      <c r="L184" s="1">
+        <v>7</v>
+      </c>
+      <c r="M184" s="2">
+        <v>4774</v>
+      </c>
       <c r="N184" s="3"/>
-      <c r="O184" s="1"/>
+      <c r="O184" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="185" spans="1:15" ht="16" customHeight="1">
       <c r="A185" s="1" t="s">
-        <v>120</v>
+        <v>390</v>
       </c>
       <c r="B185" s="1"/>
-      <c r="C185" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="D185" s="1">
-        <v>1.210709</v>
-      </c>
-      <c r="E185" s="1">
-        <v>-77.994065000000006</v>
-      </c>
-      <c r="F185" s="1">
-        <v>1300</v>
-      </c>
       <c r="G185" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H185" s="1" t="s">
-        <v>486</v>
+        <v>391</v>
       </c>
       <c r="J185" s="1" t="s">
-        <v>523</v>
+        <v>631</v>
       </c>
       <c r="K185" s="1">
-        <v>31</v>
-      </c>
-      <c r="L185" s="1">
-        <v>6</v>
-      </c>
-      <c r="M185" s="1" t="s">
-        <v>121</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="M185" s="1"/>
       <c r="N185" s="3"/>
-      <c r="O185" s="1">
-        <v>107</v>
-      </c>
+      <c r="O185" s="1"/>
     </row>
     <row r="186" spans="1:15" ht="16" customHeight="1">
       <c r="A186" s="1" t="s">
-        <v>396</v>
+        <v>119</v>
       </c>
       <c r="B186" s="1"/>
       <c r="C186" s="1" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="D186" s="1">
-        <v>5.516667</v>
+        <v>1.210709</v>
       </c>
       <c r="E186" s="1">
-        <v>-76.516666999999998</v>
+        <v>-77.994065000000006</v>
+      </c>
+      <c r="F186" s="1">
+        <v>1300</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>192</v>
+        <v>90</v>
       </c>
       <c r="H186" s="1" t="s">
-        <v>45</v>
+        <v>481</v>
       </c>
       <c r="J186" s="1" t="s">
-        <v>637</v>
+        <v>518</v>
       </c>
       <c r="K186" s="1">
-        <v>10</v>
-      </c>
-      <c r="M186" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="L186" s="1">
+        <v>6</v>
+      </c>
+      <c r="M186" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="N186" s="3"/>
-      <c r="O186" s="1"/>
+      <c r="O186" s="1">
+        <v>107</v>
+      </c>
     </row>
     <row r="187" spans="1:15" ht="16" customHeight="1">
       <c r="A187" s="1" t="s">
-        <v>700</v>
+        <v>392</v>
       </c>
       <c r="B187" s="1"/>
+      <c r="C187" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D187" s="1">
+        <v>5.516667</v>
+      </c>
+      <c r="E187" s="1">
+        <v>-76.516666999999998</v>
+      </c>
       <c r="G187" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
+      </c>
+      <c r="H187" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="J187" s="1" t="s">
-        <v>557</v>
+        <v>632</v>
+      </c>
+      <c r="K187" s="1">
+        <v>10</v>
       </c>
       <c r="M187" s="1"/>
       <c r="N187" s="3"/>
@@ -7573,14 +7648,14 @@
     </row>
     <row r="188" spans="1:15" ht="16" customHeight="1">
       <c r="A188" s="1" t="s">
-        <v>774</v>
+        <v>694</v>
       </c>
       <c r="B188" s="1"/>
       <c r="G188" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J188" s="1" t="s">
-        <v>638</v>
+        <v>552</v>
       </c>
       <c r="M188" s="1"/>
       <c r="N188" s="3"/>
@@ -7588,14 +7663,14 @@
     </row>
     <row r="189" spans="1:15" ht="16" customHeight="1">
       <c r="A189" s="1" t="s">
-        <v>397</v>
+        <v>766</v>
       </c>
       <c r="B189" s="1"/>
       <c r="G189" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J189" s="1" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="M189" s="1"/>
       <c r="N189" s="3"/>
@@ -7603,14 +7678,14 @@
     </row>
     <row r="190" spans="1:15" ht="16" customHeight="1">
       <c r="A190" s="1" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B190" s="1"/>
       <c r="G190" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J190" s="1" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="M190" s="1"/>
       <c r="N190" s="3"/>
@@ -7618,66 +7693,66 @@
     </row>
     <row r="191" spans="1:15" ht="16" customHeight="1">
       <c r="A191" s="1" t="s">
-        <v>93</v>
+        <v>394</v>
       </c>
       <c r="B191" s="1"/>
-      <c r="C191" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="D191" s="1">
-        <v>4.1567889999999998</v>
-      </c>
-      <c r="E191" s="1">
-        <v>-76.287779999999998</v>
-      </c>
       <c r="G191" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H191" s="1" t="s">
-        <v>488</v>
+        <v>191</v>
       </c>
       <c r="J191" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="K191" s="1">
-        <v>50</v>
-      </c>
-      <c r="L191" s="1">
-        <v>3</v>
-      </c>
-      <c r="M191" s="1" t="s">
-        <v>95</v>
-      </c>
+        <v>635</v>
+      </c>
+      <c r="M191" s="1"/>
       <c r="N191" s="3"/>
-      <c r="O191" s="1">
-        <v>143</v>
-      </c>
+      <c r="O191" s="1"/>
     </row>
     <row r="192" spans="1:15" ht="16" customHeight="1">
       <c r="A192" s="1" t="s">
-        <v>399</v>
+        <v>92</v>
       </c>
       <c r="B192" s="1"/>
+      <c r="C192" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D192" s="1">
+        <v>4.1567889999999998</v>
+      </c>
+      <c r="E192" s="1">
+        <v>-76.287779999999998</v>
+      </c>
       <c r="G192" s="1" t="s">
-        <v>192</v>
+        <v>93</v>
+      </c>
+      <c r="H192" s="1" t="s">
+        <v>483</v>
       </c>
       <c r="J192" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="M192" s="1"/>
+        <v>505</v>
+      </c>
+      <c r="K192" s="1">
+        <v>50</v>
+      </c>
+      <c r="L192" s="1">
+        <v>3</v>
+      </c>
+      <c r="M192" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="N192" s="3"/>
-      <c r="O192" s="1"/>
+      <c r="O192" s="1">
+        <v>143</v>
+      </c>
     </row>
     <row r="193" spans="1:15" ht="16" customHeight="1">
       <c r="A193" s="1" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="B193" s="1"/>
       <c r="G193" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J193" s="1" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="M193" s="1"/>
       <c r="N193" s="3"/>
@@ -7685,20 +7760,14 @@
     </row>
     <row r="194" spans="1:15" ht="16" customHeight="1">
       <c r="A194" s="1" t="s">
-        <v>711</v>
+        <v>396</v>
       </c>
       <c r="B194" s="1"/>
-      <c r="C194" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="D194" s="6">
-        <v>7.2833329999999998</v>
-      </c>
-      <c r="E194" s="1">
-        <v>-76.599999999999994</v>
-      </c>
-      <c r="H194" s="1" t="s">
-        <v>45</v>
+      <c r="G194" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J194" s="1" t="s">
+        <v>637</v>
       </c>
       <c r="M194" s="1"/>
       <c r="N194" s="3"/>
@@ -7706,17 +7775,20 @@
     </row>
     <row r="195" spans="1:15" ht="16" customHeight="1">
       <c r="A195" s="1" t="s">
-        <v>401</v>
+        <v>704</v>
       </c>
       <c r="B195" s="1"/>
-      <c r="G195" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="J195" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="K195" s="1">
-        <v>4</v>
+      <c r="C195" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D195" s="6">
+        <v>7.2833329999999998</v>
+      </c>
+      <c r="E195" s="1">
+        <v>-76.599999999999994</v>
+      </c>
+      <c r="H195" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="M195" s="1"/>
       <c r="N195" s="3"/>
@@ -7724,26 +7796,17 @@
     </row>
     <row r="196" spans="1:15" ht="16" customHeight="1">
       <c r="A196" s="1" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B196" s="1"/>
-      <c r="C196" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D196" s="6">
-        <v>8.7833330000000007</v>
-      </c>
-      <c r="E196" s="1">
-        <v>-76.516666999999998</v>
-      </c>
       <c r="G196" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="H196" s="1" t="s">
-        <v>45</v>
+        <v>191</v>
       </c>
       <c r="J196" s="1" t="s">
-        <v>644</v>
+        <v>638</v>
+      </c>
+      <c r="K196" s="1">
+        <v>4</v>
       </c>
       <c r="M196" s="1"/>
       <c r="N196" s="3"/>
@@ -7751,20 +7814,26 @@
     </row>
     <row r="197" spans="1:15" ht="16" customHeight="1">
       <c r="A197" s="1" t="s">
-        <v>718</v>
+        <v>398</v>
       </c>
       <c r="B197" s="1"/>
       <c r="C197" s="1" t="s">
-        <v>474</v>
+        <v>212</v>
       </c>
       <c r="D197" s="6">
-        <v>9.1166669999999996</v>
+        <v>8.7833330000000007</v>
       </c>
       <c r="E197" s="1">
-        <v>-74.733333000000002</v>
+        <v>-76.516666999999998</v>
+      </c>
+      <c r="G197" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="H197" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="J197" s="1" t="s">
+        <v>639</v>
       </c>
       <c r="M197" s="1"/>
       <c r="N197" s="3"/>
@@ -7772,77 +7841,77 @@
     </row>
     <row r="198" spans="1:15" ht="16" customHeight="1">
       <c r="A198" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>779</v>
-      </c>
+        <v>711</v>
+      </c>
+      <c r="B198" s="1"/>
       <c r="C198" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="D198" s="1">
-        <v>4.5277329999999996</v>
+        <v>470</v>
+      </c>
+      <c r="D198" s="6">
+        <v>9.1166669999999996</v>
       </c>
       <c r="E198" s="1">
-        <v>-75.409361000000004</v>
-      </c>
-      <c r="G198" s="1" t="s">
-        <v>15</v>
+        <v>-74.733333000000002</v>
       </c>
       <c r="H198" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="J198" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="K198" s="1">
-        <v>72</v>
-      </c>
-      <c r="L198" s="1">
-        <v>3</v>
-      </c>
-      <c r="M198" s="1" t="s">
-        <v>99</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="M198" s="1"/>
       <c r="N198" s="3"/>
-      <c r="O198" s="1">
-        <v>126</v>
-      </c>
+      <c r="O198" s="1"/>
     </row>
     <row r="199" spans="1:15" ht="16" customHeight="1">
       <c r="A199" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="B199" s="1"/>
+        <v>97</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D199" s="1">
+        <v>4.5277329999999996</v>
+      </c>
+      <c r="E199" s="1">
+        <v>-75.409361000000004</v>
+      </c>
       <c r="G199" s="1" t="s">
-        <v>192</v>
+        <v>14</v>
+      </c>
+      <c r="H199" s="1" t="s">
+        <v>484</v>
       </c>
       <c r="J199" s="1" t="s">
-        <v>645</v>
+        <v>491</v>
       </c>
       <c r="K199" s="1">
+        <v>72</v>
+      </c>
+      <c r="L199" s="1">
         <v>3</v>
       </c>
-      <c r="M199" s="1"/>
+      <c r="M199" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="N199" s="3"/>
-      <c r="O199" s="1"/>
+      <c r="O199" s="1">
+        <v>126</v>
+      </c>
     </row>
     <row r="200" spans="1:15" ht="16" customHeight="1">
       <c r="A200" s="1" t="s">
-        <v>674</v>
+        <v>399</v>
       </c>
       <c r="B200" s="1"/>
-      <c r="C200" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="D200" s="6">
-        <v>7.45</v>
-      </c>
-      <c r="E200" s="1">
-        <v>-77.116667000000007</v>
-      </c>
-      <c r="H200" s="1" t="s">
-        <v>719</v>
+      <c r="G200" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J200" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="K200" s="1">
+        <v>3</v>
       </c>
       <c r="M200" s="1"/>
       <c r="N200" s="3"/>
@@ -7850,159 +7919,165 @@
     </row>
     <row r="201" spans="1:15" ht="16" customHeight="1">
       <c r="A201" s="1" t="s">
-        <v>28</v>
+        <v>668</v>
       </c>
       <c r="B201" s="1"/>
       <c r="C201" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="D201" s="1">
-        <v>4.6468249999999998</v>
+        <v>457</v>
+      </c>
+      <c r="D201" s="6">
+        <v>7.45</v>
       </c>
       <c r="E201" s="1">
-        <v>-75.578277999999997</v>
-      </c>
-      <c r="F201" s="1">
-        <v>1980</v>
-      </c>
-      <c r="G201" s="1" t="s">
-        <v>29</v>
+        <v>-77.116667000000007</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="I201" s="1" t="s">
-        <v>760</v>
-      </c>
-      <c r="J201" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="K201" s="1">
-        <v>46</v>
-      </c>
-      <c r="L201" s="1">
-        <v>2</v>
-      </c>
-      <c r="M201" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>712</v>
+      </c>
+      <c r="M201" s="1"/>
       <c r="N201" s="3"/>
-      <c r="O201" s="1">
-        <v>342</v>
-      </c>
+      <c r="O201" s="1"/>
     </row>
     <row r="202" spans="1:15" ht="16" customHeight="1">
       <c r="A202" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>55</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B202" s="1"/>
       <c r="C202" s="1" t="s">
-        <v>468</v>
+        <v>386</v>
       </c>
       <c r="D202" s="1">
-        <v>1.8824890000000001</v>
+        <v>4.6468249999999998</v>
       </c>
       <c r="E202" s="1">
-        <v>-76.271326000000002</v>
+        <v>-75.578277999999997</v>
       </c>
       <c r="F202" s="1">
-        <v>1500</v>
+        <v>1980</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="H202" s="1" t="s">
-        <v>486</v>
+        <v>482</v>
+      </c>
+      <c r="I202" s="1" t="s">
+        <v>753</v>
       </c>
       <c r="J202" s="1" t="s">
-        <v>519</v>
+        <v>754</v>
       </c>
       <c r="K202" s="1">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="L202" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M202" s="1" t="s">
-        <v>736</v>
+        <v>29</v>
       </c>
       <c r="N202" s="3"/>
       <c r="O202" s="1">
-        <v>253</v>
+        <v>342</v>
       </c>
     </row>
     <row r="203" spans="1:15" ht="16" customHeight="1">
       <c r="A203" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B203" s="1"/>
+        <v>54</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="C203" s="1" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="D203" s="1">
-        <v>3.5</v>
+        <v>1.8824890000000001</v>
       </c>
       <c r="E203" s="1">
-        <v>-76.633332999999993</v>
+        <v>-76.271326000000002</v>
+      </c>
+      <c r="F203" s="1">
+        <v>1500</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="H203" s="1" t="s">
-        <v>14</v>
+        <v>481</v>
       </c>
       <c r="J203" s="1" t="s">
-        <v>762</v>
+        <v>514</v>
       </c>
       <c r="K203" s="1">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="L203" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M203" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="N203" s="3" t="s">
-        <v>733</v>
-      </c>
+        <v>729</v>
+      </c>
+      <c r="N203" s="3"/>
       <c r="O203" s="1">
-        <v>766</v>
+        <v>253</v>
       </c>
     </row>
     <row r="204" spans="1:15" ht="16" customHeight="1">
       <c r="A204" s="1" t="s">
-        <v>720</v>
+        <v>8</v>
       </c>
       <c r="B204" s="1"/>
       <c r="C204" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="D204" s="6">
-        <v>4.6166669999999996</v>
+        <v>454</v>
+      </c>
+      <c r="D204" s="1">
+        <v>3.5</v>
       </c>
       <c r="E204" s="1">
-        <v>-74.349999999999994</v>
+        <v>-76.633332999999993</v>
+      </c>
+      <c r="G204" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="H204" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="M204" s="1"/>
-      <c r="N204" s="3"/>
-      <c r="O204" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="J204" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="K204" s="1">
+        <v>54</v>
+      </c>
+      <c r="L204" s="1">
+        <v>1</v>
+      </c>
+      <c r="M204" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="N204" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="O204" s="1">
+        <v>766</v>
+      </c>
     </row>
     <row r="205" spans="1:15" ht="16" customHeight="1">
       <c r="A205" s="1" t="s">
-        <v>404</v>
+        <v>713</v>
       </c>
       <c r="B205" s="1"/>
-      <c r="G205" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="J205" s="1" t="s">
-        <v>646</v>
+      <c r="C205" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="D205" s="6">
+        <v>4.6166669999999996</v>
+      </c>
+      <c r="E205" s="1">
+        <v>-74.349999999999994</v>
+      </c>
+      <c r="H205" s="1" t="s">
+        <v>714</v>
       </c>
       <c r="M205" s="1"/>
       <c r="N205" s="3"/>
@@ -8010,11 +8085,14 @@
     </row>
     <row r="206" spans="1:15" ht="16" customHeight="1">
       <c r="A206" s="1" t="s">
-        <v>671</v>
+        <v>400</v>
       </c>
       <c r="B206" s="1"/>
-      <c r="C206" s="1" t="s">
-        <v>182</v>
+      <c r="G206" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="J206" s="1" t="s">
+        <v>641</v>
       </c>
       <c r="M206" s="1"/>
       <c r="N206" s="3"/>
@@ -8022,81 +8100,75 @@
     </row>
     <row r="207" spans="1:15" ht="16" customHeight="1">
       <c r="A207" s="1" t="s">
-        <v>450</v>
+        <v>776</v>
       </c>
       <c r="B207" s="1"/>
       <c r="C207" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="D207" s="1">
-        <v>3.85</v>
-      </c>
-      <c r="E207" s="1">
-        <v>-76.866667000000007</v>
-      </c>
-      <c r="G207" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="H207" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="J207" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="K207" s="1">
-        <v>20</v>
-      </c>
-      <c r="L207" s="1">
-        <v>1</v>
-      </c>
-      <c r="M207" s="1" t="s">
         <v>181</v>
       </c>
+      <c r="M207" s="1"/>
       <c r="N207" s="3"/>
-      <c r="O207" s="1">
-        <v>37</v>
-      </c>
+      <c r="O207" s="1"/>
     </row>
     <row r="208" spans="1:15" ht="16" customHeight="1">
       <c r="A208" s="1" t="s">
-        <v>722</v>
+        <v>446</v>
       </c>
       <c r="B208" s="1"/>
       <c r="C208" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="D208" s="6">
-        <v>10.75</v>
+        <v>454</v>
+      </c>
+      <c r="D208" s="1">
+        <v>3.85</v>
       </c>
       <c r="E208" s="1">
-        <v>-73.400000000000006</v>
+        <v>-76.866667000000007</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>91</v>
+        <v>661</v>
       </c>
       <c r="H208" s="1" t="s">
-        <v>45</v>
+        <v>662</v>
       </c>
       <c r="J208" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="M208" s="1"/>
+        <v>756</v>
+      </c>
+      <c r="K208" s="1">
+        <v>20</v>
+      </c>
+      <c r="L208" s="1">
+        <v>1</v>
+      </c>
+      <c r="M208" s="1" t="s">
+        <v>180</v>
+      </c>
       <c r="N208" s="3"/>
-      <c r="O208" s="1"/>
+      <c r="O208" s="1">
+        <v>37</v>
+      </c>
     </row>
     <row r="209" spans="1:15" ht="16" customHeight="1">
       <c r="A209" s="1" t="s">
-        <v>406</v>
+        <v>715</v>
       </c>
       <c r="B209" s="1"/>
+      <c r="C209" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="D209" s="6">
+        <v>10.75</v>
+      </c>
+      <c r="E209" s="1">
+        <v>-73.400000000000006</v>
+      </c>
       <c r="G209" s="1" t="s">
-        <v>407</v>
+        <v>90</v>
+      </c>
+      <c r="H209" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="J209" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="K209" s="1">
-        <v>143</v>
+        <v>642</v>
       </c>
       <c r="M209" s="1"/>
       <c r="N209" s="3"/>
@@ -8104,14 +8176,17 @@
     </row>
     <row r="210" spans="1:15" ht="16" customHeight="1">
       <c r="A210" s="1" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="B210" s="1"/>
       <c r="G210" s="1" t="s">
-        <v>364</v>
+        <v>403</v>
       </c>
       <c r="J210" s="1" t="s">
-        <v>614</v>
+        <v>643</v>
+      </c>
+      <c r="K210" s="1">
+        <v>143</v>
       </c>
       <c r="M210" s="1"/>
       <c r="N210" s="3"/>
@@ -8119,17 +8194,14 @@
     </row>
     <row r="211" spans="1:15" ht="16" customHeight="1">
       <c r="A211" s="1" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="B211" s="1"/>
       <c r="G211" s="1" t="s">
-        <v>410</v>
+        <v>360</v>
       </c>
       <c r="J211" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="K211" s="1">
-        <v>170</v>
+        <v>609</v>
       </c>
       <c r="M211" s="1"/>
       <c r="N211" s="3"/>
@@ -8137,17 +8209,17 @@
     </row>
     <row r="212" spans="1:15" ht="16" customHeight="1">
       <c r="A212" s="1" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B212" s="1"/>
       <c r="G212" s="1" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="J212" s="1" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="K212" s="1">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="M212" s="1"/>
       <c r="N212" s="3"/>
@@ -8155,17 +8227,17 @@
     </row>
     <row r="213" spans="1:15" ht="16" customHeight="1">
       <c r="A213" s="1" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="B213" s="1"/>
       <c r="G213" s="1" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="J213" s="1" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="K213" s="1">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c r="M213" s="1"/>
       <c r="N213" s="3"/>
@@ -8173,14 +8245,17 @@
     </row>
     <row r="214" spans="1:15" ht="16" customHeight="1">
       <c r="A214" s="1" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B214" s="1"/>
       <c r="G214" s="1" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>646</v>
+      </c>
+      <c r="K214" s="1">
+        <v>107</v>
       </c>
       <c r="M214" s="1"/>
       <c r="N214" s="3"/>
@@ -8188,17 +8263,14 @@
     </row>
     <row r="215" spans="1:15" ht="16" customHeight="1">
       <c r="A215" s="1" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="B215" s="1"/>
       <c r="G215" s="1" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="J215" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="K215" s="1">
-        <v>148</v>
+        <v>641</v>
       </c>
       <c r="M215" s="1"/>
       <c r="N215" s="3"/>
@@ -8206,90 +8278,69 @@
     </row>
     <row r="216" spans="1:15" ht="16" customHeight="1">
       <c r="A216" s="1" t="s">
-        <v>139</v>
+        <v>413</v>
       </c>
       <c r="B216" s="1"/>
-      <c r="C216" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D216" s="1">
-        <v>6.209835</v>
-      </c>
-      <c r="E216" s="1">
-        <v>-75.498125000000002</v>
-      </c>
       <c r="G216" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="H216" s="1" t="s">
-        <v>494</v>
+        <v>414</v>
       </c>
       <c r="J216" s="1" t="s">
-        <v>540</v>
+        <v>615</v>
       </c>
       <c r="K216" s="1">
-        <v>38</v>
-      </c>
-      <c r="L216" s="1">
-        <v>8</v>
-      </c>
-      <c r="M216" s="1" t="s">
-        <v>141</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="M216" s="1"/>
       <c r="N216" s="3"/>
-      <c r="O216" s="1">
-        <v>282</v>
-      </c>
+      <c r="O216" s="1"/>
     </row>
     <row r="217" spans="1:15" ht="16" customHeight="1">
       <c r="A217" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>173</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="B217" s="1"/>
       <c r="C217" s="1" t="s">
-        <v>390</v>
+        <v>212</v>
       </c>
       <c r="D217" s="1">
-        <v>4.6737520000000004</v>
+        <v>6.209835</v>
       </c>
       <c r="E217" s="1">
-        <v>-75.423862999999997</v>
+        <v>-75.498125000000002</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>174</v>
+        <v>139</v>
       </c>
       <c r="H217" s="1" t="s">
-        <v>462</v>
+        <v>489</v>
       </c>
       <c r="J217" s="1" t="s">
-        <v>513</v>
+        <v>535</v>
       </c>
       <c r="K217" s="1">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="L217" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M217" s="1" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="N217" s="3"/>
       <c r="O217" s="1">
-        <v>75</v>
+        <v>282</v>
       </c>
     </row>
     <row r="218" spans="1:15" ht="16" customHeight="1">
       <c r="A218" s="1" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B218" s="1"/>
       <c r="G218" s="1" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="J218" s="1" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="K218" s="1">
         <v>138</v>
@@ -8300,14 +8351,14 @@
     </row>
     <row r="219" spans="1:15" ht="16" customHeight="1">
       <c r="A219" s="1" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B219" s="1"/>
       <c r="G219" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="J219" s="1" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="K219" s="1">
         <v>119</v>
@@ -8318,14 +8369,14 @@
     </row>
     <row r="220" spans="1:15" ht="16" customHeight="1">
       <c r="A220" s="1" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B220" s="1"/>
       <c r="G220" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="J220" s="1" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="M220" s="1"/>
       <c r="N220" s="3"/>
@@ -8333,11 +8384,11 @@
     </row>
     <row r="221" spans="1:15" ht="16" customHeight="1">
       <c r="A221" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B221" s="1"/>
       <c r="C221" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D221" s="6">
         <v>4.4891170000000002</v>
@@ -8346,13 +8397,13 @@
         <v>-74.260176999999999</v>
       </c>
       <c r="G221" s="1" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="H221" s="1" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="J221" s="1" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="M221" s="1"/>
       <c r="N221" s="3"/>
@@ -8360,11 +8411,11 @@
     </row>
     <row r="222" spans="1:15" ht="16" customHeight="1">
       <c r="A222" s="1" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="B222" s="1"/>
       <c r="C222" s="1" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="D222" s="6">
         <v>9.4</v>
@@ -8373,10 +8424,10 @@
         <v>-75.816666999999995</v>
       </c>
       <c r="H222" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J222" s="1" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="M222" s="1"/>
       <c r="N222" s="3"/>
@@ -8384,14 +8435,14 @@
     </row>
     <row r="223" spans="1:15" ht="16" customHeight="1">
       <c r="A223" s="1" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B223" s="1"/>
       <c r="G223" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="J223" s="1" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="K223" s="1">
         <v>18</v>
@@ -8402,11 +8453,11 @@
     </row>
     <row r="224" spans="1:15" ht="16" customHeight="1">
       <c r="A224" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B224" s="1"/>
       <c r="C224" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D224" s="6">
         <v>4.7220000000000004</v>
@@ -8415,13 +8466,13 @@
         <v>-74.076374000000001</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="H224" s="1" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="J224" s="1" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="M224" s="1"/>
       <c r="N224" s="3"/>
@@ -8429,11 +8480,11 @@
     </row>
     <row r="225" spans="1:15" ht="16" customHeight="1">
       <c r="A225" s="1" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B225" s="1"/>
       <c r="C225" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D225" s="1">
         <v>4.5670000000000002</v>
@@ -8442,13 +8493,13 @@
         <v>-74.45</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H225" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J225" s="1" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="K225" s="1">
         <v>87</v>
@@ -8459,11 +8510,11 @@
     </row>
     <row r="226" spans="1:15" ht="16" customHeight="1">
       <c r="A226" s="1" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B226" s="1"/>
       <c r="C226" s="1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="D226" s="6">
         <v>4.2</v>
@@ -8472,13 +8523,13 @@
         <v>-73.733333000000002</v>
       </c>
       <c r="G226" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H226" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J226" s="1" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="K226" s="1">
         <v>166</v>
@@ -8489,14 +8540,14 @@
     </row>
     <row r="227" spans="1:15" ht="16" customHeight="1">
       <c r="A227" s="1" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B227" s="1"/>
       <c r="G227" s="1" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="J227" s="1" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="K227" s="1">
         <v>11</v>
@@ -8507,14 +8558,14 @@
     </row>
     <row r="228" spans="1:15" ht="16" customHeight="1">
       <c r="A228" s="1" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B228" s="1"/>
       <c r="G228" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="J228" s="1" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="K228" s="1">
         <v>12</v>
@@ -8525,11 +8576,11 @@
     </row>
     <row r="229" spans="1:15" ht="16" customHeight="1">
       <c r="A229" s="1" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B229" s="1"/>
       <c r="C229" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D229" s="6">
         <v>4.7</v>
@@ -8538,13 +8589,13 @@
         <v>-74.366667000000007</v>
       </c>
       <c r="G229" s="1" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="H229" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J229" s="1" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="K229" s="1">
         <v>86</v>
@@ -8555,11 +8606,11 @@
     </row>
     <row r="230" spans="1:15" ht="16" customHeight="1">
       <c r="A230" s="1" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B230" s="1"/>
       <c r="C230" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D230" s="1">
         <v>4.47</v>
@@ -8568,13 +8619,13 @@
         <v>-74.05</v>
       </c>
       <c r="G230" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H230" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J230" s="1" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="K230" s="1">
         <v>81</v>
@@ -8583,7 +8634,7 @@
         <v>7</v>
       </c>
       <c r="M230" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N230" s="3"/>
       <c r="O230" s="1">
@@ -8592,11 +8643,11 @@
     </row>
     <row r="231" spans="1:15" ht="16" customHeight="1">
       <c r="A231" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B231" s="1"/>
       <c r="C231" s="1" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D231" s="1">
         <v>1.816667</v>
@@ -8605,13 +8656,13 @@
         <v>-78.766666999999998</v>
       </c>
       <c r="G231" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H231" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J231" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="H231" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J231" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="K231" s="1">
         <v>28</v>
@@ -8620,7 +8671,7 @@
         <v>6</v>
       </c>
       <c r="M231" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N231" s="3"/>
       <c r="O231" s="1">
@@ -8629,11 +8680,11 @@
     </row>
     <row r="232" spans="1:15" ht="16" customHeight="1">
       <c r="A232" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B232" s="1"/>
       <c r="C232" s="1" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="D232" s="1">
         <v>10.333333</v>
@@ -8642,13 +8693,13 @@
         <v>-75.416667000000004</v>
       </c>
       <c r="G232" s="1" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="H232" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J232" s="1" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="K232" s="1">
         <v>133</v>
@@ -8659,14 +8710,14 @@
     </row>
     <row r="233" spans="1:15" ht="16" customHeight="1">
       <c r="A233" s="1" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B233" s="1"/>
       <c r="G233" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="J233" s="1" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="K233" s="1">
         <v>1</v>
@@ -8677,11 +8728,11 @@
     </row>
     <row r="234" spans="1:15" ht="16" customHeight="1">
       <c r="A234" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B234" s="1"/>
       <c r="C234" s="1" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D234" s="1">
         <v>1.9152659999999999</v>
@@ -8690,13 +8741,13 @@
         <v>-76.625303000000002</v>
       </c>
       <c r="G234" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H234" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J234" s="1" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="K234" s="1">
         <v>63</v>
@@ -8705,7 +8756,7 @@
         <v>4</v>
       </c>
       <c r="M234" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N234" s="3"/>
       <c r="O234" s="1">
@@ -8714,14 +8765,14 @@
     </row>
     <row r="235" spans="1:15" ht="16" customHeight="1">
       <c r="A235" s="1" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B235" s="1"/>
       <c r="G235" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="J235" s="1" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="M235" s="1"/>
       <c r="N235" s="3"/>
@@ -8729,14 +8780,14 @@
     </row>
     <row r="236" spans="1:15" ht="16" customHeight="1">
       <c r="A236" s="1" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B236" s="1"/>
       <c r="G236" s="1" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="J236" s="1" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="M236" s="1"/>
       <c r="N236" s="3"/>
@@ -8744,17 +8795,17 @@
     </row>
     <row r="237" spans="1:15" ht="16" customHeight="1">
       <c r="A237" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B237" s="1"/>
       <c r="G237" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H237" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J237" s="1" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="K237" s="1">
         <v>126</v>
@@ -8763,7 +8814,7 @@
         <v>8</v>
       </c>
       <c r="M237" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N237" s="3"/>
       <c r="O237" s="1">
@@ -8772,14 +8823,14 @@
     </row>
     <row r="238" spans="1:15" ht="16" customHeight="1">
       <c r="A238" s="1" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B238" s="1"/>
       <c r="G238" s="1" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="J238" s="1" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="K238" s="1">
         <v>109</v>
@@ -8790,11 +8841,11 @@
     </row>
     <row r="239" spans="1:15">
       <c r="A239" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B239" s="1"/>
       <c r="C239" s="1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="D239" s="1">
         <v>4.1509879999999999</v>
@@ -8806,13 +8857,13 @@
         <v>425</v>
       </c>
       <c r="G239" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H239" s="1" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="J239" s="1" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="K239" s="1">
         <v>164</v>
@@ -8821,11 +8872,39 @@
         <v>7</v>
       </c>
       <c r="M239" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N239" s="3"/>
       <c r="O239" s="1">
         <v>337</v>
+      </c>
+    </row>
+    <row r="240" spans="1:15">
+      <c r="A240" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="I240" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="M240" s="4" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" ht="17">
+      <c r="A241" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D241" s="7">
+        <v>4.5449380000000001</v>
+      </c>
+      <c r="E241" s="1">
+        <v>-75.486750999999998</v>
+      </c>
+      <c r="H241" s="1" t="s">
+        <v>782</v>
       </c>
     </row>
   </sheetData>

--- a/historical.databases/Gazetteer_Chapman_Colombia_Expeditions.xlsx
+++ b/historical.databases/Gazetteer_Chapman_Colombia_Expeditions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/glennseeholzer/Dropbox/Chapman/expediciornis/historical.databases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0692D6-3E83-2D4B-A29B-D6C3C017EA51}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4CE3D93-7AA3-344B-B0F3-68C1BB4E9843}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6900" yWindow="460" windowWidth="21480" windowHeight="17260" xr2:uid="{3D1F2814-41A2-A340-856E-49F90DDEFF78}"/>
+    <workbookView xWindow="2560" yWindow="460" windowWidth="28680" windowHeight="14960" xr2:uid="{3D1F2814-41A2-A340-856E-49F90DDEFF78}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="799">
   <si>
     <t>Lat</t>
   </si>
@@ -2136,9 +2136,6 @@
     <t>Los Tambos</t>
   </si>
   <si>
-    <t>From Paynter [﻿1,800 m, probably on Pacific slope, because Cephalopterus penduliger is recorded from there (de Schauensee, 1948a:335), possibly in municipio Pradera [0325/7610 (USBGN)] (Dice. Geog.); Batty, June, 2, 10 Aug., Sept. 1898 (MCZ, also as "Tambos"); Batty is known to have spent considerable time in vicinity of Cali [0327/7631 (USBGN)] and this locality may have been along route from there to Buenaventura [0353/7704 (USBGN)].]</t>
-  </si>
-  <si>
     <t>Not located in Paynter-Colombia-Gazetteer</t>
   </si>
   <si>
@@ -2395,13 +2392,46 @@
   </si>
   <si>
     <t>All specimens from Santa Isabel (the lesser of the two localities) assigned to Paramo Santa Isabel</t>
+  </si>
+  <si>
+    <t>Not located in Paynter-Colombia-Gazetteer but thought to be above La Peña (5.200, -74.394). Point (5.222269, -74.386249) could be placed on 4700 ft ridge above La Peña.</t>
+  </si>
+  <si>
+    <t>Verbatim from Paynter-Colombia-Gazetteer, but point placed slightly to the slow in town center of Yacopi.</t>
+  </si>
+  <si>
+    <t>Point placed at most obvious valley branching off from Rio Dagua Valley above Cisneros just below transition to more arid Dagua Valley.</t>
+  </si>
+  <si>
+    <t>GoogleEarth by GFS. Well known lake / marsh south of Bogota.</t>
+  </si>
+  <si>
+    <t>Not located in Paynter-Colombia-Gazetteer. Somewhere between Subachoque and La Pradera. Point placed midway between these two towns along main road.</t>
+  </si>
+  <si>
+    <t>Not located in Paynter. From Paynter [﻿1,800 m, probably on Pacific slope, because Cephalopterus penduliger is recorded from there (de Schauensee, 1948a:335), possibly in municipio Pradera [0325/7610 (USBGN)] (Dice. Geog.); Batty, June, 2, 10 Aug., Sept. 1898 (MCZ, also as "Tambos"); Batty is known to have spent considerable time in vicinity of Cali [0327/7631 (USBGN)] and this locality may have been along route from there to Buenaventura [0353/7704 (USBGN)].]</t>
+  </si>
+  <si>
+    <t>Unclear what trail this references but presumably connected Novita to another major region, presumably in the Cordillera Occidental.</t>
+  </si>
+  <si>
+    <t>E. L. Kerr specimens from Rio Atrato, probably near Novita as she has other collections from this region.</t>
+  </si>
+  <si>
+    <t>Verbatim from Paynter-Colombia-Gazetteer. Point placed on nearest land.</t>
+  </si>
+  <si>
+    <t>Verbatim from Paynter-Colombia-Gazetteer (9.4, -75.816667). Point placed on nearest land.</t>
+  </si>
+  <si>
+    <t>Verbatim from Paynter-Colombia-Gazetteer. Point placed in town center.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2419,6 +2449,13 @@
       <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Inherit"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2441,7 +2478,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -2450,6 +2487,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2767,10 +2805,10 @@
   <dimension ref="A1:O241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B126" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B213" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I159" sqref="I159"/>
+      <selection pane="bottomRight" activeCell="H233" sqref="H233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2795,7 +2833,7 @@
         <v>695</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>453</v>
@@ -2816,7 +2854,7 @@
         <v>3</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>490</v>
@@ -2834,7 +2872,7 @@
         <v>669</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -2875,7 +2913,7 @@
         <v>68</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>468</v>
@@ -2893,10 +2931,10 @@
         <v>481</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="K4" s="1">
         <v>75</v>
@@ -2935,10 +2973,10 @@
         <v>481</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="K5" s="1">
         <v>45</v>
@@ -3113,10 +3151,10 @@
         <v>485</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="K10" s="1">
         <v>67</v>
@@ -3299,7 +3337,7 @@
         <v>44</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="M18" s="1"/>
       <c r="N18" s="3"/>
@@ -3359,13 +3397,13 @@
         <v>-74.782616000000004</v>
       </c>
       <c r="G20" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>784</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="I20" s="1" t="s">
         <v>785</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>786</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>221</v>
@@ -3494,7 +3532,7 @@
         <v>44</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="K24" s="1">
         <v>124</v>
@@ -3789,10 +3827,10 @@
         <v>1</v>
       </c>
       <c r="M33" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="N33" s="3" t="s">
         <v>722</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>723</v>
       </c>
       <c r="O33" s="1">
         <v>128</v>
@@ -3871,7 +3909,7 @@
         <v>689</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="M36" s="1"/>
       <c r="N36" s="3"/>
@@ -3921,7 +3959,7 @@
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B39" s="1"/>
       <c r="G39" s="1" t="s">
@@ -4031,7 +4069,7 @@
         <v>481</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="K43" s="1">
         <v>69</v>
@@ -4213,10 +4251,10 @@
         <v>481</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="K50" s="1">
         <v>21</v>
@@ -4228,7 +4266,7 @@
         <v>162</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="O50" s="1">
         <v>82</v>
@@ -4478,8 +4516,17 @@
         <v>256</v>
       </c>
       <c r="B62" s="1"/>
+      <c r="D62" s="1">
+        <v>5.2222689999999998</v>
+      </c>
+      <c r="E62" s="1">
+        <v>-74.386249000000007</v>
+      </c>
       <c r="G62" s="1" t="s">
         <v>257</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>788</v>
       </c>
       <c r="J62" s="1" t="s">
         <v>570</v>
@@ -4499,6 +4546,9 @@
       <c r="G63" s="1" t="s">
         <v>260</v>
       </c>
+      <c r="H63" s="1" t="s">
+        <v>702</v>
+      </c>
       <c r="J63" s="1" t="s">
         <v>572</v>
       </c>
@@ -4511,8 +4561,17 @@
         <v>687</v>
       </c>
       <c r="B64" s="1"/>
+      <c r="D64" s="1">
+        <v>5.4591419999999999</v>
+      </c>
+      <c r="E64" s="1">
+        <v>-74.337925999999996</v>
+      </c>
       <c r="G64" s="1" t="s">
         <v>259</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>789</v>
       </c>
       <c r="J64" s="1" t="s">
         <v>571</v>
@@ -4542,7 +4601,7 @@
         <v>178</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J65" s="1" t="s">
         <v>525</v>
@@ -4672,7 +4731,7 @@
         <v>690</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>468</v>
@@ -4708,45 +4767,18 @@
     </row>
     <row r="72" spans="1:15" ht="16" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>732</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="D72" s="1">
-        <v>4.4149640000000003</v>
-      </c>
-      <c r="E72" s="1">
-        <v>-74.302553000000003</v>
-      </c>
-      <c r="F72" s="1">
-        <v>2468</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="B72" s="1"/>
       <c r="G72" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>667</v>
+        <v>270</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="K72" s="1">
-        <v>76</v>
-      </c>
-      <c r="L72" s="1">
-        <v>7</v>
-      </c>
-      <c r="M72" s="1" t="s">
-        <v>67</v>
-      </c>
+        <v>576</v>
+      </c>
+      <c r="M72" s="1"/>
       <c r="N72" s="3"/>
-      <c r="O72" s="1">
-        <v>192</v>
-      </c>
+      <c r="O72" s="1"/>
     </row>
     <row r="73" spans="1:15" ht="16" customHeight="1">
       <c r="A73" s="1" t="s">
@@ -4754,10 +4786,10 @@
       </c>
       <c r="B73" s="1"/>
       <c r="G73" s="1" t="s">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="M73" s="1"/>
       <c r="N73" s="3"/>
@@ -4765,14 +4797,17 @@
     </row>
     <row r="74" spans="1:15" ht="16" customHeight="1">
       <c r="A74" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B74" s="1"/>
       <c r="G74" s="1" t="s">
-        <v>90</v>
+        <v>272</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
+      </c>
+      <c r="K74" s="1">
+        <v>41</v>
       </c>
       <c r="M74" s="1"/>
       <c r="N74" s="3"/>
@@ -4780,17 +4815,20 @@
     </row>
     <row r="75" spans="1:15" ht="16" customHeight="1">
       <c r="A75" s="1" t="s">
-        <v>271</v>
+        <v>699</v>
       </c>
       <c r="B75" s="1"/>
-      <c r="G75" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="J75" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="K75" s="1">
-        <v>41</v>
+      <c r="C75" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="D75" s="1">
+        <v>4.8166669999999998</v>
+      </c>
+      <c r="E75" s="1">
+        <v>-74.366667000000007</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="M75" s="1"/>
       <c r="N75" s="3"/>
@@ -4798,20 +4836,23 @@
     </row>
     <row r="76" spans="1:15" ht="16" customHeight="1">
       <c r="A76" s="1" t="s">
-        <v>699</v>
+        <v>762</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="D76" s="1">
-        <v>4.8166669999999998</v>
+        <v>386</v>
+      </c>
+      <c r="D76" s="7">
+        <v>4.6666040000000004</v>
       </c>
       <c r="E76" s="1">
-        <v>-74.366667000000007</v>
+        <v>-75.633341999999999</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>44</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>763</v>
       </c>
       <c r="M76" s="1"/>
       <c r="N76" s="3"/>
@@ -4819,88 +4860,91 @@
     </row>
     <row r="77" spans="1:15" ht="16" customHeight="1">
       <c r="A77" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="B77" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="C77" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="D77" s="7">
-        <v>4.6666040000000004</v>
+        <v>463</v>
+      </c>
+      <c r="D77" s="1">
+        <v>1.6157049999999999</v>
       </c>
       <c r="E77" s="1">
-        <v>-75.633341999999999</v>
+        <v>-75.613596000000001</v>
+      </c>
+      <c r="F77" s="1">
+        <v>200</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="M77" s="1"/>
+        <v>481</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="K77" s="1">
+        <v>171</v>
+      </c>
+      <c r="L77" s="1">
+        <v>5</v>
+      </c>
+      <c r="M77" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="N77" s="3"/>
-      <c r="O77" s="1"/>
+      <c r="O77" s="1">
+        <v>257</v>
+      </c>
     </row>
     <row r="78" spans="1:15" ht="16" customHeight="1">
       <c r="A78" s="1" t="s">
-        <v>47</v>
+        <v>700</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>47</v>
+        <v>768</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="D78" s="1">
-        <v>1.6157049999999999</v>
+        <v>454</v>
+      </c>
+      <c r="D78" s="6">
+        <v>3.3238259999999999</v>
       </c>
       <c r="E78" s="1">
-        <v>-75.613596000000001</v>
-      </c>
-      <c r="F78" s="1">
-        <v>200</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>48</v>
+        <v>-76.234682000000006</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="J78" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="K78" s="1">
-        <v>171</v>
-      </c>
-      <c r="L78" s="1">
-        <v>5</v>
-      </c>
-      <c r="M78" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="M78" s="1"/>
       <c r="N78" s="3"/>
-      <c r="O78" s="1">
-        <v>257</v>
-      </c>
+      <c r="O78" s="1"/>
     </row>
     <row r="79" spans="1:15" ht="16" customHeight="1">
       <c r="A79" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="D79" s="6">
-        <v>3.3238259999999999</v>
+        <v>273</v>
+      </c>
+      <c r="B79" s="1"/>
+      <c r="D79" s="7">
+        <v>4.4854469999999997</v>
       </c>
       <c r="E79" s="1">
-        <v>-76.234682000000006</v>
+        <v>-73.893745999999993</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>274</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>481</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="K79" s="1">
+        <v>84</v>
       </c>
       <c r="M79" s="1"/>
       <c r="N79" s="3"/>
@@ -4908,17 +4952,17 @@
     </row>
     <row r="80" spans="1:15" ht="16" customHeight="1">
       <c r="A80" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B80" s="1"/>
       <c r="G80" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="K80" s="1">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="M80" s="1"/>
       <c r="N80" s="3"/>
@@ -4926,17 +4970,26 @@
     </row>
     <row r="81" spans="1:15" ht="16" customHeight="1">
       <c r="A81" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B81" s="1"/>
+      <c r="C81" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="D81" s="6">
+        <v>10.516667</v>
+      </c>
+      <c r="E81" s="1">
+        <v>-74.183333000000005</v>
+      </c>
       <c r="G81" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="K81" s="1">
-        <v>7</v>
+        <v>581</v>
       </c>
       <c r="M81" s="1"/>
       <c r="N81" s="3"/>
@@ -4944,132 +4997,123 @@
     </row>
     <row r="82" spans="1:15" ht="16" customHeight="1">
       <c r="A82" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B82" s="1"/>
+        <v>732</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>732</v>
+      </c>
       <c r="C82" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="D82" s="6">
-        <v>10.516667</v>
+        <v>468</v>
+      </c>
+      <c r="D82" s="1">
+        <v>4.3499999999999996</v>
       </c>
       <c r="E82" s="1">
-        <v>-74.183333000000005</v>
+        <v>-74.366667000000007</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>278</v>
+        <v>159</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>44</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="M82" s="1"/>
+        <v>733</v>
+      </c>
+      <c r="K82" s="1">
+        <v>74</v>
+      </c>
+      <c r="L82" s="1">
+        <v>7</v>
+      </c>
+      <c r="M82" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="N82" s="3"/>
-      <c r="O82" s="1"/>
+      <c r="O82" s="1">
+        <v>88</v>
+      </c>
     </row>
     <row r="83" spans="1:15" ht="16" customHeight="1">
       <c r="A83" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>733</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="B83" s="1"/>
       <c r="C83" s="1" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="D83" s="1">
-        <v>4.3499999999999996</v>
+        <v>2.5379450000000001</v>
       </c>
       <c r="E83" s="1">
-        <v>-74.366667000000007</v>
+        <v>-76.997828999999996</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>159</v>
+        <v>57</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>44</v>
+        <v>475</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>734</v>
+        <v>501</v>
       </c>
       <c r="K83" s="1">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="L83" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="N83" s="3"/>
       <c r="O83" s="1">
-        <v>88</v>
+        <v>105</v>
       </c>
     </row>
     <row r="84" spans="1:15" ht="16" customHeight="1">
       <c r="A84" s="1" t="s">
-        <v>121</v>
+        <v>279</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="1" t="s">
         <v>455</v>
       </c>
       <c r="D84" s="1">
-        <v>2.5379450000000001</v>
+        <v>2.9691360000000002</v>
       </c>
       <c r="E84" s="1">
-        <v>-76.997828999999996</v>
+        <v>-78.182655999999994</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>57</v>
+        <v>280</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>501</v>
+        <v>281</v>
       </c>
       <c r="K84" s="1">
-        <v>25</v>
-      </c>
-      <c r="L84" s="1">
-        <v>2</v>
-      </c>
-      <c r="M84" s="1" t="s">
-        <v>122</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="M84" s="1"/>
       <c r="N84" s="3"/>
-      <c r="O84" s="1">
-        <v>105</v>
-      </c>
+      <c r="O84" s="1"/>
     </row>
     <row r="85" spans="1:15" ht="16" customHeight="1">
       <c r="A85" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B85" s="1"/>
-      <c r="C85" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="D85" s="1">
-        <v>2.9691360000000002</v>
-      </c>
-      <c r="E85" s="1">
-        <v>-78.182655999999994</v>
-      </c>
       <c r="G85" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>487</v>
+        <v>283</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>281</v>
+        <v>582</v>
       </c>
       <c r="K85" s="1">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="M85" s="1"/>
       <c r="N85" s="3"/>
@@ -5077,138 +5121,138 @@
     </row>
     <row r="86" spans="1:15" ht="16" customHeight="1">
       <c r="A86" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B86" s="1"/>
+        <v>771</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D86" s="1">
+        <v>3.233333</v>
+      </c>
+      <c r="E86" s="1">
+        <v>-76.349999999999994</v>
+      </c>
       <c r="G86" s="1" t="s">
-        <v>283</v>
+        <v>175</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>582</v>
+        <v>497</v>
       </c>
       <c r="K86" s="1">
-        <v>96</v>
-      </c>
-      <c r="M86" s="1"/>
+        <v>55</v>
+      </c>
+      <c r="L86" s="1">
+        <v>1</v>
+      </c>
+      <c r="M86" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="N86" s="3"/>
-      <c r="O86" s="1"/>
+      <c r="O86" s="1">
+        <v>45</v>
+      </c>
     </row>
     <row r="87" spans="1:15" ht="16" customHeight="1">
       <c r="A87" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="D87" s="1">
-        <v>3.233333</v>
-      </c>
-      <c r="E87" s="1">
-        <v>-76.349999999999994</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="B87" s="1"/>
       <c r="G87" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>44</v>
+        <v>285</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>497</v>
+        <v>583</v>
       </c>
       <c r="K87" s="1">
-        <v>55</v>
-      </c>
-      <c r="L87" s="1">
-        <v>1</v>
-      </c>
-      <c r="M87" s="1" t="s">
-        <v>176</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="M87" s="1"/>
       <c r="N87" s="3"/>
-      <c r="O87" s="1">
-        <v>45</v>
-      </c>
+      <c r="O87" s="1"/>
     </row>
     <row r="88" spans="1:15" ht="16" customHeight="1">
       <c r="A88" s="1" t="s">
-        <v>284</v>
+        <v>61</v>
       </c>
       <c r="B88" s="1"/>
+      <c r="C88" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D88" s="1">
+        <v>5.2047059999999998</v>
+      </c>
+      <c r="E88" s="1">
+        <v>-74.736840000000001</v>
+      </c>
+      <c r="F88" s="1">
+        <v>200</v>
+      </c>
       <c r="G88" s="1" t="s">
-        <v>285</v>
+        <v>62</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>481</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>583</v>
+        <v>520</v>
       </c>
       <c r="K88" s="1">
-        <v>116</v>
-      </c>
-      <c r="M88" s="1"/>
+        <v>98</v>
+      </c>
+      <c r="L88" s="1">
+        <v>7</v>
+      </c>
+      <c r="M88" s="1" t="s">
+        <v>727</v>
+      </c>
       <c r="N88" s="3"/>
-      <c r="O88" s="1"/>
+      <c r="O88" s="1">
+        <v>217</v>
+      </c>
     </row>
     <row r="89" spans="1:15" ht="16" customHeight="1">
       <c r="A89" s="1" t="s">
-        <v>61</v>
+        <v>286</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="D89" s="1">
-        <v>5.2047059999999998</v>
-      </c>
-      <c r="E89" s="1">
-        <v>-74.736840000000001</v>
-      </c>
-      <c r="F89" s="1">
-        <v>200</v>
-      </c>
       <c r="G89" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>481</v>
+        <v>86</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>520</v>
+        <v>584</v>
       </c>
       <c r="K89" s="1">
-        <v>98</v>
-      </c>
-      <c r="L89" s="1">
-        <v>7</v>
-      </c>
-      <c r="M89" s="1" t="s">
-        <v>728</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="M89" s="1"/>
       <c r="N89" s="3"/>
-      <c r="O89" s="1">
-        <v>217</v>
-      </c>
+      <c r="O89" s="1"/>
     </row>
     <row r="90" spans="1:15" ht="16" customHeight="1">
-      <c r="A90" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>773</v>
+      </c>
+      <c r="B90"/>
       <c r="C90" s="1" t="s">
         <v>456</v>
       </c>
       <c r="D90" s="1">
-        <v>5.1534769999999996</v>
+        <v>4.1833330000000002</v>
       </c>
       <c r="E90" s="1">
-        <v>-75.037125000000003</v>
+        <v>-74.533332999999999</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>760</v>
+        <v>44</v>
       </c>
       <c r="M90" s="1"/>
       <c r="N90" s="3"/>
@@ -5216,41 +5260,41 @@
     </row>
     <row r="91" spans="1:15" ht="16" customHeight="1">
       <c r="A91" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B91" s="1"/>
-      <c r="C91" s="1" t="s">
-        <v>456</v>
+      <c r="D91" s="8">
+        <v>7.0833329999999997</v>
+      </c>
+      <c r="E91" s="1">
+        <v>-76.75</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>86</v>
+        <v>191</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="K91" s="1">
-        <v>70</v>
+        <v>288</v>
       </c>
       <c r="M91" s="1"/>
       <c r="N91" s="3"/>
       <c r="O91" s="1"/>
     </row>
     <row r="92" spans="1:15" ht="16" customHeight="1">
-      <c r="A92" t="s">
-        <v>774</v>
-      </c>
-      <c r="B92"/>
-      <c r="C92" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="D92" s="1">
-        <v>4.1833330000000002</v>
-      </c>
-      <c r="E92" s="1">
-        <v>-74.533332999999999</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>44</v>
+      <c r="A92" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B92" s="1"/>
+      <c r="G92" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="K92" s="1">
+        <v>54</v>
       </c>
       <c r="M92" s="1"/>
       <c r="N92" s="3"/>
@@ -5258,14 +5302,23 @@
     </row>
     <row r="93" spans="1:15" ht="16" customHeight="1">
       <c r="A93" s="1" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="B93" s="1"/>
+      <c r="D93" s="1">
+        <v>3.778572</v>
+      </c>
+      <c r="E93" s="1">
+        <v>-76.709142999999997</v>
+      </c>
       <c r="G93" s="1" t="s">
         <v>191</v>
       </c>
+      <c r="H93" s="1" t="s">
+        <v>790</v>
+      </c>
       <c r="J93" s="1" t="s">
-        <v>288</v>
+        <v>585</v>
       </c>
       <c r="M93" s="1"/>
       <c r="N93" s="3"/>
@@ -5273,126 +5326,129 @@
     </row>
     <row r="94" spans="1:15" ht="16" customHeight="1">
       <c r="A94" s="1" t="s">
-        <v>289</v>
+        <v>148</v>
       </c>
       <c r="B94" s="1"/>
+      <c r="C94" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D94" s="1">
+        <v>4.983333</v>
+      </c>
+      <c r="E94" s="1">
+        <v>-76.400000000000006</v>
+      </c>
       <c r="G94" s="1" t="s">
-        <v>290</v>
+        <v>149</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>291</v>
+        <v>494</v>
       </c>
       <c r="K94" s="1">
-        <v>54</v>
-      </c>
-      <c r="M94" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="L94" s="1">
+        <v>3</v>
+      </c>
+      <c r="M94" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="N94" s="3"/>
-      <c r="O94" s="1"/>
+      <c r="O94" s="1">
+        <v>99</v>
+      </c>
     </row>
     <row r="95" spans="1:15" ht="16" customHeight="1">
       <c r="A95" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B95" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D95" s="1">
+        <v>1.8332999999999999</v>
+      </c>
+      <c r="E95" s="1">
+        <v>-76.332999999999998</v>
+      </c>
+      <c r="F95" s="1">
+        <v>1980</v>
+      </c>
       <c r="G95" s="1" t="s">
-        <v>191</v>
+        <v>45</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="M95" s="1"/>
+        <v>512</v>
+      </c>
+      <c r="K95" s="1">
+        <v>65</v>
+      </c>
+      <c r="L95" s="1">
+        <v>5</v>
+      </c>
+      <c r="M95" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="N95" s="3"/>
-      <c r="O95" s="1"/>
+      <c r="O95" s="1">
+        <v>300</v>
+      </c>
     </row>
     <row r="96" spans="1:15" ht="16" customHeight="1">
       <c r="A96" s="1" t="s">
-        <v>148</v>
+        <v>293</v>
       </c>
       <c r="B96" s="1"/>
-      <c r="C96" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="D96" s="1">
-        <v>4.983333</v>
-      </c>
-      <c r="E96" s="1">
-        <v>-76.400000000000006</v>
-      </c>
       <c r="G96" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="H96" s="1" t="s">
-        <v>44</v>
+        <v>294</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="K96" s="1">
-        <v>14</v>
-      </c>
-      <c r="L96" s="1">
-        <v>3</v>
-      </c>
-      <c r="M96" s="1" t="s">
-        <v>150</v>
-      </c>
+        <v>586</v>
+      </c>
+      <c r="M96" s="1"/>
       <c r="N96" s="3"/>
-      <c r="O96" s="1">
-        <v>99</v>
-      </c>
+      <c r="O96" s="1"/>
     </row>
     <row r="97" spans="1:15" ht="16" customHeight="1">
       <c r="A97" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="D97" s="1">
-        <v>1.8332999999999999</v>
-      </c>
-      <c r="E97" s="1">
-        <v>-76.332999999999998</v>
-      </c>
-      <c r="F97" s="1">
-        <v>1980</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="B97" s="1"/>
       <c r="G97" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>44</v>
+        <v>296</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>512</v>
+        <v>587</v>
       </c>
       <c r="K97" s="1">
-        <v>65</v>
-      </c>
-      <c r="L97" s="1">
-        <v>5</v>
-      </c>
-      <c r="M97" s="1" t="s">
-        <v>46</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="M97" s="1"/>
       <c r="N97" s="3"/>
-      <c r="O97" s="1">
-        <v>300</v>
-      </c>
+      <c r="O97" s="1"/>
     </row>
     <row r="98" spans="1:15" ht="16" customHeight="1">
       <c r="A98" s="1" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B98" s="1"/>
       <c r="G98" s="1" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>586</v>
+        <v>588</v>
+      </c>
+      <c r="K98" s="1">
+        <v>99</v>
       </c>
       <c r="M98" s="1"/>
       <c r="N98" s="3"/>
@@ -5400,154 +5456,189 @@
     </row>
     <row r="99" spans="1:15" ht="16" customHeight="1">
       <c r="A99" s="1" t="s">
-        <v>295</v>
+        <v>165</v>
       </c>
       <c r="B99" s="1"/>
+      <c r="C99" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D99" s="1">
+        <v>2.5833330000000001</v>
+      </c>
+      <c r="E99" s="1">
+        <v>-76.916667000000004</v>
+      </c>
       <c r="G99" s="1" t="s">
-        <v>296</v>
+        <v>166</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>476</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="K99" s="1">
-        <v>115</v>
-      </c>
-      <c r="M99" s="1"/>
+        <v>502</v>
+      </c>
+      <c r="L99" s="1">
+        <v>2</v>
+      </c>
+      <c r="M99" s="1" t="s">
+        <v>167</v>
+      </c>
       <c r="N99" s="3"/>
-      <c r="O99" s="1"/>
+      <c r="O99" s="1">
+        <v>80</v>
+      </c>
     </row>
     <row r="100" spans="1:15" ht="16" customHeight="1">
       <c r="A100" s="1" t="s">
-        <v>297</v>
+        <v>88</v>
       </c>
       <c r="B100" s="1"/>
+      <c r="C100" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D100" s="1">
+        <v>7.166722</v>
+      </c>
+      <c r="E100" s="1">
+        <v>-75.416600000000003</v>
+      </c>
       <c r="G100" s="1" t="s">
-        <v>298</v>
+        <v>90</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>588</v>
+        <v>533</v>
       </c>
       <c r="K100" s="1">
-        <v>99</v>
-      </c>
-      <c r="M100" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="L100" s="1">
+        <v>8</v>
+      </c>
+      <c r="M100" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="N100" s="3"/>
-      <c r="O100" s="1"/>
+      <c r="O100" s="1">
+        <v>148</v>
+      </c>
     </row>
     <row r="101" spans="1:15" ht="16" customHeight="1">
       <c r="A101" s="1" t="s">
-        <v>165</v>
+        <v>691</v>
       </c>
       <c r="B101" s="1"/>
-      <c r="C101" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="D101" s="1">
-        <v>2.5833330000000001</v>
+      <c r="D101" s="7">
+        <v>4.6908409999999998</v>
       </c>
       <c r="E101" s="1">
-        <v>-76.916667000000004</v>
+        <v>-74.274274000000005</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>166</v>
+        <v>299</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>476</v>
+        <v>791</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="L101" s="1">
-        <v>2</v>
-      </c>
-      <c r="M101" s="1" t="s">
-        <v>167</v>
-      </c>
+        <v>589</v>
+      </c>
+      <c r="K101" s="1">
+        <v>78</v>
+      </c>
+      <c r="M101" s="1"/>
       <c r="N101" s="3"/>
-      <c r="O101" s="1">
-        <v>80</v>
-      </c>
+      <c r="O101" s="1"/>
     </row>
     <row r="102" spans="1:15" ht="16" customHeight="1">
       <c r="A102" s="1" t="s">
-        <v>88</v>
+        <v>300</v>
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D102" s="1">
-        <v>7.166722</v>
+        <v>468</v>
+      </c>
+      <c r="D102" s="6">
+        <v>4.7</v>
       </c>
       <c r="E102" s="1">
-        <v>-75.416600000000003</v>
+        <v>-74.25</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>90</v>
+        <v>299</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>533</v>
+        <v>590</v>
       </c>
       <c r="K102" s="1">
-        <v>34</v>
-      </c>
-      <c r="L102" s="1">
-        <v>8</v>
-      </c>
-      <c r="M102" s="1" t="s">
-        <v>91</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="M102" s="1"/>
       <c r="N102" s="3"/>
-      <c r="O102" s="1">
-        <v>148</v>
-      </c>
+      <c r="O102" s="1"/>
     </row>
     <row r="103" spans="1:15" ht="16" customHeight="1">
       <c r="A103" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="B103" s="1"/>
+        <v>99</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D103" s="1">
+        <v>3.5832769999999998</v>
+      </c>
+      <c r="E103" s="1">
+        <v>-76.283311999999995</v>
+      </c>
       <c r="G103" s="1" t="s">
-        <v>299</v>
+        <v>100</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>589</v>
+        <v>496</v>
       </c>
       <c r="K103" s="1">
-        <v>78</v>
-      </c>
-      <c r="M103" s="1"/>
-      <c r="N103" s="3"/>
-      <c r="O103" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="L103" s="1">
+        <v>1</v>
+      </c>
+      <c r="M103" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N103" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="O103" s="1">
+        <v>124</v>
+      </c>
     </row>
     <row r="104" spans="1:15" ht="16" customHeight="1">
       <c r="A104" s="1" t="s">
-        <v>300</v>
+        <v>772</v>
       </c>
       <c r="B104" s="1"/>
-      <c r="C104" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="D104" s="6">
-        <v>4.7</v>
+      <c r="D104" s="7">
+        <v>4.9166670000000003</v>
       </c>
       <c r="E104" s="1">
-        <v>-74.25</v>
+        <v>-74.166667000000004</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="H104" s="1" t="s">
-        <v>44</v>
+        <v>301</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="K104" s="1">
-        <v>88</v>
+        <v>591</v>
       </c>
       <c r="M104" s="1"/>
       <c r="N104" s="3"/>
@@ -5555,175 +5646,186 @@
     </row>
     <row r="105" spans="1:15" ht="16" customHeight="1">
       <c r="A105" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="D105" s="1">
-        <v>3.5832769999999998</v>
-      </c>
-      <c r="E105" s="1">
-        <v>-76.283311999999995</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="B105" s="1"/>
       <c r="G105" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H105" s="1" t="s">
-        <v>44</v>
+        <v>303</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="K105" s="1">
-        <v>51</v>
-      </c>
-      <c r="L105" s="1">
-        <v>1</v>
-      </c>
-      <c r="M105" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="N105" s="3" t="s">
-        <v>727</v>
-      </c>
-      <c r="O105" s="1">
-        <v>124</v>
-      </c>
+        <v>592</v>
+      </c>
+      <c r="M105" s="1"/>
+      <c r="N105" s="3"/>
+      <c r="O105" s="1"/>
     </row>
     <row r="106" spans="1:15" ht="16" customHeight="1">
       <c r="A106" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="B106" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D106" s="1">
+        <v>1.4877689999999999</v>
+      </c>
+      <c r="E106" s="1">
+        <v>-75.725921999999997</v>
+      </c>
+      <c r="F106" s="1">
+        <v>180</v>
+      </c>
       <c r="G106" s="1" t="s">
-        <v>301</v>
+        <v>17</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>746</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="M106" s="1"/>
+        <v>745</v>
+      </c>
+      <c r="K106" s="1">
+        <v>172</v>
+      </c>
+      <c r="L106" s="1">
+        <v>5</v>
+      </c>
+      <c r="M106" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="N106" s="3"/>
-      <c r="O106" s="1"/>
+      <c r="O106" s="1">
+        <v>415</v>
+      </c>
     </row>
     <row r="107" spans="1:15" ht="16" customHeight="1">
       <c r="A107" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="B107" s="1"/>
+        <v>144</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D107" s="1">
+        <v>1.8646450000000001</v>
+      </c>
+      <c r="E107" s="1">
+        <v>-76.299693000000005</v>
+      </c>
       <c r="G107" s="1" t="s">
-        <v>303</v>
+        <v>146</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>480</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="M107" s="1"/>
+        <v>515</v>
+      </c>
+      <c r="K107" s="1">
+        <v>64</v>
+      </c>
+      <c r="L107" s="1">
+        <v>5</v>
+      </c>
+      <c r="M107" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="N107" s="3"/>
-      <c r="O107" s="1"/>
+      <c r="O107" s="1">
+        <v>130</v>
+      </c>
     </row>
     <row r="108" spans="1:15" ht="16" customHeight="1">
       <c r="A108" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="D108" s="1">
-        <v>1.4877689999999999</v>
-      </c>
-      <c r="E108" s="1">
-        <v>-75.725921999999997</v>
-      </c>
-      <c r="F108" s="1">
-        <v>180</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B108" s="1"/>
       <c r="G108" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H108" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="I108" s="1" t="s">
-        <v>747</v>
+        <v>305</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>746</v>
+        <v>593</v>
       </c>
       <c r="K108" s="1">
-        <v>172</v>
-      </c>
-      <c r="L108" s="1">
-        <v>5</v>
-      </c>
-      <c r="M108" s="1" t="s">
-        <v>18</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="M108" s="1"/>
       <c r="N108" s="3"/>
-      <c r="O108" s="1">
-        <v>415</v>
-      </c>
+      <c r="O108" s="1"/>
     </row>
     <row r="109" spans="1:15" ht="16" customHeight="1">
       <c r="A109" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>54</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="B109" s="1"/>
       <c r="C109" s="1" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="D109" s="1">
-        <v>1.8646450000000001</v>
+        <v>11.033333000000001</v>
       </c>
       <c r="E109" s="1">
-        <v>-76.299693000000005</v>
+        <v>-74.866667000000007</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>783</v>
-      </c>
-      <c r="I109" s="1" t="s">
-        <v>480</v>
+        <v>44</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>515</v>
+        <v>764</v>
       </c>
       <c r="K109" s="1">
-        <v>64</v>
+        <v>131</v>
       </c>
       <c r="L109" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M109" s="1" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="N109" s="3"/>
       <c r="O109" s="1">
-        <v>130</v>
+        <v>105</v>
       </c>
     </row>
     <row r="110" spans="1:15" ht="16" customHeight="1">
       <c r="A110" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B110" s="1"/>
+      <c r="C110" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="D110" s="7">
+        <v>4.9688970000000001</v>
+      </c>
+      <c r="E110" s="1">
+        <v>-74.149753000000004</v>
+      </c>
       <c r="G110" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>792</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="K110" s="1">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M110" s="1"/>
       <c r="N110" s="3"/>
@@ -5731,60 +5833,44 @@
     </row>
     <row r="111" spans="1:15" ht="16" customHeight="1">
       <c r="A111" s="1" t="s">
-        <v>123</v>
+        <v>308</v>
       </c>
       <c r="B111" s="1"/>
       <c r="C111" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="D111" s="1">
-        <v>11.033333000000001</v>
+        <v>468</v>
+      </c>
+      <c r="D111" s="6">
+        <v>5</v>
       </c>
       <c r="E111" s="1">
-        <v>-74.866667000000007</v>
+        <v>-74.133332999999993</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>124</v>
+        <v>309</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>44</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>765</v>
+        <v>595</v>
       </c>
       <c r="K111" s="1">
-        <v>131</v>
-      </c>
-      <c r="L111" s="1">
-        <v>8</v>
-      </c>
-      <c r="M111" s="1" t="s">
-        <v>125</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="M111" s="1"/>
       <c r="N111" s="3"/>
-      <c r="O111" s="1">
-        <v>105</v>
-      </c>
+      <c r="O111" s="1"/>
     </row>
     <row r="112" spans="1:15" ht="16" customHeight="1">
       <c r="A112" s="1" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B112" s="1"/>
-      <c r="C112" s="1" t="s">
-        <v>468</v>
-      </c>
       <c r="G112" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="H112" s="1" t="s">
-        <v>703</v>
+        <v>152</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="K112" s="1">
-        <v>94</v>
+        <v>596</v>
       </c>
       <c r="M112" s="1"/>
       <c r="N112" s="3"/>
@@ -5792,44 +5878,51 @@
     </row>
     <row r="113" spans="1:15" ht="16" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>308</v>
+        <v>134</v>
       </c>
       <c r="B113" s="1"/>
       <c r="C113" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="D113" s="6">
-        <v>5</v>
+        <v>455</v>
+      </c>
+      <c r="D113" s="1">
+        <v>2.1785369999999999</v>
       </c>
       <c r="E113" s="1">
-        <v>-74.133332999999993</v>
+        <v>-76.763375999999994</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>309</v>
+        <v>14</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>44</v>
+        <v>135</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>595</v>
+        <v>511</v>
       </c>
       <c r="K113" s="1">
-        <v>92</v>
-      </c>
-      <c r="M113" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="L113" s="1">
+        <v>4</v>
+      </c>
+      <c r="M113" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="N113" s="3"/>
-      <c r="O113" s="1"/>
+      <c r="O113" s="1">
+        <v>66</v>
+      </c>
     </row>
     <row r="114" spans="1:15" ht="16" customHeight="1">
       <c r="A114" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B114" s="1"/>
       <c r="G114" s="1" t="s">
-        <v>152</v>
+        <v>312</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="M114" s="1"/>
       <c r="N114" s="3"/>
@@ -5837,51 +5930,47 @@
     </row>
     <row r="115" spans="1:15" ht="16" customHeight="1">
       <c r="A115" s="1" t="s">
-        <v>134</v>
+        <v>718</v>
       </c>
       <c r="B115" s="1"/>
       <c r="C115" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="D115" s="1">
-        <v>2.1785369999999999</v>
+        <v>685</v>
+      </c>
+      <c r="D115" s="6">
+        <v>11.166667</v>
       </c>
       <c r="E115" s="1">
-        <v>-76.763375999999994</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>14</v>
+        <v>-74.150000000000006</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="J115" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="K115" s="1">
-        <v>59</v>
-      </c>
-      <c r="L115" s="1">
-        <v>4</v>
-      </c>
-      <c r="M115" s="1" t="s">
-        <v>136</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="M115" s="1"/>
       <c r="N115" s="3"/>
-      <c r="O115" s="1">
-        <v>66</v>
-      </c>
+      <c r="O115" s="1"/>
     </row>
     <row r="116" spans="1:15" ht="16" customHeight="1">
       <c r="A116" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B116" s="1"/>
+      <c r="C116" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D116" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="E116" s="1">
+        <v>-76.383332999999993</v>
+      </c>
       <c r="G116" s="1" t="s">
-        <v>312</v>
+        <v>191</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="M116" s="1"/>
       <c r="N116" s="3"/>
@@ -5889,47 +5978,56 @@
     </row>
     <row r="117" spans="1:15" ht="16" customHeight="1">
       <c r="A117" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="B117" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>770</v>
+      </c>
       <c r="C117" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="D117" s="6">
-        <v>11.166667</v>
+        <v>386</v>
+      </c>
+      <c r="D117" s="1">
+        <v>4.5885699999999998</v>
       </c>
       <c r="E117" s="1">
-        <v>-74.150000000000006</v>
+        <v>-75.530410000000003</v>
+      </c>
+      <c r="F117" s="1">
+        <v>3000</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M117" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="K117" s="1">
+        <v>47</v>
+      </c>
+      <c r="L117" s="1">
+        <v>2</v>
+      </c>
+      <c r="M117" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="N117" s="3"/>
-      <c r="O117" s="1"/>
+      <c r="O117" s="1">
+        <v>349</v>
+      </c>
     </row>
     <row r="118" spans="1:15" ht="16" customHeight="1">
       <c r="A118" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B118" s="1"/>
-      <c r="C118" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="D118" s="1">
-        <v>5.4</v>
-      </c>
-      <c r="E118" s="1">
-        <v>-76.383332999999993</v>
-      </c>
       <c r="G118" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="H118" s="1" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="M118" s="1"/>
       <c r="N118" s="3"/>
@@ -5937,71 +6035,71 @@
     </row>
     <row r="119" spans="1:15" ht="16" customHeight="1">
       <c r="A119" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="D119" s="1">
-        <v>4.5885699999999998</v>
-      </c>
-      <c r="E119" s="1">
-        <v>-75.530410000000003</v>
-      </c>
-      <c r="F119" s="1">
-        <v>3000</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="B119" s="1"/>
       <c r="G119" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H119" s="1" t="s">
-        <v>24</v>
+        <v>316</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="K119" s="1">
-        <v>47</v>
-      </c>
-      <c r="L119" s="1">
-        <v>2</v>
-      </c>
-      <c r="M119" s="1" t="s">
-        <v>26</v>
-      </c>
+        <v>600</v>
+      </c>
+      <c r="M119" s="1"/>
       <c r="N119" s="3"/>
-      <c r="O119" s="1">
-        <v>349</v>
-      </c>
+      <c r="O119" s="1"/>
     </row>
     <row r="120" spans="1:15" ht="16" customHeight="1">
       <c r="A120" s="1" t="s">
-        <v>314</v>
+        <v>448</v>
       </c>
       <c r="B120" s="1"/>
+      <c r="C120" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D120" s="1">
+        <v>3.6363289999999999</v>
+      </c>
+      <c r="E120" s="1">
+        <v>-76.640497999999994</v>
+      </c>
       <c r="G120" s="1" t="s">
-        <v>57</v>
+        <v>84</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>748</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="M120" s="1"/>
-      <c r="N120" s="3"/>
-      <c r="O120" s="1"/>
+        <v>747</v>
+      </c>
+      <c r="K120" s="1">
+        <v>24</v>
+      </c>
+      <c r="L120" s="1">
+        <v>1</v>
+      </c>
+      <c r="M120" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="N120" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="O120" s="1">
+        <v>165</v>
+      </c>
     </row>
     <row r="121" spans="1:15" ht="16" customHeight="1">
       <c r="A121" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B121" s="1"/>
       <c r="G121" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="M121" s="1"/>
       <c r="N121" s="3"/>
@@ -6009,56 +6107,53 @@
     </row>
     <row r="122" spans="1:15" ht="16" customHeight="1">
       <c r="A122" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="B122" s="1"/>
+        <v>731</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>732</v>
+      </c>
       <c r="C122" s="1" t="s">
-        <v>454</v>
+        <v>468</v>
       </c>
       <c r="D122" s="1">
-        <v>3.6363289999999999</v>
+        <v>4.4149640000000003</v>
       </c>
       <c r="E122" s="1">
-        <v>-76.640497999999994</v>
+        <v>-74.302553000000003</v>
+      </c>
+      <c r="F122" s="1">
+        <v>2468</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="I122" s="1" t="s">
-        <v>749</v>
+        <v>667</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>748</v>
+        <v>730</v>
       </c>
       <c r="K122" s="1">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="L122" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M122" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="N122" s="3" t="s">
-        <v>724</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="N122" s="3"/>
       <c r="O122" s="1">
-        <v>165</v>
+        <v>192</v>
       </c>
     </row>
     <row r="123" spans="1:15" ht="16" customHeight="1">
       <c r="A123" s="1" t="s">
-        <v>317</v>
+        <v>701</v>
       </c>
       <c r="B123" s="1"/>
-      <c r="G123" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="J123" s="1" t="s">
-        <v>601</v>
+      <c r="H123" s="1" t="s">
+        <v>793</v>
       </c>
       <c r="M123" s="1"/>
       <c r="N123" s="3"/>
@@ -6066,11 +6161,14 @@
     </row>
     <row r="124" spans="1:15" ht="16" customHeight="1">
       <c r="A124" s="1" t="s">
-        <v>701</v>
+        <v>319</v>
       </c>
       <c r="B124" s="1"/>
-      <c r="H124" s="1" t="s">
-        <v>702</v>
+      <c r="G124" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>586</v>
       </c>
       <c r="M124" s="1"/>
       <c r="N124" s="3"/>
@@ -6078,14 +6176,20 @@
     </row>
     <row r="125" spans="1:15" ht="16" customHeight="1">
       <c r="A125" s="1" t="s">
-        <v>319</v>
+        <v>774</v>
       </c>
       <c r="B125" s="1"/>
-      <c r="G125" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="J125" s="1" t="s">
-        <v>586</v>
+      <c r="C125" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="D125" s="6">
+        <v>9.233333</v>
+      </c>
+      <c r="E125" s="1">
+        <v>-74.75</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="M125" s="1"/>
       <c r="N125" s="3"/>
@@ -6093,74 +6197,71 @@
     </row>
     <row r="126" spans="1:15" ht="16" customHeight="1">
       <c r="A126" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="B126" s="1"/>
+        <v>126</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="C126" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="D126" s="6">
-        <v>9.233333</v>
+        <v>212</v>
+      </c>
+      <c r="D126" s="1">
+        <v>6.450367</v>
       </c>
       <c r="E126" s="1">
-        <v>-74.75</v>
+        <v>-74.499759999999995</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="H126" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M126" s="1"/>
+      <c r="J126" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="K126" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L126" s="1">
+        <v>8</v>
+      </c>
+      <c r="M126" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="N126" s="3"/>
-      <c r="O126" s="1"/>
+      <c r="O126" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="127" spans="1:15" ht="16" customHeight="1">
       <c r="A127" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D127" s="1">
-        <v>6.450367</v>
-      </c>
-      <c r="E127" s="1">
-        <v>-74.499759999999995</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="B127" s="1"/>
       <c r="G127" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="H127" s="1" t="s">
-        <v>44</v>
+        <v>322</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="K127" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="L127" s="1">
-        <v>8</v>
-      </c>
-      <c r="M127" s="1" t="s">
-        <v>129</v>
-      </c>
+        <v>602</v>
+      </c>
+      <c r="M127" s="1"/>
       <c r="N127" s="3"/>
-      <c r="O127" s="1">
-        <v>100</v>
-      </c>
+      <c r="O127" s="1"/>
     </row>
     <row r="128" spans="1:15" ht="16" customHeight="1">
       <c r="A128" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B128" s="1"/>
       <c r="G128" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
+      </c>
+      <c r="K128" s="1">
+        <v>158</v>
       </c>
       <c r="M128" s="1"/>
       <c r="N128" s="3"/>
@@ -6168,17 +6269,17 @@
     </row>
     <row r="129" spans="1:15" ht="16" customHeight="1">
       <c r="A129" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B129" s="1"/>
       <c r="G129" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="K129" s="1">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="M129" s="1"/>
       <c r="N129" s="3"/>
@@ -6186,17 +6287,17 @@
     </row>
     <row r="130" spans="1:15" ht="16" customHeight="1">
       <c r="A130" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B130" s="1"/>
       <c r="G130" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="K130" s="1">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="M130" s="1"/>
       <c r="N130" s="3"/>
@@ -6204,17 +6305,29 @@
     </row>
     <row r="131" spans="1:15" ht="16" customHeight="1">
       <c r="A131" s="1" t="s">
-        <v>327</v>
+        <v>776</v>
       </c>
       <c r="B131" s="1"/>
+      <c r="C131" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D131" s="6">
+        <v>6.25</v>
+      </c>
+      <c r="E131" s="1">
+        <v>-75.583332999999996</v>
+      </c>
       <c r="G131" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="K131" s="1">
-        <v>163</v>
+        <v>37</v>
       </c>
       <c r="M131" s="1"/>
       <c r="N131" s="3"/>
@@ -6222,29 +6335,17 @@
     </row>
     <row r="132" spans="1:15" ht="16" customHeight="1">
       <c r="A132" s="1" t="s">
-        <v>777</v>
+        <v>330</v>
       </c>
       <c r="B132" s="1"/>
-      <c r="C132" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D132" s="6">
-        <v>6.25</v>
-      </c>
-      <c r="E132" s="1">
-        <v>-75.583332999999996</v>
-      </c>
       <c r="G132" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="H132" s="1" t="s">
-        <v>44</v>
+        <v>331</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="K132" s="1">
-        <v>37</v>
+        <v>140</v>
       </c>
       <c r="M132" s="1"/>
       <c r="N132" s="3"/>
@@ -6252,133 +6353,130 @@
     </row>
     <row r="133" spans="1:15" ht="16" customHeight="1">
       <c r="A133" s="1" t="s">
-        <v>330</v>
+        <v>12</v>
       </c>
       <c r="B133" s="1"/>
+      <c r="C133" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D133" s="1">
+        <v>3.5832999999999999</v>
+      </c>
+      <c r="E133" s="1">
+        <v>-76.166700000000006</v>
+      </c>
+      <c r="F133" s="1">
+        <v>2100</v>
+      </c>
       <c r="G133" s="1" t="s">
-        <v>331</v>
+        <v>14</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>750</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>607</v>
+        <v>749</v>
       </c>
       <c r="K133" s="1">
-        <v>140</v>
-      </c>
-      <c r="M133" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="L133" s="1">
+        <v>1</v>
+      </c>
+      <c r="M133" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="N133" s="3"/>
-      <c r="O133" s="1"/>
+      <c r="O133" s="1">
+        <v>456</v>
+      </c>
     </row>
     <row r="134" spans="1:15" ht="16" customHeight="1">
       <c r="A134" s="1" t="s">
-        <v>12</v>
+        <v>332</v>
       </c>
       <c r="B134" s="1"/>
-      <c r="C134" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="D134" s="1">
-        <v>3.5832999999999999</v>
-      </c>
-      <c r="E134" s="1">
-        <v>-76.166700000000006</v>
-      </c>
-      <c r="F134" s="1">
-        <v>2100</v>
-      </c>
       <c r="G134" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H134" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I134" s="1" t="s">
-        <v>751</v>
+        <v>333</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="K134" s="1">
-        <v>52</v>
-      </c>
-      <c r="L134" s="1">
-        <v>1</v>
-      </c>
-      <c r="M134" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>608</v>
+      </c>
+      <c r="M134" s="1"/>
       <c r="N134" s="3"/>
-      <c r="O134" s="1">
-        <v>456</v>
-      </c>
+      <c r="O134" s="1"/>
     </row>
     <row r="135" spans="1:15" ht="16" customHeight="1">
       <c r="A135" s="1" t="s">
-        <v>332</v>
+        <v>187</v>
       </c>
       <c r="B135" s="1"/>
+      <c r="C135" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="D135" s="1">
+        <v>4.2545039999999998</v>
+      </c>
+      <c r="E135" s="1">
+        <v>-73.826910999999996</v>
+      </c>
       <c r="G135" s="1" t="s">
-        <v>333</v>
+        <v>21</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>481</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="M135" s="1"/>
+        <v>526</v>
+      </c>
+      <c r="K135" s="1">
+        <v>167</v>
+      </c>
+      <c r="L135" s="1">
+        <v>7</v>
+      </c>
+      <c r="M135" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="N135" s="3"/>
-      <c r="O135" s="1"/>
+      <c r="O135" s="1">
+        <v>20</v>
+      </c>
     </row>
     <row r="136" spans="1:15" ht="16" customHeight="1">
       <c r="A136" s="1" t="s">
-        <v>187</v>
+        <v>704</v>
       </c>
       <c r="B136" s="1"/>
       <c r="C136" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="D136" s="1">
-        <v>4.2545039999999998</v>
+        <v>705</v>
+      </c>
+      <c r="D136" s="6">
+        <v>5.5333329999999998</v>
       </c>
       <c r="E136" s="1">
-        <v>-73.826910999999996</v>
-      </c>
-      <c r="G136" s="1" t="s">
-        <v>21</v>
+        <v>-74.099999999999994</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="J136" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="K136" s="1">
-        <v>167</v>
-      </c>
-      <c r="L136" s="1">
-        <v>7</v>
-      </c>
-      <c r="M136" s="1" t="s">
-        <v>188</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="M136" s="1"/>
       <c r="N136" s="3"/>
-      <c r="O136" s="1">
-        <v>20</v>
-      </c>
+      <c r="O136" s="1"/>
     </row>
     <row r="137" spans="1:15" ht="16" customHeight="1">
       <c r="A137" s="1" t="s">
-        <v>705</v>
+        <v>334</v>
       </c>
       <c r="B137" s="1"/>
-      <c r="C137" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="D137" s="6">
-        <v>5.5333329999999998</v>
-      </c>
-      <c r="E137" s="1">
-        <v>-74.099999999999994</v>
-      </c>
-      <c r="H137" s="1" t="s">
-        <v>44</v>
+      <c r="G137" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="J137" s="1" t="s">
+        <v>609</v>
       </c>
       <c r="M137" s="1"/>
       <c r="N137" s="3"/>
@@ -6386,14 +6484,17 @@
     </row>
     <row r="138" spans="1:15" ht="16" customHeight="1">
       <c r="A138" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B138" s="1"/>
       <c r="G138" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
+      </c>
+      <c r="K138" s="1">
+        <v>106</v>
       </c>
       <c r="M138" s="1"/>
       <c r="N138" s="3"/>
@@ -6405,13 +6506,10 @@
       </c>
       <c r="B139" s="1"/>
       <c r="G139" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="K139" s="1">
-        <v>106</v>
+        <v>611</v>
       </c>
       <c r="M139" s="1"/>
       <c r="N139" s="3"/>
@@ -6419,167 +6517,170 @@
     </row>
     <row r="140" spans="1:15" ht="16" customHeight="1">
       <c r="A140" s="1" t="s">
-        <v>336</v>
+        <v>195</v>
       </c>
       <c r="B140" s="1"/>
+      <c r="C140" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D140" s="1">
+        <v>6.1859679999999999</v>
+      </c>
+      <c r="E140" s="1">
+        <v>-74.583400999999995</v>
+      </c>
       <c r="G140" s="1" t="s">
-        <v>338</v>
+        <v>191</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>481</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="M140" s="1"/>
+        <v>528</v>
+      </c>
+      <c r="K140" s="1">
+        <v>100</v>
+      </c>
+      <c r="L140" s="1">
+        <v>7</v>
+      </c>
+      <c r="M140" s="1" t="s">
+        <v>196</v>
+      </c>
       <c r="N140" s="3"/>
-      <c r="O140" s="1"/>
+      <c r="O140" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="141" spans="1:15" ht="16" customHeight="1">
       <c r="A141" s="1" t="s">
-        <v>195</v>
+        <v>339</v>
       </c>
       <c r="B141" s="1"/>
-      <c r="C141" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D141" s="1">
-        <v>6.1859679999999999</v>
-      </c>
-      <c r="E141" s="1">
-        <v>-74.583400999999995</v>
-      </c>
       <c r="G141" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="H141" s="1" t="s">
-        <v>481</v>
-      </c>
       <c r="J141" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="K141" s="1">
-        <v>100</v>
-      </c>
-      <c r="L141" s="1">
-        <v>7</v>
-      </c>
-      <c r="M141" s="1" t="s">
-        <v>196</v>
-      </c>
+        <v>751</v>
+      </c>
+      <c r="M141" s="1"/>
       <c r="N141" s="3"/>
-      <c r="O141" s="1">
-        <v>4</v>
-      </c>
+      <c r="O141" s="1"/>
     </row>
     <row r="142" spans="1:15" ht="16" customHeight="1">
       <c r="A142" s="1" t="s">
-        <v>339</v>
+        <v>447</v>
       </c>
       <c r="B142" s="1"/>
+      <c r="C142" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D142" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="E142" s="1">
+        <v>-76.933333000000005</v>
+      </c>
       <c r="G142" s="1" t="s">
-        <v>191</v>
+        <v>154</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>752</v>
-      </c>
-      <c r="M142" s="1"/>
+        <v>507</v>
+      </c>
+      <c r="K142" s="1">
+        <v>17</v>
+      </c>
+      <c r="L142" s="1">
+        <v>3</v>
+      </c>
+      <c r="M142" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="N142" s="3"/>
-      <c r="O142" s="1"/>
+      <c r="O142" s="1">
+        <v>91</v>
+      </c>
     </row>
     <row r="143" spans="1:15" ht="16" customHeight="1">
       <c r="A143" s="1" t="s">
-        <v>447</v>
+        <v>73</v>
       </c>
       <c r="B143" s="1"/>
       <c r="C143" s="1" t="s">
         <v>457</v>
       </c>
       <c r="D143" s="1">
-        <v>4.7</v>
+        <v>4.955959</v>
       </c>
       <c r="E143" s="1">
-        <v>-76.933333000000005</v>
+        <v>-76.607293999999996</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>154</v>
+        <v>74</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>44</v>
+        <v>481</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="K143" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L143" s="1">
         <v>3</v>
       </c>
       <c r="M143" s="1" t="s">
-        <v>155</v>
+        <v>75</v>
       </c>
       <c r="N143" s="3"/>
       <c r="O143" s="1">
-        <v>91</v>
+        <v>178</v>
       </c>
     </row>
     <row r="144" spans="1:15" ht="16" customHeight="1">
       <c r="A144" s="1" t="s">
-        <v>73</v>
+        <v>692</v>
       </c>
       <c r="B144" s="1"/>
-      <c r="C144" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="D144" s="1">
-        <v>4.955959</v>
-      </c>
-      <c r="E144" s="1">
-        <v>-76.607293999999996</v>
-      </c>
-      <c r="G144" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H144" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="J144" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="K144" s="1">
-        <v>15</v>
-      </c>
-      <c r="L144" s="1">
-        <v>3</v>
-      </c>
-      <c r="M144" s="1" t="s">
-        <v>75</v>
-      </c>
+      <c r="I144" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="M144" s="1"/>
       <c r="N144" s="3"/>
-      <c r="O144" s="1">
-        <v>178</v>
-      </c>
+      <c r="O144" s="1"/>
     </row>
     <row r="145" spans="1:15" ht="16" customHeight="1">
       <c r="A145" s="1" t="s">
-        <v>692</v>
+        <v>340</v>
       </c>
       <c r="B145" s="1"/>
+      <c r="G145" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="J145" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="K145" s="1">
+        <v>117</v>
+      </c>
       <c r="M145" s="1"/>
       <c r="N145" s="3"/>
       <c r="O145" s="1"/>
     </row>
     <row r="146" spans="1:15" ht="16" customHeight="1">
       <c r="A146" s="1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B146" s="1"/>
       <c r="G146" s="1" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="K146" s="1">
-        <v>117</v>
+        <v>613</v>
       </c>
       <c r="M146" s="1"/>
       <c r="N146" s="3"/>
@@ -6587,130 +6688,133 @@
     </row>
     <row r="147" spans="1:15" ht="16" customHeight="1">
       <c r="A147" s="1" t="s">
-        <v>342</v>
+        <v>197</v>
       </c>
       <c r="B147" s="1"/>
+      <c r="C147" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="D147" s="1">
+        <v>6.9666670000000002</v>
+      </c>
+      <c r="E147" s="1">
+        <v>-73.883332999999993</v>
+      </c>
       <c r="G147" s="1" t="s">
-        <v>343</v>
+        <v>191</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="M147" s="1"/>
+        <v>529</v>
+      </c>
+      <c r="K147" s="1">
+        <v>103</v>
+      </c>
+      <c r="L147" s="1">
+        <v>7</v>
+      </c>
+      <c r="M147" s="2">
+        <v>4776</v>
+      </c>
       <c r="N147" s="3"/>
-      <c r="O147" s="1"/>
+      <c r="O147" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="148" spans="1:15" ht="16" customHeight="1">
       <c r="A148" s="1" t="s">
-        <v>197</v>
+        <v>706</v>
       </c>
       <c r="B148" s="1"/>
       <c r="C148" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="D148" s="1">
-        <v>6.9666670000000002</v>
+        <v>468</v>
+      </c>
+      <c r="D148" s="6">
+        <v>5.1310219999999997</v>
       </c>
       <c r="E148" s="1">
-        <v>-73.883332999999993</v>
-      </c>
-      <c r="G148" s="1" t="s">
-        <v>191</v>
+        <v>-74.158075999999994</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J148" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="K148" s="1">
-        <v>103</v>
-      </c>
-      <c r="L148" s="1">
-        <v>7</v>
-      </c>
-      <c r="M148" s="2">
-        <v>4776</v>
-      </c>
+        <v>481</v>
+      </c>
+      <c r="M148" s="2"/>
       <c r="N148" s="3"/>
-      <c r="O148" s="1">
-        <v>2</v>
-      </c>
+      <c r="O148" s="1"/>
     </row>
     <row r="149" spans="1:15" ht="16" customHeight="1">
       <c r="A149" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="B149" s="1"/>
+        <v>450</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>768</v>
+      </c>
       <c r="C149" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="D149" s="6">
-        <v>5.1310219999999997</v>
+        <v>454</v>
+      </c>
+      <c r="D149" s="1">
+        <v>3.5333329999999998</v>
       </c>
       <c r="E149" s="1">
-        <v>-74.158075999999994</v>
+        <v>-76.266666999999998</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="M149" s="2"/>
+        <v>476</v>
+      </c>
+      <c r="L149" s="1">
+        <v>1</v>
+      </c>
+      <c r="M149" s="1"/>
       <c r="N149" s="3"/>
-      <c r="O149" s="1"/>
+      <c r="O149" s="1">
+        <v>75</v>
+      </c>
     </row>
     <row r="150" spans="1:15" ht="16" customHeight="1">
       <c r="A150" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>769</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="B150" s="1"/>
       <c r="C150" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="D150" s="1">
-        <v>3.5333329999999998</v>
+        <v>468</v>
+      </c>
+      <c r="D150" s="6">
+        <v>5.0999999999999996</v>
       </c>
       <c r="E150" s="1">
-        <v>-76.266666999999998</v>
+        <v>-74.166667000000004</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>345</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="L150" s="1">
-        <v>1</v>
+        <v>44</v>
+      </c>
+      <c r="J150" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="K150" s="1">
+        <v>91</v>
       </c>
       <c r="M150" s="1"/>
       <c r="N150" s="3"/>
-      <c r="O150" s="1">
-        <v>75</v>
-      </c>
+      <c r="O150" s="1"/>
     </row>
     <row r="151" spans="1:15" ht="16" customHeight="1">
       <c r="A151" s="1" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B151" s="1"/>
-      <c r="C151" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="D151" s="6">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="E151" s="1">
-        <v>-74.166667000000004</v>
-      </c>
       <c r="G151" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="H151" s="1" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="K151" s="1">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="M151" s="1"/>
       <c r="N151" s="3"/>
@@ -6718,75 +6822,75 @@
     </row>
     <row r="152" spans="1:15" ht="16" customHeight="1">
       <c r="A152" s="1" t="s">
-        <v>346</v>
+        <v>80</v>
       </c>
       <c r="B152" s="1"/>
+      <c r="C152" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D152" s="1">
+        <v>7.1027300000000002</v>
+      </c>
+      <c r="E152" s="1">
+        <v>-75.969299000000007</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="G152" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>615</v>
+        <v>532</v>
       </c>
       <c r="K152" s="1">
-        <v>146</v>
-      </c>
-      <c r="M152" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="L152" s="1">
+        <v>8</v>
+      </c>
+      <c r="M152" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="N152" s="3"/>
-      <c r="O152" s="1"/>
+      <c r="O152" s="1">
+        <v>168</v>
+      </c>
     </row>
     <row r="153" spans="1:15" ht="16" customHeight="1">
       <c r="A153" s="1" t="s">
-        <v>80</v>
+        <v>347</v>
       </c>
       <c r="B153" s="1"/>
-      <c r="C153" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D153" s="1">
-        <v>7.1027300000000002</v>
-      </c>
-      <c r="E153" s="1">
-        <v>-75.969299000000007</v>
-      </c>
-      <c r="F153" s="1" t="s">
-        <v>137</v>
-      </c>
       <c r="G153" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H153" s="1" t="s">
-        <v>81</v>
+        <v>348</v>
       </c>
       <c r="J153" s="1" t="s">
-        <v>532</v>
+        <v>616</v>
       </c>
       <c r="K153" s="1">
-        <v>32</v>
-      </c>
-      <c r="L153" s="1">
-        <v>8</v>
-      </c>
-      <c r="M153" s="1" t="s">
-        <v>83</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M153" s="1"/>
       <c r="N153" s="3"/>
-      <c r="O153" s="1">
-        <v>168</v>
-      </c>
+      <c r="O153" s="1"/>
     </row>
     <row r="154" spans="1:15" ht="16" customHeight="1">
       <c r="A154" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B154" s="1"/>
       <c r="G154" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="J154" s="1" t="s">
-        <v>616</v>
+        <v>574</v>
       </c>
       <c r="K154" s="1">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M154" s="1"/>
       <c r="N154" s="3"/>
@@ -6794,17 +6898,17 @@
     </row>
     <row r="155" spans="1:15" ht="16" customHeight="1">
       <c r="A155" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B155" s="1"/>
       <c r="G155" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="J155" s="1" t="s">
-        <v>574</v>
+        <v>617</v>
       </c>
       <c r="K155" s="1">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="M155" s="1"/>
       <c r="N155" s="3"/>
@@ -6812,17 +6916,32 @@
     </row>
     <row r="156" spans="1:15" ht="16" customHeight="1">
       <c r="A156" s="1" t="s">
-        <v>351</v>
+        <v>719</v>
       </c>
       <c r="B156" s="1"/>
+      <c r="C156" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="D156" s="6">
+        <v>7.4166670000000003</v>
+      </c>
+      <c r="E156" s="1">
+        <v>-72.433333000000005</v>
+      </c>
       <c r="G156" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="J156" s="1" t="s">
-        <v>617</v>
+        <v>542</v>
       </c>
       <c r="K156" s="1">
-        <v>162</v>
+        <v>161</v>
+      </c>
+      <c r="L156" s="1" t="s">
+        <v>263</v>
       </c>
       <c r="M156" s="1"/>
       <c r="N156" s="3"/>
@@ -6830,134 +6949,98 @@
     </row>
     <row r="157" spans="1:15" ht="16" customHeight="1">
       <c r="A157" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="B157" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>172</v>
+      </c>
       <c r="C157" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="D157" s="6">
-        <v>7.4166670000000003</v>
+        <v>386</v>
+      </c>
+      <c r="D157" s="1">
+        <v>4.6803179999999998</v>
       </c>
       <c r="E157" s="1">
-        <v>-72.433333000000005</v>
+        <v>-75.413456999999994</v>
+      </c>
+      <c r="F157" s="1">
+        <v>3810</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>353</v>
+        <v>64</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>44</v>
+        <v>458</v>
+      </c>
+      <c r="I157" s="1" t="s">
+        <v>787</v>
       </c>
       <c r="J157" s="1" t="s">
-        <v>542</v>
+        <v>503</v>
       </c>
       <c r="K157" s="1">
-        <v>161</v>
-      </c>
-      <c r="L157" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="M157" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="L157" s="1">
+        <v>3</v>
+      </c>
+      <c r="M157" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="N157" s="3"/>
-      <c r="O157" s="1"/>
+      <c r="O157" s="1">
+        <v>200</v>
+      </c>
     </row>
     <row r="158" spans="1:15" ht="16" customHeight="1">
       <c r="A158" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="D158" s="1">
-        <v>4.6803179999999998</v>
-      </c>
-      <c r="E158" s="1">
-        <v>-75.413456999999994</v>
-      </c>
-      <c r="F158" s="1">
-        <v>3810</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="B158" s="1"/>
       <c r="G158" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H158" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="I158" s="1" t="s">
-        <v>788</v>
+        <v>355</v>
       </c>
       <c r="J158" s="1" t="s">
-        <v>503</v>
+        <v>618</v>
       </c>
       <c r="K158" s="1">
-        <v>49</v>
-      </c>
-      <c r="L158" s="1">
-        <v>3</v>
-      </c>
-      <c r="M158" s="1" t="s">
-        <v>65</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="M158" s="1"/>
       <c r="N158" s="3"/>
-      <c r="O158" s="1">
-        <v>200</v>
-      </c>
+      <c r="O158" s="1"/>
     </row>
     <row r="159" spans="1:15" ht="16" customHeight="1">
       <c r="A159" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="D159" s="1">
-        <v>4.6737520000000004</v>
-      </c>
-      <c r="E159" s="1">
-        <v>-75.423862999999997</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="B159" s="1"/>
       <c r="G159" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="H159" s="1" t="s">
-        <v>458</v>
+        <v>357</v>
       </c>
       <c r="J159" s="1" t="s">
-        <v>508</v>
+        <v>619</v>
       </c>
       <c r="K159" s="1">
-        <v>48</v>
-      </c>
-      <c r="L159" s="1">
-        <v>3</v>
-      </c>
-      <c r="M159" s="1" t="s">
-        <v>174</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="M159" s="1"/>
       <c r="N159" s="3"/>
-      <c r="O159" s="1">
-        <v>75</v>
-      </c>
+      <c r="O159" s="1"/>
     </row>
     <row r="160" spans="1:15" ht="16" customHeight="1">
       <c r="A160" s="1" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B160" s="1"/>
       <c r="G160" s="1" t="s">
-        <v>355</v>
+        <v>191</v>
       </c>
       <c r="J160" s="1" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="K160" s="1">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="M160" s="1"/>
       <c r="N160" s="3"/>
@@ -6965,17 +7048,29 @@
     </row>
     <row r="161" spans="1:15" ht="16" customHeight="1">
       <c r="A161" s="1" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B161" s="1"/>
+      <c r="C161" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D161" s="6">
+        <v>3.6766540000000001</v>
+      </c>
+      <c r="E161" s="1">
+        <v>-76.584214000000003</v>
+      </c>
       <c r="G161" s="1" t="s">
-        <v>357</v>
+        <v>360</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>481</v>
       </c>
       <c r="J161" s="1" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="K161" s="1">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="M161" s="1"/>
       <c r="N161" s="3"/>
@@ -6983,47 +7078,54 @@
     </row>
     <row r="162" spans="1:15" ht="16" customHeight="1">
       <c r="A162" s="1" t="s">
-        <v>358</v>
+        <v>185</v>
       </c>
       <c r="B162" s="1"/>
+      <c r="C162" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D162" s="1">
+        <v>7.0217219999999996</v>
+      </c>
+      <c r="E162" s="1">
+        <v>-75.909411000000006</v>
+      </c>
       <c r="G162" s="1" t="s">
-        <v>191</v>
+        <v>90</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>481</v>
       </c>
       <c r="J162" s="1" t="s">
-        <v>620</v>
+        <v>537</v>
       </c>
       <c r="K162" s="1">
-        <v>104</v>
-      </c>
-      <c r="M162" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="L162" s="1">
+        <v>8</v>
+      </c>
+      <c r="M162" s="2">
+        <v>5514</v>
+      </c>
       <c r="N162" s="3"/>
-      <c r="O162" s="1"/>
+      <c r="O162" s="1">
+        <v>28</v>
+      </c>
     </row>
     <row r="163" spans="1:15" ht="16" customHeight="1">
       <c r="A163" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B163" s="1"/>
-      <c r="C163" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="D163" s="6">
-        <v>3.6766540000000001</v>
-      </c>
-      <c r="E163" s="1">
-        <v>-76.584214000000003</v>
-      </c>
       <c r="G163" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="H163" s="1" t="s">
-        <v>481</v>
+        <v>362</v>
       </c>
       <c r="J163" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="K163" s="1">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="M163" s="1"/>
       <c r="N163" s="3"/>
@@ -7031,54 +7133,29 @@
     </row>
     <row r="164" spans="1:15" ht="16" customHeight="1">
       <c r="A164" s="1" t="s">
-        <v>185</v>
+        <v>363</v>
       </c>
       <c r="B164" s="1"/>
-      <c r="C164" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D164" s="1">
-        <v>7.0217219999999996</v>
-      </c>
-      <c r="E164" s="1">
-        <v>-75.909411000000006</v>
-      </c>
       <c r="G164" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H164" s="1" t="s">
-        <v>481</v>
+        <v>191</v>
       </c>
       <c r="J164" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="K164" s="1">
-        <v>33</v>
-      </c>
-      <c r="L164" s="1">
-        <v>8</v>
-      </c>
-      <c r="M164" s="2">
-        <v>5514</v>
-      </c>
+        <v>663</v>
+      </c>
+      <c r="M164" s="1"/>
       <c r="N164" s="3"/>
-      <c r="O164" s="1">
-        <v>28</v>
-      </c>
+      <c r="O164" s="1"/>
     </row>
     <row r="165" spans="1:15" ht="16" customHeight="1">
       <c r="A165" s="1" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B165" s="1"/>
       <c r="G165" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="J165" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="K165" s="1">
-        <v>114</v>
+        <v>664</v>
       </c>
       <c r="M165" s="1"/>
       <c r="N165" s="3"/>
@@ -7086,14 +7163,17 @@
     </row>
     <row r="166" spans="1:15" ht="16" customHeight="1">
       <c r="A166" s="1" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B166" s="1"/>
       <c r="G166" s="1" t="s">
-        <v>191</v>
+        <v>367</v>
       </c>
       <c r="J166" s="1" t="s">
-        <v>663</v>
+        <v>623</v>
+      </c>
+      <c r="K166" s="1">
+        <v>121</v>
       </c>
       <c r="M166" s="1"/>
       <c r="N166" s="3"/>
@@ -7101,14 +7181,32 @@
     </row>
     <row r="167" spans="1:15" ht="16" customHeight="1">
       <c r="A167" s="1" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B167" s="1"/>
+      <c r="C167" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D167" s="1">
+        <v>2.4421170000000001</v>
+      </c>
+      <c r="E167" s="1">
+        <v>-76.606365999999994</v>
+      </c>
       <c r="G167" s="1" t="s">
-        <v>365</v>
+        <v>369</v>
+      </c>
+      <c r="H167" s="1" t="s">
+        <v>481</v>
       </c>
       <c r="J167" s="1" t="s">
-        <v>664</v>
+        <v>540</v>
+      </c>
+      <c r="K167" s="1">
+        <v>56</v>
+      </c>
+      <c r="L167" s="1">
+        <v>2</v>
       </c>
       <c r="M167" s="1"/>
       <c r="N167" s="3"/>
@@ -7116,17 +7214,17 @@
     </row>
     <row r="168" spans="1:15" ht="16" customHeight="1">
       <c r="A168" s="1" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B168" s="1"/>
       <c r="G168" s="1" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="J168" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="K168" s="1">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="M168" s="1"/>
       <c r="N168" s="3"/>
@@ -7134,32 +7232,17 @@
     </row>
     <row r="169" spans="1:15" ht="16" customHeight="1">
       <c r="A169" s="1" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B169" s="1"/>
-      <c r="C169" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="D169" s="1">
-        <v>2.4421170000000001</v>
-      </c>
-      <c r="E169" s="1">
-        <v>-76.606365999999994</v>
-      </c>
       <c r="G169" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="H169" s="1" t="s">
-        <v>481</v>
+        <v>373</v>
       </c>
       <c r="J169" s="1" t="s">
-        <v>540</v>
+        <v>625</v>
       </c>
       <c r="K169" s="1">
-        <v>56</v>
-      </c>
-      <c r="L169" s="1">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="M169" s="1"/>
       <c r="N169" s="3"/>
@@ -7167,17 +7250,17 @@
     </row>
     <row r="170" spans="1:15" ht="16" customHeight="1">
       <c r="A170" s="1" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B170" s="1"/>
       <c r="G170" s="1" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="J170" s="1" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="K170" s="1">
-        <v>112</v>
+        <v>150</v>
       </c>
       <c r="M170" s="1"/>
       <c r="N170" s="3"/>
@@ -7185,17 +7268,29 @@
     </row>
     <row r="171" spans="1:15" ht="16" customHeight="1">
       <c r="A171" s="1" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B171" s="1"/>
+      <c r="C171" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="D171" s="6">
+        <v>4.9289129999999997</v>
+      </c>
+      <c r="E171" s="1">
+        <v>-74.172393999999997</v>
+      </c>
       <c r="G171" s="1" t="s">
-        <v>373</v>
+        <v>377</v>
+      </c>
+      <c r="H171" s="1" t="s">
+        <v>707</v>
       </c>
       <c r="J171" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="K171" s="1">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="M171" s="1"/>
       <c r="N171" s="3"/>
@@ -7203,47 +7298,56 @@
     </row>
     <row r="172" spans="1:15" ht="16" customHeight="1">
       <c r="A172" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="B172" s="1"/>
+        <v>106</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D172" s="1">
+        <v>6.4896330000000004</v>
+      </c>
+      <c r="E172" s="1">
+        <v>-74.402275000000003</v>
+      </c>
       <c r="G172" s="1" t="s">
-        <v>375</v>
+        <v>107</v>
+      </c>
+      <c r="H172" s="1" t="s">
+        <v>481</v>
       </c>
       <c r="J172" s="1" t="s">
-        <v>615</v>
+        <v>521</v>
       </c>
       <c r="K172" s="1">
-        <v>150</v>
-      </c>
-      <c r="M172" s="1"/>
+        <v>101</v>
+      </c>
+      <c r="L172" s="1">
+        <v>7</v>
+      </c>
+      <c r="M172" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="N172" s="3"/>
-      <c r="O172" s="1"/>
+      <c r="O172" s="1">
+        <v>117</v>
+      </c>
     </row>
     <row r="173" spans="1:15" ht="16" customHeight="1">
       <c r="A173" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B173" s="1"/>
-      <c r="C173" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="D173" s="6">
-        <v>4.9289129999999997</v>
-      </c>
-      <c r="E173" s="1">
-        <v>-74.172393999999997</v>
-      </c>
       <c r="G173" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="H173" s="1" t="s">
-        <v>708</v>
+        <v>379</v>
       </c>
       <c r="J173" s="1" t="s">
-        <v>626</v>
+        <v>380</v>
       </c>
       <c r="K173" s="1">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="M173" s="1"/>
       <c r="N173" s="3"/>
@@ -7251,114 +7355,108 @@
     </row>
     <row r="174" spans="1:15" ht="16" customHeight="1">
       <c r="A174" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>106</v>
-      </c>
+        <v>708</v>
+      </c>
+      <c r="B174" s="1"/>
       <c r="C174" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D174" s="1">
-        <v>6.4896330000000004</v>
+        <v>705</v>
+      </c>
+      <c r="D174" s="6">
+        <v>5.95</v>
       </c>
       <c r="E174" s="1">
-        <v>-74.402275000000003</v>
-      </c>
-      <c r="G174" s="1" t="s">
-        <v>107</v>
+        <v>-74.599999999999994</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="J174" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="K174" s="1">
-        <v>101</v>
-      </c>
-      <c r="L174" s="1">
-        <v>7</v>
-      </c>
-      <c r="M174" s="1" t="s">
-        <v>108</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="M174" s="1"/>
       <c r="N174" s="3"/>
-      <c r="O174" s="1">
-        <v>117</v>
-      </c>
+      <c r="O174" s="1"/>
     </row>
     <row r="175" spans="1:15" ht="16" customHeight="1">
       <c r="A175" s="1" t="s">
-        <v>378</v>
+        <v>33</v>
       </c>
       <c r="B175" s="1"/>
+      <c r="C175" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D175" s="1">
+        <v>7.2893670000000004</v>
+      </c>
+      <c r="E175" s="1">
+        <v>-75.394159000000002</v>
+      </c>
+      <c r="F175" s="1">
+        <v>180</v>
+      </c>
       <c r="G175" s="1" t="s">
-        <v>379</v>
+        <v>34</v>
+      </c>
+      <c r="H175" s="1" t="s">
+        <v>481</v>
       </c>
       <c r="J175" s="1" t="s">
-        <v>380</v>
+        <v>530</v>
       </c>
       <c r="K175" s="1">
-        <v>123</v>
-      </c>
-      <c r="M175" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="L175" s="1">
+        <v>8</v>
+      </c>
+      <c r="M175" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="N175" s="3"/>
-      <c r="O175" s="1"/>
+      <c r="O175" s="1">
+        <v>334</v>
+      </c>
     </row>
     <row r="176" spans="1:15" ht="16" customHeight="1">
       <c r="A176" s="1" t="s">
-        <v>33</v>
+        <v>381</v>
       </c>
       <c r="B176" s="1"/>
-      <c r="C176" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D176" s="1">
-        <v>7.2893670000000004</v>
-      </c>
-      <c r="E176" s="1">
-        <v>-75.394159000000002</v>
-      </c>
-      <c r="F176" s="1">
-        <v>180</v>
-      </c>
       <c r="G176" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H176" s="1" t="s">
-        <v>481</v>
+        <v>382</v>
       </c>
       <c r="J176" s="1" t="s">
-        <v>530</v>
+        <v>627</v>
       </c>
       <c r="K176" s="1">
-        <v>35</v>
-      </c>
-      <c r="L176" s="1">
-        <v>8</v>
-      </c>
-      <c r="M176" s="1" t="s">
-        <v>35</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="M176" s="1"/>
       <c r="N176" s="3"/>
-      <c r="O176" s="1">
-        <v>334</v>
-      </c>
+      <c r="O176" s="1"/>
     </row>
     <row r="177" spans="1:15" ht="16" customHeight="1">
       <c r="A177" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B177" s="1"/>
+      <c r="C177" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D177" s="6">
+        <v>3.8574250000000001</v>
+      </c>
+      <c r="E177" s="1">
+        <v>-74.930802999999997</v>
+      </c>
       <c r="G177" s="1" t="s">
-        <v>382</v>
+        <v>384</v>
+      </c>
+      <c r="H177" s="1" t="s">
+        <v>481</v>
       </c>
       <c r="J177" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="K177" s="1">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="M177" s="1"/>
       <c r="N177" s="3"/>
@@ -7366,50 +7464,66 @@
     </row>
     <row r="178" spans="1:15" ht="16" customHeight="1">
       <c r="A178" s="1" t="s">
-        <v>709</v>
+        <v>151</v>
       </c>
       <c r="B178" s="1"/>
       <c r="C178" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="D178" s="6">
-        <v>5.95</v>
+        <v>468</v>
+      </c>
+      <c r="D178" s="1">
+        <v>4.3303649999999996</v>
       </c>
       <c r="E178" s="1">
-        <v>-74.599999999999994</v>
+        <v>-73.862810999999994</v>
+      </c>
+      <c r="G178" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M178" s="1"/>
+        <v>481</v>
+      </c>
+      <c r="J178" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="K178" s="1">
+        <v>168</v>
+      </c>
+      <c r="L178" s="1">
+        <v>7</v>
+      </c>
+      <c r="M178" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="N178" s="3"/>
-      <c r="O178" s="1"/>
+      <c r="O178" s="1">
+        <v>98</v>
+      </c>
     </row>
     <row r="179" spans="1:15" ht="16" customHeight="1">
       <c r="A179" s="1" t="s">
-        <v>383</v>
+        <v>479</v>
       </c>
       <c r="B179" s="1"/>
       <c r="C179" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="D179" s="6">
-        <v>3.8574250000000001</v>
+        <v>457</v>
+      </c>
+      <c r="D179" s="1">
+        <v>5.6926730000000001</v>
       </c>
       <c r="E179" s="1">
-        <v>-74.930802999999997</v>
+        <v>-76.660818000000006</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H179" s="1" t="s">
         <v>481</v>
       </c>
       <c r="J179" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="K179" s="1">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="M179" s="1"/>
       <c r="N179" s="3"/>
@@ -7417,66 +7531,44 @@
     </row>
     <row r="180" spans="1:15" ht="16" customHeight="1">
       <c r="A180" s="1" t="s">
-        <v>151</v>
+        <v>386</v>
       </c>
       <c r="B180" s="1"/>
-      <c r="C180" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="D180" s="1">
-        <v>4.3303649999999996</v>
-      </c>
-      <c r="E180" s="1">
-        <v>-73.862810999999994</v>
-      </c>
       <c r="G180" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="H180" s="1" t="s">
-        <v>481</v>
+        <v>191</v>
       </c>
       <c r="J180" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="K180" s="1">
-        <v>168</v>
-      </c>
-      <c r="L180" s="1">
-        <v>7</v>
-      </c>
-      <c r="M180" s="1" t="s">
-        <v>153</v>
-      </c>
+        <v>630</v>
+      </c>
+      <c r="M180" s="1"/>
       <c r="N180" s="3"/>
-      <c r="O180" s="1">
-        <v>98</v>
-      </c>
+      <c r="O180" s="1"/>
     </row>
     <row r="181" spans="1:15" ht="16" customHeight="1">
       <c r="A181" s="1" t="s">
-        <v>479</v>
+        <v>387</v>
       </c>
       <c r="B181" s="1"/>
       <c r="C181" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="D181" s="1">
-        <v>5.6926730000000001</v>
+        <v>212</v>
+      </c>
+      <c r="D181" s="6">
+        <v>7.0281469999999997</v>
       </c>
       <c r="E181" s="1">
-        <v>-76.660818000000006</v>
+        <v>-74.693987000000007</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="H181" s="1" t="s">
         <v>481</v>
       </c>
       <c r="J181" s="1" t="s">
-        <v>629</v>
+        <v>709</v>
       </c>
       <c r="K181" s="1">
-        <v>8</v>
+        <v>120</v>
       </c>
       <c r="M181" s="1"/>
       <c r="N181" s="3"/>
@@ -7484,44 +7576,48 @@
     </row>
     <row r="182" spans="1:15" ht="16" customHeight="1">
       <c r="A182" s="1" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B182" s="1"/>
-      <c r="G182" s="1" t="s">
-        <v>191</v>
+      <c r="C182" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="D182" s="6">
+        <v>10.7</v>
+      </c>
+      <c r="E182" s="1">
+        <v>-74.716667000000001</v>
+      </c>
+      <c r="H182" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="J182" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="M182" s="1"/>
+        <v>665</v>
+      </c>
+      <c r="L182" s="1">
+        <v>7</v>
+      </c>
+      <c r="M182" s="2">
+        <v>4774</v>
+      </c>
       <c r="N182" s="3"/>
-      <c r="O182" s="1"/>
+      <c r="O182" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="183" spans="1:15" ht="16" customHeight="1">
       <c r="A183" s="1" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B183" s="1"/>
-      <c r="C183" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D183" s="6">
-        <v>7.0281469999999997</v>
-      </c>
-      <c r="E183" s="1">
-        <v>-74.693987000000007</v>
-      </c>
       <c r="G183" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="H183" s="1" t="s">
-        <v>481</v>
+        <v>391</v>
       </c>
       <c r="J183" s="1" t="s">
-        <v>710</v>
+        <v>631</v>
       </c>
       <c r="K183" s="1">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="M183" s="1"/>
       <c r="N183" s="3"/>
@@ -7529,48 +7625,69 @@
     </row>
     <row r="184" spans="1:15" ht="16" customHeight="1">
       <c r="A184" s="1" t="s">
-        <v>389</v>
+        <v>119</v>
       </c>
       <c r="B184" s="1"/>
       <c r="C184" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="D184" s="6">
-        <v>10.7</v>
+        <v>465</v>
+      </c>
+      <c r="D184" s="1">
+        <v>1.210709</v>
       </c>
       <c r="E184" s="1">
-        <v>-74.716667000000001</v>
+        <v>-77.994065000000006</v>
+      </c>
+      <c r="F184" s="1">
+        <v>1300</v>
+      </c>
+      <c r="G184" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="H184" s="1" t="s">
-        <v>44</v>
+        <v>481</v>
       </c>
       <c r="J184" s="1" t="s">
-        <v>665</v>
+        <v>518</v>
+      </c>
+      <c r="K184" s="1">
+        <v>31</v>
       </c>
       <c r="L184" s="1">
-        <v>7</v>
-      </c>
-      <c r="M184" s="2">
-        <v>4774</v>
+        <v>6</v>
+      </c>
+      <c r="M184" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="N184" s="3"/>
       <c r="O184" s="1">
-        <v>5</v>
+        <v>107</v>
       </c>
     </row>
     <row r="185" spans="1:15" ht="16" customHeight="1">
       <c r="A185" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B185" s="1"/>
+      <c r="C185" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D185" s="1">
+        <v>5.516667</v>
+      </c>
+      <c r="E185" s="1">
+        <v>-76.516666999999998</v>
+      </c>
       <c r="G185" s="1" t="s">
-        <v>391</v>
+        <v>191</v>
+      </c>
+      <c r="H185" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="J185" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="K185" s="1">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="M185" s="1"/>
       <c r="N185" s="3"/>
@@ -7578,69 +7695,32 @@
     </row>
     <row r="186" spans="1:15" ht="16" customHeight="1">
       <c r="A186" s="1" t="s">
-        <v>119</v>
+        <v>694</v>
       </c>
       <c r="B186" s="1"/>
-      <c r="C186" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="D186" s="1">
-        <v>1.210709</v>
-      </c>
-      <c r="E186" s="1">
-        <v>-77.994065000000006</v>
-      </c>
-      <c r="F186" s="1">
-        <v>1300</v>
-      </c>
       <c r="G186" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H186" s="1" t="s">
-        <v>481</v>
+        <v>191</v>
+      </c>
+      <c r="I186" s="1" t="s">
+        <v>795</v>
       </c>
       <c r="J186" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="K186" s="1">
-        <v>31</v>
-      </c>
-      <c r="L186" s="1">
-        <v>6</v>
-      </c>
-      <c r="M186" s="1" t="s">
-        <v>120</v>
-      </c>
+        <v>552</v>
+      </c>
+      <c r="M186" s="1"/>
       <c r="N186" s="3"/>
-      <c r="O186" s="1">
-        <v>107</v>
-      </c>
+      <c r="O186" s="1"/>
     </row>
     <row r="187" spans="1:15" ht="16" customHeight="1">
       <c r="A187" s="1" t="s">
-        <v>392</v>
+        <v>765</v>
       </c>
       <c r="B187" s="1"/>
-      <c r="C187" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="D187" s="1">
-        <v>5.516667</v>
-      </c>
-      <c r="E187" s="1">
-        <v>-76.516666999999998</v>
-      </c>
       <c r="G187" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="H187" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="J187" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="K187" s="1">
-        <v>10</v>
+        <v>633</v>
       </c>
       <c r="M187" s="1"/>
       <c r="N187" s="3"/>
@@ -7648,14 +7728,14 @@
     </row>
     <row r="188" spans="1:15" ht="16" customHeight="1">
       <c r="A188" s="1" t="s">
-        <v>694</v>
+        <v>393</v>
       </c>
       <c r="B188" s="1"/>
       <c r="G188" s="1" t="s">
         <v>191</v>
       </c>
       <c r="J188" s="1" t="s">
-        <v>552</v>
+        <v>634</v>
       </c>
       <c r="M188" s="1"/>
       <c r="N188" s="3"/>
@@ -7663,14 +7743,14 @@
     </row>
     <row r="189" spans="1:15" ht="16" customHeight="1">
       <c r="A189" s="1" t="s">
-        <v>766</v>
+        <v>394</v>
       </c>
       <c r="B189" s="1"/>
       <c r="G189" s="1" t="s">
         <v>191</v>
       </c>
       <c r="J189" s="1" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="M189" s="1"/>
       <c r="N189" s="3"/>
@@ -7678,29 +7758,51 @@
     </row>
     <row r="190" spans="1:15" ht="16" customHeight="1">
       <c r="A190" s="1" t="s">
-        <v>393</v>
+        <v>92</v>
       </c>
       <c r="B190" s="1"/>
+      <c r="C190" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D190" s="1">
+        <v>4.1567889999999998</v>
+      </c>
+      <c r="E190" s="1">
+        <v>-76.287779999999998</v>
+      </c>
       <c r="G190" s="1" t="s">
-        <v>191</v>
+        <v>93</v>
+      </c>
+      <c r="H190" s="1" t="s">
+        <v>483</v>
       </c>
       <c r="J190" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="M190" s="1"/>
+        <v>505</v>
+      </c>
+      <c r="K190" s="1">
+        <v>50</v>
+      </c>
+      <c r="L190" s="1">
+        <v>3</v>
+      </c>
+      <c r="M190" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="N190" s="3"/>
-      <c r="O190" s="1"/>
+      <c r="O190" s="1">
+        <v>143</v>
+      </c>
     </row>
     <row r="191" spans="1:15" ht="16" customHeight="1">
       <c r="A191" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B191" s="1"/>
       <c r="G191" s="1" t="s">
         <v>191</v>
       </c>
       <c r="J191" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="M191" s="1"/>
       <c r="N191" s="3"/>
@@ -7708,51 +7810,25 @@
     </row>
     <row r="192" spans="1:15" ht="16" customHeight="1">
       <c r="A192" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B192" s="1"/>
-      <c r="C192" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="D192" s="1">
-        <v>4.1567889999999998</v>
-      </c>
-      <c r="E192" s="1">
-        <v>-76.287779999999998</v>
-      </c>
-      <c r="G192" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="H192" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="J192" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="K192" s="1">
-        <v>50</v>
-      </c>
-      <c r="L192" s="1">
-        <v>3</v>
-      </c>
-      <c r="M192" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="N192" s="3"/>
-      <c r="O192" s="1">
-        <v>143</v>
+        <v>777</v>
+      </c>
+      <c r="I192" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="M192" s="4" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="193" spans="1:15" ht="16" customHeight="1">
       <c r="A193" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B193" s="1"/>
       <c r="G193" s="1" t="s">
         <v>191</v>
       </c>
       <c r="J193" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="M193" s="1"/>
       <c r="N193" s="3"/>
@@ -7760,14 +7836,20 @@
     </row>
     <row r="194" spans="1:15" ht="16" customHeight="1">
       <c r="A194" s="1" t="s">
-        <v>396</v>
+        <v>703</v>
       </c>
       <c r="B194" s="1"/>
-      <c r="G194" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="J194" s="1" t="s">
-        <v>637</v>
+      <c r="C194" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D194" s="6">
+        <v>7.2833329999999998</v>
+      </c>
+      <c r="E194" s="1">
+        <v>-76.599999999999994</v>
+      </c>
+      <c r="H194" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="M194" s="1"/>
       <c r="N194" s="3"/>
@@ -7775,20 +7857,17 @@
     </row>
     <row r="195" spans="1:15" ht="16" customHeight="1">
       <c r="A195" s="1" t="s">
-        <v>704</v>
+        <v>397</v>
       </c>
       <c r="B195" s="1"/>
-      <c r="C195" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="D195" s="6">
-        <v>7.2833329999999998</v>
-      </c>
-      <c r="E195" s="1">
-        <v>-76.599999999999994</v>
-      </c>
-      <c r="H195" s="1" t="s">
-        <v>44</v>
+      <c r="G195" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J195" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="K195" s="1">
+        <v>4</v>
       </c>
       <c r="M195" s="1"/>
       <c r="N195" s="3"/>
@@ -7796,17 +7875,20 @@
     </row>
     <row r="196" spans="1:15" ht="16" customHeight="1">
       <c r="A196" s="1" t="s">
-        <v>397</v>
+        <v>710</v>
       </c>
       <c r="B196" s="1"/>
-      <c r="G196" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="J196" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="K196" s="1">
-        <v>4</v>
+      <c r="C196" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="D196" s="6">
+        <v>9.1166669999999996</v>
+      </c>
+      <c r="E196" s="1">
+        <v>-74.733333000000002</v>
+      </c>
+      <c r="H196" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="M196" s="1"/>
       <c r="N196" s="3"/>
@@ -7821,16 +7903,16 @@
         <v>212</v>
       </c>
       <c r="D197" s="6">
-        <v>8.7833330000000007</v>
+        <v>8.7806840000000008</v>
       </c>
       <c r="E197" s="1">
-        <v>-76.516666999999998</v>
+        <v>-76.511672000000004</v>
       </c>
       <c r="G197" s="1" t="s">
         <v>191</v>
       </c>
       <c r="H197" s="1" t="s">
-        <v>44</v>
+        <v>796</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>639</v>
@@ -7841,20 +7923,23 @@
     </row>
     <row r="198" spans="1:15" ht="16" customHeight="1">
       <c r="A198" s="1" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="B198" s="1"/>
       <c r="C198" s="1" t="s">
-        <v>470</v>
+        <v>717</v>
       </c>
       <c r="D198" s="6">
-        <v>9.1166669999999996</v>
+        <v>9.3812049999999996</v>
       </c>
       <c r="E198" s="1">
-        <v>-74.733333000000002</v>
+        <v>-75.792361999999997</v>
       </c>
       <c r="H198" s="1" t="s">
-        <v>44</v>
+        <v>797</v>
+      </c>
+      <c r="J198" s="1" t="s">
+        <v>650</v>
       </c>
       <c r="M198" s="1"/>
       <c r="N198" s="3"/>
@@ -7865,7 +7950,7 @@
         <v>97</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>456</v>
@@ -7932,7 +8017,7 @@
         <v>-77.116667000000007</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="M201" s="1"/>
       <c r="N201" s="3"/>
@@ -7962,10 +8047,10 @@
         <v>482</v>
       </c>
       <c r="I202" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="J202" s="1" t="s">
         <v>753</v>
-      </c>
-      <c r="J202" s="1" t="s">
-        <v>754</v>
       </c>
       <c r="K202" s="1">
         <v>46</v>
@@ -8016,7 +8101,7 @@
         <v>5</v>
       </c>
       <c r="M203" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="N203" s="3"/>
       <c r="O203" s="1">
@@ -8044,7 +8129,7 @@
         <v>13</v>
       </c>
       <c r="J204" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="K204" s="1">
         <v>54</v>
@@ -8053,10 +8138,10 @@
         <v>1</v>
       </c>
       <c r="M204" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="N204" s="3" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="O204" s="1">
         <v>766</v>
@@ -8064,7 +8149,7 @@
     </row>
     <row r="205" spans="1:15" ht="16" customHeight="1">
       <c r="A205" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B205" s="1"/>
       <c r="C205" s="1" t="s">
@@ -8077,7 +8162,7 @@
         <v>-74.349999999999994</v>
       </c>
       <c r="H205" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="M205" s="1"/>
       <c r="N205" s="3"/>
@@ -8100,7 +8185,7 @@
     </row>
     <row r="207" spans="1:15" ht="16" customHeight="1">
       <c r="A207" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B207" s="1"/>
       <c r="C207" s="1" t="s">
@@ -8131,7 +8216,7 @@
         <v>662</v>
       </c>
       <c r="J208" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="K208" s="1">
         <v>20</v>
@@ -8149,11 +8234,11 @@
     </row>
     <row r="209" spans="1:15" ht="16" customHeight="1">
       <c r="A209" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B209" s="1"/>
       <c r="C209" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D209" s="6">
         <v>10.75</v>
@@ -8333,35 +8418,56 @@
     </row>
     <row r="218" spans="1:15" ht="16" customHeight="1">
       <c r="A218" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B218" s="1"/>
+        <v>172</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D218" s="1">
+        <v>4.6737520000000004</v>
+      </c>
+      <c r="E218" s="1">
+        <v>-75.423862999999997</v>
+      </c>
       <c r="G218" s="1" t="s">
-        <v>416</v>
+        <v>173</v>
+      </c>
+      <c r="H218" s="1" t="s">
+        <v>458</v>
       </c>
       <c r="J218" s="1" t="s">
-        <v>417</v>
+        <v>508</v>
       </c>
       <c r="K218" s="1">
-        <v>138</v>
-      </c>
-      <c r="M218" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="L218" s="1">
+        <v>3</v>
+      </c>
+      <c r="M218" s="1" t="s">
+        <v>174</v>
+      </c>
       <c r="N218" s="3"/>
-      <c r="O218" s="1"/>
+      <c r="O218" s="1">
+        <v>75</v>
+      </c>
     </row>
     <row r="219" spans="1:15" ht="16" customHeight="1">
       <c r="A219" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B219" s="1"/>
       <c r="G219" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="J219" s="1" t="s">
-        <v>647</v>
+        <v>417</v>
       </c>
       <c r="K219" s="1">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="M219" s="1"/>
       <c r="N219" s="3"/>
@@ -8369,14 +8475,17 @@
     </row>
     <row r="220" spans="1:15" ht="16" customHeight="1">
       <c r="A220" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B220" s="1"/>
       <c r="G220" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="J220" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
+      </c>
+      <c r="K220" s="1">
+        <v>119</v>
       </c>
       <c r="M220" s="1"/>
       <c r="N220" s="3"/>
@@ -8384,26 +8493,14 @@
     </row>
     <row r="221" spans="1:15" ht="16" customHeight="1">
       <c r="A221" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B221" s="1"/>
-      <c r="C221" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="D221" s="6">
-        <v>4.4891170000000002</v>
-      </c>
-      <c r="E221" s="1">
-        <v>-74.260176999999999</v>
-      </c>
       <c r="G221" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="H221" s="1" t="s">
-        <v>481</v>
+        <v>421</v>
       </c>
       <c r="J221" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="M221" s="1"/>
       <c r="N221" s="3"/>
@@ -8411,23 +8508,26 @@
     </row>
     <row r="222" spans="1:15" ht="16" customHeight="1">
       <c r="A222" s="1" t="s">
-        <v>717</v>
+        <v>422</v>
       </c>
       <c r="B222" s="1"/>
       <c r="C222" s="1" t="s">
-        <v>718</v>
+        <v>468</v>
       </c>
       <c r="D222" s="6">
-        <v>9.4</v>
+        <v>4.4891170000000002</v>
       </c>
       <c r="E222" s="1">
-        <v>-75.816666999999995</v>
+        <v>-74.260176999999999</v>
+      </c>
+      <c r="G222" s="1" t="s">
+        <v>423</v>
       </c>
       <c r="H222" s="1" t="s">
-        <v>44</v>
+        <v>481</v>
       </c>
       <c r="J222" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="M222" s="1"/>
       <c r="N222" s="3"/>
@@ -8650,10 +8750,10 @@
         <v>465</v>
       </c>
       <c r="D231" s="1">
-        <v>1.816667</v>
+        <v>1.807666</v>
       </c>
       <c r="E231" s="1">
-        <v>-78.766666999999998</v>
+        <v>-78.768043000000006</v>
       </c>
       <c r="G231" s="1" t="s">
         <v>169</v>
@@ -8696,7 +8796,7 @@
         <v>472</v>
       </c>
       <c r="H232" s="1" t="s">
-        <v>44</v>
+        <v>798</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>658</v>
@@ -8830,7 +8930,7 @@
         <v>444</v>
       </c>
       <c r="J238" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="K238" s="1">
         <v>109</v>
@@ -8863,7 +8963,7 @@
         <v>481</v>
       </c>
       <c r="J239" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="K239" s="1">
         <v>164</v>
@@ -8879,38 +8979,51 @@
         <v>337</v>
       </c>
     </row>
-    <row r="240" spans="1:15">
+    <row r="240" spans="1:15" ht="17">
       <c r="A240" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="I240" s="1" t="s">
-        <v>779</v>
-      </c>
-      <c r="M240" s="4" t="s">
         <v>780</v>
       </c>
-    </row>
-    <row r="241" spans="1:8" ht="17">
+      <c r="C240" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D240" s="7">
+        <v>4.5449380000000001</v>
+      </c>
+      <c r="E240" s="1">
+        <v>-75.486750999999998</v>
+      </c>
+      <c r="H240" s="1" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="241" spans="1:15">
       <c r="A241" s="1" t="s">
-        <v>781</v>
-      </c>
+        <v>767</v>
+      </c>
+      <c r="B241" s="1"/>
       <c r="C241" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="D241" s="7">
-        <v>4.5449380000000001</v>
+      <c r="D241" s="1">
+        <v>5.1534769999999996</v>
       </c>
       <c r="E241" s="1">
-        <v>-75.486750999999998</v>
+        <v>-75.037125000000003</v>
       </c>
       <c r="H241" s="1" t="s">
-        <v>782</v>
-      </c>
+        <v>693</v>
+      </c>
+      <c r="I241" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="M241" s="1"/>
+      <c r="N241" s="3"/>
+      <c r="O241" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:O239" xr:uid="{150A19D3-4199-0F4F-97CF-01E6FA9A9E7F}">
-    <sortState ref="A2:O239">
-      <sortCondition ref="A1:A239"/>
+    <sortState ref="A2:O241">
+      <sortCondition ref="A1:A241"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/historical.databases/Gazetteer_Chapman_Colombia_Expeditions.xlsx
+++ b/historical.databases/Gazetteer_Chapman_Colombia_Expeditions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/glennseeholzer/Dropbox/Chapman/expediciornis/historical.databases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4CE3D93-7AA3-344B-B0F3-68C1BB4E9843}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3A07BF2-4909-7349-AD63-3CE1A1A028C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2560" yWindow="460" windowWidth="28680" windowHeight="14960" xr2:uid="{3D1F2814-41A2-A340-856E-49F90DDEFF78}"/>
+    <workbookView xWindow="2560" yWindow="460" windowWidth="28680" windowHeight="17480" xr2:uid="{3D1F2814-41A2-A340-856E-49F90DDEFF78}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,8 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$239</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="799">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="800">
   <si>
     <t>Lat</t>
   </si>
@@ -2376,9 +2377,6 @@
     <t>A minor locality of one specimen in Rio Toche drainage at approximately same elvation as Laguneta</t>
   </si>
   <si>
-    <t>Point placed at 5,500 ft between La Candela and San Agustin</t>
-  </si>
-  <si>
     <t>Lat. 11 00, Long. 74 40'; 0 ft.</t>
   </si>
   <si>
@@ -2425,6 +2423,12 @@
   </si>
   <si>
     <t>Verbatim from Paynter-Colombia-Gazetteer. Point placed in town center.</t>
+  </si>
+  <si>
+    <t>AMC found the hacienda.</t>
+  </si>
+  <si>
+    <t>Located in person by AMC, now known as Villa Fatimá. Chapman 1917 indicates that La Palma was to the south of San Agustín. But this appe</t>
   </si>
 </sst>
 </file>
@@ -2805,10 +2809,10 @@
   <dimension ref="A1:O241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B213" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B91" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H233" sqref="H233"/>
+      <selection pane="bottomRight" activeCell="D95" sqref="D95:E95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2872,7 +2876,7 @@
         <v>669</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -3397,13 +3401,13 @@
         <v>-74.782616000000004</v>
       </c>
       <c r="G20" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>783</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="I20" s="1" t="s">
         <v>784</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>785</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>221</v>
@@ -4526,7 +4530,7 @@
         <v>257</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="J62" s="1" t="s">
         <v>570</v>
@@ -4571,7 +4575,7 @@
         <v>259</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="J64" s="1" t="s">
         <v>571</v>
@@ -5315,7 +5319,7 @@
         <v>191</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>585</v>
@@ -5372,10 +5376,10 @@
         <v>464</v>
       </c>
       <c r="D95" s="1">
-        <v>1.8332999999999999</v>
+        <v>1.8632850000000001</v>
       </c>
       <c r="E95" s="1">
-        <v>-76.332999999999998</v>
+        <v>-76.361715000000004</v>
       </c>
       <c r="F95" s="1">
         <v>1980</v>
@@ -5384,7 +5388,7 @@
         <v>45</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>44</v>
+        <v>798</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>512</v>
@@ -5540,7 +5544,7 @@
         <v>299</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="J101" s="1" t="s">
         <v>589</v>
@@ -5715,16 +5719,16 @@
         <v>464</v>
       </c>
       <c r="D107" s="1">
-        <v>1.8646450000000001</v>
+        <v>1.900021</v>
       </c>
       <c r="E107" s="1">
-        <v>-76.299693000000005</v>
+        <v>-76.393428</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>146</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>782</v>
+        <v>799</v>
       </c>
       <c r="I107" s="1" t="s">
         <v>480</v>
@@ -5819,7 +5823,7 @@
         <v>307</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>594</v>
@@ -6153,7 +6157,7 @@
       </c>
       <c r="B123" s="1"/>
       <c r="H123" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="M123" s="1"/>
       <c r="N123" s="3"/>
@@ -6647,7 +6651,7 @@
       </c>
       <c r="B144" s="1"/>
       <c r="I144" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="M144" s="1"/>
       <c r="N144" s="3"/>
@@ -6973,7 +6977,7 @@
         <v>458</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>503</v>
@@ -7702,7 +7706,7 @@
         <v>191</v>
       </c>
       <c r="I186" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>552</v>
@@ -7912,7 +7916,7 @@
         <v>191</v>
       </c>
       <c r="H197" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>639</v>
@@ -7936,7 +7940,7 @@
         <v>-75.792361999999997</v>
       </c>
       <c r="H198" s="1" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>650</v>
@@ -8796,7 +8800,7 @@
         <v>472</v>
       </c>
       <c r="H232" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>658</v>
